--- a/new地址分配说明.xlsx
+++ b/new地址分配说明.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="387">
   <si>
     <t>站号</t>
   </si>
@@ -905,182 +905,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>FF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J8</t>
     </r>
   </si>
   <si>
@@ -2272,180 +2096,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J16</t>
-    </r>
+    <t>补料站电缸</t>
+  </si>
+  <si>
+    <t>启动计算</t>
+  </si>
+  <si>
+    <t>启动运动</t>
   </si>
   <si>
     <t>进料站</t>
@@ -2620,7 +2277,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2636,15 +2293,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2657,32 +2315,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2697,75 +2352,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2782,6 +2377,61 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2826,37 +2476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2874,19 +2500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2904,7 +2524,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2916,7 +2560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2928,7 +2590,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2940,61 +2638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3006,7 +2656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3022,11 +2672,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3046,26 +2709,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3081,15 +2729,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3111,6 +2750,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -3125,10 +2775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3137,137 +2787,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3301,7 +2951,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3313,10 +2963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3331,9 +2978,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3343,10 +2987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3699,8 +3340,8 @@
   <sheetPr/>
   <dimension ref="A1:AE493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="F372" sqref="F372"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="H431" sqref="H431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -8834,7 +8475,7 @@
       <c r="C162" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D162" s="15" t="s">
+      <c r="D162" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E162" s="4" t="str">
@@ -9027,7 +8668,7 @@
     <row r="171" spans="1:8">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="15" t="s">
+      <c r="C171" s="5" t="s">
         <v>160</v>
       </c>
       <c r="D171" s="5"/>
@@ -9049,10 +8690,10 @@
     <row r="172" spans="1:8">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="16" t="s">
+      <c r="C172" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D172" s="16" t="s">
+      <c r="D172" s="15" t="s">
         <v>162</v>
       </c>
       <c r="E172" s="4" t="str">
@@ -9073,8 +8714,8 @@
     <row r="173" spans="1:8">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="15" t="s">
+      <c r="C173" s="16"/>
+      <c r="D173" s="5" t="s">
         <v>163</v>
       </c>
       <c r="E173" s="4" t="str">
@@ -9095,10 +8736,10 @@
     <row r="174" spans="1:8">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
-      <c r="C174" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D174" s="15" t="s">
+      <c r="C174" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D174" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E174" s="4" t="str">
@@ -9119,7 +8760,7 @@
     <row r="175" spans="1:8">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
-      <c r="D175" s="15" t="s">
+      <c r="D175" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E175" s="4" t="str">
@@ -9140,10 +8781,10 @@
     <row r="176" spans="1:8">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D176" s="15" t="s">
+      <c r="C176" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E176" s="4" t="str">
@@ -9164,7 +8805,7 @@
     <row r="177" spans="1:8">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="D177" s="15" t="s">
+      <c r="D177" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E177" s="4" t="str">
@@ -9185,10 +8826,10 @@
     <row r="178" spans="1:8">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D178" s="15" t="s">
+      <c r="C178" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E178" s="4" t="str">
@@ -9209,7 +8850,7 @@
     <row r="179" spans="1:8">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
-      <c r="D179" s="15" t="s">
+      <c r="D179" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E179" s="4" t="str">
@@ -9230,10 +8871,10 @@
     <row r="180" spans="1:8">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D180" s="15" t="s">
+      <c r="C180" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D180" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E180" s="4" t="str">
@@ -9254,7 +8895,7 @@
     <row r="181" spans="1:8">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
-      <c r="D181" s="15" t="s">
+      <c r="D181" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E181" s="4" t="str">
@@ -9275,10 +8916,10 @@
     <row r="182" spans="1:8">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D182" s="15" t="s">
+      <c r="C182" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E182" s="4" t="str">
@@ -9299,7 +8940,7 @@
     <row r="183" spans="1:8">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
-      <c r="D183" s="15" t="s">
+      <c r="D183" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E183" s="4" t="str">
@@ -9320,10 +8961,10 @@
     <row r="184" spans="1:8">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
-      <c r="C184" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D184" s="15" t="s">
+      <c r="C184" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E184" s="4" t="str">
@@ -9344,7 +8985,7 @@
     <row r="185" spans="1:8">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
-      <c r="D185" s="15" t="s">
+      <c r="D185" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E185" s="4" t="str">
@@ -9365,10 +9006,10 @@
     <row r="186" spans="1:8">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D186" s="15" t="s">
+      <c r="C186" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D186" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E186" s="4" t="str">
@@ -9389,7 +9030,7 @@
     <row r="187" spans="1:8">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
-      <c r="D187" s="15" t="s">
+      <c r="D187" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E187" s="4" t="str">
@@ -9410,10 +9051,10 @@
     <row r="188" spans="1:8">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D188" s="15" t="s">
+      <c r="C188" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E188" s="4" t="str">
@@ -9434,7 +9075,7 @@
     <row r="189" spans="1:8">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
-      <c r="D189" s="15" t="s">
+      <c r="D189" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E189" s="4" t="str">
@@ -9455,11 +9096,11 @@
     <row r="190" spans="1:8">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="15" t="s">
+      <c r="C190" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D190" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="D190" s="15" t="s">
-        <v>172</v>
       </c>
       <c r="E190" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9479,11 +9120,11 @@
     <row r="191" spans="1:8">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D191" s="15" t="s">
-        <v>172</v>
+      <c r="C191" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="E191" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9503,11 +9144,11 @@
     <row r="192" spans="1:8">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D192" s="15" t="s">
-        <v>172</v>
+      <c r="C192" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="E192" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9527,11 +9168,11 @@
     <row r="193" spans="1:8">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D193" s="15" t="s">
-        <v>172</v>
+      <c r="C193" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="E193" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9551,11 +9192,11 @@
     <row r="194" spans="1:8">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D194" s="15" t="s">
-        <v>172</v>
+      <c r="C194" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="E194" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9575,11 +9216,11 @@
     <row r="195" spans="1:8">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D195" s="15" t="s">
-        <v>172</v>
+      <c r="C195" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="E195" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9599,11 +9240,11 @@
     <row r="196" spans="1:8">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D196" s="15" t="s">
-        <v>172</v>
+      <c r="C196" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="E196" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9623,11 +9264,11 @@
     <row r="197" spans="1:8">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
-      <c r="C197" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D197" s="15" t="s">
-        <v>172</v>
+      <c r="C197" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="E197" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9648,7 +9289,7 @@
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="D198" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E198" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9784,20 +9425,20 @@
       <c r="J214" s="5"/>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="15" t="s">
-        <v>174</v>
+      <c r="A215" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="B215" s="4"/>
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="4" t="str">
@@ -9821,7 +9462,7 @@
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D217" s="8"/>
       <c r="E217" s="4" t="str">
@@ -9845,10 +9486,10 @@
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E218" s="4" t="str">
         <f t="shared" si="10"/>
@@ -9873,7 +9514,7 @@
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="D219" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E219" s="4" t="str">
         <f t="shared" si="10"/>
@@ -9896,10 +9537,10 @@
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E220" s="4" t="str">
         <f t="shared" si="10"/>
@@ -9922,7 +9563,7 @@
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="D221" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E221" s="4" t="str">
         <f t="shared" si="10"/>
@@ -9945,10 +9586,10 @@
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E222" s="4" t="str">
         <f t="shared" si="10"/>
@@ -9971,7 +9612,7 @@
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="D223" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E223" s="4" t="str">
         <f t="shared" si="10"/>
@@ -9994,10 +9635,10 @@
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E224" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10020,7 +9661,7 @@
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="D225" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E225" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10042,61 +9683,61 @@
     <row r="226" spans="1:10">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D226" s="19" t="s">
-        <v>191</v>
+      <c r="C226" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D226" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E226" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00D6</v>
       </c>
-      <c r="F226" s="20">
+      <c r="F226" s="19">
         <v>214</v>
       </c>
       <c r="G226" s="5" t="str">
         <f t="shared" si="11"/>
         <v>08D6</v>
       </c>
-      <c r="H226" s="18">
+      <c r="H226" s="17">
         <v>2262</v>
       </c>
-      <c r="I226" s="18"/>
-      <c r="J226" s="18"/>
+      <c r="I226" s="17"/>
+      <c r="J226" s="17"/>
     </row>
     <row r="227" spans="1:10">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="20"/>
-      <c r="D227" s="19" t="s">
-        <v>192</v>
+      <c r="C227" s="19"/>
+      <c r="D227" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E227" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00D7</v>
       </c>
-      <c r="F227" s="20">
+      <c r="F227" s="19">
         <v>215</v>
       </c>
       <c r="G227" s="5" t="str">
         <f t="shared" si="11"/>
         <v>08D7</v>
       </c>
-      <c r="H227" s="18">
+      <c r="H227" s="17">
         <v>2263</v>
       </c>
-      <c r="I227" s="18"/>
-      <c r="J227" s="18"/>
+      <c r="I227" s="17"/>
+      <c r="J227" s="17"/>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E228" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10120,7 +9761,7 @@
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="D229" s="10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E229" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10141,10 +9782,10 @@
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E230" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10165,7 +9806,7 @@
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="D231" s="9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E231" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10186,10 +9827,10 @@
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E232" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10210,7 +9851,7 @@
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="D233" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E233" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10231,10 +9872,10 @@
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E234" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10255,7 +9896,7 @@
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="D235" s="9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E235" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10275,51 +9916,51 @@
     <row r="236" spans="1:10">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
-      <c r="C236" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="D236" s="19" t="s">
-        <v>206</v>
+      <c r="C236" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D236" s="18" t="s">
+        <v>198</v>
       </c>
       <c r="E236" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00D8</v>
       </c>
-      <c r="F236" s="20">
+      <c r="F236" s="19">
         <v>216</v>
       </c>
       <c r="G236" s="5" t="str">
         <f t="shared" si="11"/>
         <v>08D8</v>
       </c>
-      <c r="H236" s="18">
+      <c r="H236" s="17">
         <v>2264</v>
       </c>
-      <c r="I236" s="18"/>
-      <c r="J236" s="18"/>
+      <c r="I236" s="17"/>
+      <c r="J236" s="17"/>
     </row>
     <row r="237" spans="1:10">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
-      <c r="C237" s="20"/>
-      <c r="D237" s="19" t="s">
-        <v>207</v>
+      <c r="C237" s="19"/>
+      <c r="D237" s="18" t="s">
+        <v>199</v>
       </c>
       <c r="E237" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00D9</v>
       </c>
-      <c r="F237" s="20">
+      <c r="F237" s="19">
         <v>217</v>
       </c>
       <c r="G237" s="5" t="str">
         <f t="shared" si="11"/>
         <v>08D9</v>
       </c>
-      <c r="H237" s="18">
+      <c r="H237" s="17">
         <v>2265</v>
       </c>
-      <c r="J237" s="18"/>
+      <c r="J237" s="17"/>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="4"/>
@@ -10327,7 +9968,7 @@
         <v>74</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>76</v>
@@ -10374,13 +10015,13 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E240" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10401,7 +10042,7 @@
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="6" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="4" t="str">
@@ -10423,7 +10064,7 @@
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E242" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10444,7 +10085,7 @@
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E243" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10467,10 +10108,10 @@
         <v>25</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E244" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10491,7 +10132,7 @@
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="D245" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E245" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10512,10 +10153,10 @@
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E246" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10539,7 +10180,7 @@
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="D247" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E247" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10560,10 +10201,10 @@
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E248" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10584,7 +10225,7 @@
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="D249" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E249" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10605,10 +10246,10 @@
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E250" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10629,7 +10270,7 @@
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="D251" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E251" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10649,11 +10290,11 @@
     <row r="252" spans="1:8">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
-      <c r="C252" s="21" t="s">
-        <v>226</v>
+      <c r="C252" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E252" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10673,9 +10314,9 @@
     <row r="253" spans="1:8">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
-      <c r="C253" s="17"/>
+      <c r="C253" s="16"/>
       <c r="D253" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E253" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10696,10 +10337,10 @@
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E254" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10723,7 +10364,7 @@
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="D255" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E255" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10744,10 +10385,10 @@
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E256" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10768,7 +10409,7 @@
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="D257" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E257" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10789,10 +10430,10 @@
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E258" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10813,7 +10454,7 @@
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="D259" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E259" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10834,10 +10475,10 @@
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E260" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10858,7 +10499,7 @@
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="D261" s="6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E261" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10878,11 +10519,11 @@
     <row r="262" spans="1:9">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
-      <c r="C262" s="21" t="s">
-        <v>241</v>
+      <c r="C262" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E262" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10905,9 +10546,9 @@
     <row r="263" spans="1:8">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
-      <c r="C263" s="17"/>
+      <c r="C263" s="16"/>
       <c r="D263" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E263" s="4" t="str">
         <f t="shared" si="10"/>
@@ -10930,7 +10571,7 @@
         <v>74</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>76</v>
@@ -10975,7 +10616,7 @@
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>76</v>
@@ -11018,13 +10659,13 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E268" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11045,7 +10686,7 @@
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E269" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11068,10 +10709,10 @@
         <v>25</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E270" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11095,7 +10736,7 @@
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="D271" s="6" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E271" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11116,10 +10757,10 @@
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E272" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11140,7 +10781,7 @@
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="D273" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E273" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11161,10 +10802,10 @@
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E274" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11185,7 +10826,7 @@
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="D275" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E275" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11206,10 +10847,10 @@
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E276" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11230,7 +10871,7 @@
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="D277" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E277" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11251,10 +10892,10 @@
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E278" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11278,7 +10919,7 @@
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="D279" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E279" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11299,10 +10940,10 @@
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E280" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11323,7 +10964,7 @@
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="D281" s="6" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E281" s="4" t="str">
         <f t="shared" ref="E281:E329" si="12">DEC2HEX(F281,4)</f>
@@ -11343,11 +10984,11 @@
     <row r="282" spans="1:8">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
-      <c r="C282" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="D282" s="21" t="s">
-        <v>268</v>
+      <c r="C282" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D282" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="E282" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11367,9 +11008,9 @@
     <row r="283" spans="1:8">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
-      <c r="C283" s="17"/>
-      <c r="D283" s="21" t="s">
-        <v>269</v>
+      <c r="C283" s="16"/>
+      <c r="D283" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="E283" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11389,61 +11030,61 @@
     <row r="284" spans="1:10">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D284" s="18" t="s">
-        <v>271</v>
+      <c r="C284" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>263</v>
       </c>
       <c r="E284" s="4" t="str">
         <f t="shared" si="12"/>
         <v>00DA</v>
       </c>
-      <c r="F284" s="20">
+      <c r="F284" s="19">
         <v>218</v>
       </c>
       <c r="G284" s="5" t="str">
         <f t="shared" si="13"/>
         <v>08DA</v>
       </c>
-      <c r="H284" s="18">
+      <c r="H284" s="17">
         <v>2266</v>
       </c>
-      <c r="I284" s="18"/>
-      <c r="J284" s="18"/>
+      <c r="I284" s="17"/>
+      <c r="J284" s="17"/>
     </row>
     <row r="285" spans="1:10">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="20"/>
-      <c r="D285" s="18" t="s">
-        <v>272</v>
+      <c r="C285" s="19"/>
+      <c r="D285" s="17" t="s">
+        <v>264</v>
       </c>
       <c r="E285" s="4" t="str">
         <f t="shared" si="12"/>
         <v>00DB</v>
       </c>
-      <c r="F285" s="20">
+      <c r="F285" s="19">
         <v>219</v>
       </c>
       <c r="G285" s="5" t="str">
         <f t="shared" si="13"/>
         <v>08DB</v>
       </c>
-      <c r="H285" s="18">
+      <c r="H285" s="17">
         <v>2267</v>
       </c>
-      <c r="I285" s="18"/>
-      <c r="J285" s="18"/>
+      <c r="I285" s="17"/>
+      <c r="J285" s="17"/>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E286" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11464,7 +11105,7 @@
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="D287" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E287" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11485,10 +11126,10 @@
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E288" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11512,7 +11153,7 @@
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="D289" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E289" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11533,10 +11174,10 @@
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E290" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11557,7 +11198,7 @@
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="D291" s="4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E291" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11578,10 +11219,10 @@
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E292" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11602,7 +11243,7 @@
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="D293" s="6" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E293" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11623,10 +11264,10 @@
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E294" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11647,7 +11288,7 @@
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="D295" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E295" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11668,10 +11309,10 @@
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E296" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11695,7 +11336,7 @@
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="D297" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E297" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11715,11 +11356,11 @@
     <row r="298" spans="1:8">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
-      <c r="C298" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="D298" s="21" t="s">
-        <v>292</v>
+      <c r="C298" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D298" s="15" t="s">
+        <v>284</v>
       </c>
       <c r="E298" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11739,9 +11380,9 @@
     <row r="299" spans="1:8">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
-      <c r="C299" s="17"/>
-      <c r="D299" s="21" t="s">
-        <v>293</v>
+      <c r="C299" s="16"/>
+      <c r="D299" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="E299" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11761,52 +11402,52 @@
     <row r="300" spans="1:10">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
-      <c r="C300" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D300" s="18" t="s">
-        <v>295</v>
+      <c r="C300" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D300" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="E300" s="4" t="str">
         <f t="shared" si="12"/>
         <v>00DC</v>
       </c>
-      <c r="F300" s="20">
+      <c r="F300" s="19">
         <v>220</v>
       </c>
       <c r="G300" s="5" t="str">
         <f t="shared" si="13"/>
         <v>08DC</v>
       </c>
-      <c r="H300" s="18">
+      <c r="H300" s="17">
         <v>2268</v>
       </c>
-      <c r="I300" s="18"/>
-      <c r="J300" s="18"/>
+      <c r="I300" s="17"/>
+      <c r="J300" s="17"/>
     </row>
     <row r="301" spans="1:10">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
-      <c r="C301" s="20"/>
-      <c r="D301" s="18" t="s">
-        <v>296</v>
+      <c r="C301" s="19"/>
+      <c r="D301" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="E301" s="4" t="str">
         <f t="shared" si="12"/>
         <v>00DD</v>
       </c>
-      <c r="F301" s="20">
+      <c r="F301" s="19">
         <v>221</v>
       </c>
       <c r="G301" s="5" t="str">
         <f t="shared" si="13"/>
         <v>08DD</v>
       </c>
-      <c r="H301" s="18">
+      <c r="H301" s="17">
         <v>2269</v>
       </c>
-      <c r="I301" s="18"/>
-      <c r="J301" s="18"/>
+      <c r="I301" s="17"/>
+      <c r="J301" s="17"/>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="4"/>
@@ -11814,7 +11455,7 @@
         <v>74</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>76</v>
@@ -11860,7 +11501,7 @@
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>76</v>
@@ -11903,13 +11544,13 @@
     </row>
     <row r="306" spans="1:9">
       <c r="A306" s="4" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E306" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11933,7 +11574,7 @@
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E307" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11954,7 +11595,7 @@
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E308" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11975,7 +11616,7 @@
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E309" s="4" t="str">
         <f t="shared" si="12"/>
@@ -11996,7 +11637,7 @@
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E310" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12017,7 +11658,7 @@
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E311" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12040,10 +11681,10 @@
         <v>25</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E312" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12064,7 +11705,7 @@
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="D313" s="4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E313" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12085,10 +11726,10 @@
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E314" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12112,7 +11753,7 @@
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="D315" s="6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E315" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12133,10 +11774,10 @@
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E316" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12157,7 +11798,7 @@
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="D317" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E317" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12178,10 +11819,10 @@
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E318" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12202,7 +11843,7 @@
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="D319" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E319" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12223,10 +11864,10 @@
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E320" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12247,7 +11888,7 @@
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="D321" s="4" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E321" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12268,10 +11909,10 @@
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E322" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12295,7 +11936,7 @@
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="D323" s="4" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E323" s="4" t="str">
         <f t="shared" si="12"/>
@@ -12318,7 +11959,7 @@
         <v>74</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>76</v>
@@ -12363,7 +12004,7 @@
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>76</v>
@@ -12408,7 +12049,7 @@
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>76</v>
@@ -12450,43 +12091,43 @@
       </c>
     </row>
     <row r="330" spans="1:19">
-      <c r="A330" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B330" s="17"/>
-      <c r="C330" s="17"/>
-      <c r="D330" s="17"/>
-      <c r="E330" s="17"/>
-      <c r="F330" s="17"/>
-      <c r="G330" s="17"/>
-      <c r="H330" s="17"/>
-      <c r="I330" s="17"/>
-      <c r="J330" s="17"/>
-      <c r="K330" s="22"/>
-      <c r="L330" s="22"/>
-      <c r="M330" s="22"/>
-      <c r="N330" s="22"/>
-      <c r="O330" s="22"/>
-      <c r="P330" s="22"/>
-      <c r="Q330" s="22"/>
-      <c r="R330" s="22"/>
-      <c r="S330" s="22"/>
+      <c r="A330" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B330" s="16"/>
+      <c r="C330" s="16"/>
+      <c r="D330" s="16"/>
+      <c r="E330" s="16"/>
+      <c r="F330" s="16"/>
+      <c r="G330" s="16"/>
+      <c r="H330" s="16"/>
+      <c r="I330" s="16"/>
+      <c r="J330" s="16"/>
+      <c r="K330" s="20"/>
+      <c r="L330" s="20"/>
+      <c r="M330" s="20"/>
+      <c r="N330" s="20"/>
+      <c r="O330" s="20"/>
+      <c r="P330" s="20"/>
+      <c r="Q330" s="20"/>
+      <c r="R330" s="20"/>
+      <c r="S330" s="20"/>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="15" t="s">
-        <v>328</v>
+      <c r="A331" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="B331" s="4"/>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" s="14"/>
-      <c r="C332" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D332" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E332" s="15" t="str">
+      <c r="C332" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D332" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E332" s="5" t="str">
         <f>DEC2HEX(F332,4)</f>
         <v>00D6</v>
       </c>
@@ -12506,11 +12147,11 @@
     </row>
     <row r="333" spans="1:8">
       <c r="A333" s="14"/>
-      <c r="C333" s="20"/>
-      <c r="D333" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E333" s="15" t="str">
+      <c r="C333" s="19"/>
+      <c r="D333" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E333" s="5" t="str">
         <f t="shared" ref="E333:E396" si="14">DEC2HEX(F333,4)</f>
         <v>00D7</v>
       </c>
@@ -12527,13 +12168,13 @@
     </row>
     <row r="334" spans="1:8">
       <c r="A334" s="14"/>
-      <c r="C334" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="D334" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E334" s="15" t="str">
+      <c r="C334" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D334" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E334" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00D8</v>
       </c>
@@ -12550,11 +12191,11 @@
     </row>
     <row r="335" spans="1:8">
       <c r="A335" s="14"/>
-      <c r="C335" s="20"/>
-      <c r="D335" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E335" s="15" t="str">
+      <c r="C335" s="19"/>
+      <c r="D335" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E335" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00D9</v>
       </c>
@@ -12571,13 +12212,13 @@
     </row>
     <row r="336" spans="1:8">
       <c r="A336" s="14"/>
-      <c r="C336" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D336" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E336" s="15" t="str">
+      <c r="C336" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D336" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E336" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00DA</v>
       </c>
@@ -12594,11 +12235,11 @@
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="14"/>
-      <c r="C337" s="20"/>
-      <c r="D337" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="E337" s="15" t="str">
+      <c r="C337" s="19"/>
+      <c r="D337" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E337" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00DB</v>
       </c>
@@ -12615,13 +12256,13 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="14"/>
-      <c r="C338" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D338" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="E338" s="15" t="str">
+      <c r="C338" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D338" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="E338" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00DC</v>
       </c>
@@ -12638,11 +12279,11 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="14"/>
-      <c r="C339" s="20"/>
-      <c r="D339" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E339" s="15" t="str">
+      <c r="C339" s="19"/>
+      <c r="D339" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E339" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00DD</v>
       </c>
@@ -12663,12 +12304,12 @@
         <v>74</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D340" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E340" s="15" t="str">
+      <c r="E340" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00DE</v>
       </c>
@@ -12690,12 +12331,12 @@
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
       <c r="C341" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D341" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E341" s="15" t="str">
+      <c r="E341" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00DF</v>
       </c>
@@ -12714,12 +12355,12 @@
       <c r="A342" s="14"/>
       <c r="B342" s="14"/>
       <c r="C342" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E342" s="15" t="str">
+      <c r="E342" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00E0</v>
       </c>
@@ -12738,12 +12379,12 @@
       <c r="A343" s="14"/>
       <c r="B343" s="14"/>
       <c r="C343" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E343" s="15" t="str">
+      <c r="E343" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00E1</v>
       </c>
@@ -12764,12 +12405,12 @@
         <v>74</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E344" s="15" t="str">
+      <c r="E344" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00E2</v>
       </c>
@@ -12788,12 +12429,12 @@
       <c r="A345" s="14"/>
       <c r="B345" s="14"/>
       <c r="C345" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E345" s="15" t="str">
+      <c r="E345" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00E3</v>
       </c>
@@ -12812,12 +12453,12 @@
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
       <c r="C346" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D346" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E346" s="15" t="str">
+      <c r="E346" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00E4</v>
       </c>
@@ -12836,12 +12477,12 @@
       <c r="A347" s="14"/>
       <c r="B347" s="14"/>
       <c r="C347" s="8" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D347" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E347" s="15" t="str">
+      <c r="E347" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00E5</v>
       </c>
@@ -12860,12 +12501,12 @@
       <c r="A348" s="14"/>
       <c r="B348" s="14"/>
       <c r="C348" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D348" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E348" s="15" t="str">
+      <c r="E348" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00E6</v>
       </c>
@@ -12887,12 +12528,12 @@
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
       <c r="C349" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D349" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E349" s="15" t="str">
+      <c r="E349" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00E7</v>
       </c>
@@ -12913,12 +12554,12 @@
         <v>74</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D350" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E350" s="15" t="str">
+      <c r="E350" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00E8</v>
       </c>
@@ -12937,12 +12578,12 @@
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D351" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E351" s="15" t="str">
+      <c r="E351" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00E9</v>
       </c>
@@ -12961,12 +12602,12 @@
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D352" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E352" s="15" t="str">
+      <c r="E352" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00EA</v>
       </c>
@@ -12985,12 +12626,12 @@
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D353" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E353" s="15" t="str">
+      <c r="E353" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00EB</v>
       </c>
@@ -13009,12 +12650,12 @@
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
       <c r="C354" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D354" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E354" s="15" t="str">
+      <c r="E354" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00EC</v>
       </c>
@@ -13033,12 +12674,12 @@
       <c r="A355" s="14"/>
       <c r="B355" s="14"/>
       <c r="C355" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D355" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E355" s="15" t="str">
+      <c r="E355" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00ED</v>
       </c>
@@ -13057,12 +12698,12 @@
       <c r="A356" s="14"/>
       <c r="B356" s="13"/>
       <c r="C356" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D356" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E356" s="15" t="str">
+      <c r="E356" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00EE</v>
       </c>
@@ -13084,12 +12725,12 @@
       <c r="A357" s="14"/>
       <c r="B357" s="14"/>
       <c r="C357" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D357" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E357" s="15" t="str">
+      <c r="E357" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00EF</v>
       </c>
@@ -13107,17 +12748,17 @@
     <row r="358" spans="1:8">
       <c r="A358" s="14"/>
       <c r="B358" s="13"/>
-      <c r="C358" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="D358" s="21" t="s">
+      <c r="C358" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D358" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E358" s="16" t="str">
+      <c r="E358" s="15" t="str">
         <f t="shared" si="14"/>
         <v>0066</v>
       </c>
-      <c r="F358" s="17">
+      <c r="F358" s="16">
         <v>102</v>
       </c>
       <c r="G358" s="4" t="str">
@@ -13131,17 +12772,17 @@
     <row r="359" spans="1:8">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
-      <c r="C359" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="D359" s="21" t="s">
+      <c r="C359" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D359" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E359" s="16" t="str">
+      <c r="E359" s="15" t="str">
         <f t="shared" si="14"/>
         <v>0067</v>
       </c>
-      <c r="F359" s="17">
+      <c r="F359" s="16">
         <v>103</v>
       </c>
       <c r="G359" s="4" t="str">
@@ -13155,17 +12796,17 @@
     <row r="360" spans="1:8">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
-      <c r="C360" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="D360" s="21" t="s">
+      <c r="C360" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D360" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E360" s="16" t="str">
+      <c r="E360" s="15" t="str">
         <f t="shared" si="14"/>
         <v>0068</v>
       </c>
-      <c r="F360" s="17">
+      <c r="F360" s="16">
         <v>104</v>
       </c>
       <c r="G360" s="4" t="str">
@@ -13179,17 +12820,17 @@
     <row r="361" spans="1:8">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
-      <c r="C361" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D361" s="21" t="s">
+      <c r="C361" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D361" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E361" s="16" t="str">
+      <c r="E361" s="15" t="str">
         <f t="shared" si="14"/>
         <v>0069</v>
       </c>
-      <c r="F361" s="17">
+      <c r="F361" s="16">
         <v>105</v>
       </c>
       <c r="G361" s="4" t="str">
@@ -13203,17 +12844,17 @@
     <row r="362" spans="1:8">
       <c r="A362" s="14"/>
       <c r="B362" s="13"/>
-      <c r="C362" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="D362" s="21" t="s">
+      <c r="C362" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D362" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E362" s="16" t="str">
+      <c r="E362" s="15" t="str">
         <f t="shared" si="14"/>
         <v>006A</v>
       </c>
-      <c r="F362" s="17">
+      <c r="F362" s="16">
         <v>106</v>
       </c>
       <c r="G362" s="4" t="str">
@@ -13227,17 +12868,17 @@
     <row r="363" spans="1:8">
       <c r="A363" s="14"/>
       <c r="B363" s="14"/>
-      <c r="C363" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="D363" s="21" t="s">
+      <c r="C363" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D363" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E363" s="16" t="str">
+      <c r="E363" s="15" t="str">
         <f t="shared" si="14"/>
         <v>006B</v>
       </c>
-      <c r="F363" s="17">
+      <c r="F363" s="16">
         <v>107</v>
       </c>
       <c r="G363" s="4" t="str">
@@ -13251,7 +12892,7 @@
     <row r="364" spans="3:8">
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
-      <c r="E364" s="15" t="str">
+      <c r="E364" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00F6</v>
       </c>
@@ -13269,7 +12910,7 @@
     <row r="365" spans="3:8">
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
-      <c r="E365" s="15" t="str">
+      <c r="E365" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00F7</v>
       </c>
@@ -13287,7 +12928,7 @@
     <row r="366" spans="3:8">
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
-      <c r="E366" s="15" t="str">
+      <c r="E366" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00F8</v>
       </c>
@@ -13305,7 +12946,7 @@
     <row r="367" spans="3:8">
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
-      <c r="E367" s="15" t="str">
+      <c r="E367" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00F9</v>
       </c>
@@ -13323,7 +12964,7 @@
     <row r="368" spans="3:8">
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
-      <c r="E368" s="15" t="str">
+      <c r="E368" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00FA</v>
       </c>
@@ -13341,7 +12982,7 @@
     <row r="369" spans="3:8">
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
-      <c r="E369" s="15" t="str">
+      <c r="E369" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00FB</v>
       </c>
@@ -13359,7 +13000,7 @@
     <row r="370" spans="3:8">
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
-      <c r="E370" s="15" t="str">
+      <c r="E370" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00FC</v>
       </c>
@@ -13377,7 +13018,7 @@
     <row r="371" spans="3:8">
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
-      <c r="E371" s="15" t="str">
+      <c r="E371" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00FD</v>
       </c>
@@ -13394,12 +13035,12 @@
     </row>
     <row r="372" spans="3:8">
       <c r="C372" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D372" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E372" s="15" t="str">
+      <c r="E372" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00FE</v>
       </c>
@@ -13416,12 +13057,12 @@
     </row>
     <row r="373" spans="3:8">
       <c r="C373" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D373" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E373" s="15" t="str">
+      <c r="E373" s="5" t="str">
         <f t="shared" si="14"/>
         <v>00FF</v>
       </c>
@@ -13438,12 +13079,12 @@
     </row>
     <row r="374" spans="3:8">
       <c r="C374" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E374" s="15" t="str">
+      <c r="E374" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0100</v>
       </c>
@@ -13460,12 +13101,12 @@
     </row>
     <row r="375" spans="3:8">
       <c r="C375" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D375" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E375" s="15" t="str">
+      <c r="E375" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0101</v>
       </c>
@@ -13482,12 +13123,12 @@
     </row>
     <row r="376" spans="3:8">
       <c r="C376" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D376" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E376" s="15" t="str">
+      <c r="E376" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0102</v>
       </c>
@@ -13504,12 +13145,12 @@
     </row>
     <row r="377" spans="3:8">
       <c r="C377" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D377" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E377" s="15" t="str">
+      <c r="E377" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0103</v>
       </c>
@@ -13526,12 +13167,12 @@
     </row>
     <row r="378" spans="3:8">
       <c r="C378" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D378" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E378" s="15" t="str">
+      <c r="E378" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0104</v>
       </c>
@@ -13548,12 +13189,12 @@
     </row>
     <row r="379" spans="3:8">
       <c r="C379" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E379" s="15" t="str">
+      <c r="E379" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0105</v>
       </c>
@@ -13570,12 +13211,12 @@
     </row>
     <row r="380" spans="3:8">
       <c r="C380" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E380" s="15" t="str">
+      <c r="E380" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0106</v>
       </c>
@@ -13592,12 +13233,12 @@
     </row>
     <row r="381" spans="3:8">
       <c r="C381" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E381" s="15" t="str">
+      <c r="E381" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0107</v>
       </c>
@@ -13614,12 +13255,12 @@
     </row>
     <row r="382" spans="3:8">
       <c r="C382" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E382" s="15" t="str">
+      <c r="E382" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0108</v>
       </c>
@@ -13636,12 +13277,12 @@
     </row>
     <row r="383" spans="3:8">
       <c r="C383" s="4" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E383" s="15" t="str">
+      <c r="E383" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0109</v>
       </c>
@@ -13658,12 +13299,12 @@
     </row>
     <row r="384" spans="3:8">
       <c r="C384" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E384" s="15" t="str">
+      <c r="E384" s="5" t="str">
         <f t="shared" si="14"/>
         <v>010A</v>
       </c>
@@ -13680,12 +13321,12 @@
     </row>
     <row r="385" spans="3:8">
       <c r="C385" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E385" s="15" t="str">
+      <c r="E385" s="5" t="str">
         <f t="shared" si="14"/>
         <v>010B</v>
       </c>
@@ -13702,12 +13343,12 @@
     </row>
     <row r="386" spans="3:8">
       <c r="C386" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E386" s="15" t="str">
+      <c r="E386" s="5" t="str">
         <f t="shared" si="14"/>
         <v>010C</v>
       </c>
@@ -13724,12 +13365,12 @@
     </row>
     <row r="387" spans="3:8">
       <c r="C387" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E387" s="15" t="str">
+      <c r="E387" s="5" t="str">
         <f t="shared" si="14"/>
         <v>010D</v>
       </c>
@@ -13745,7 +13386,7 @@
       </c>
     </row>
     <row r="388" spans="5:8">
-      <c r="E388" s="15" t="str">
+      <c r="E388" s="5" t="str">
         <f t="shared" si="14"/>
         <v>010E</v>
       </c>
@@ -13761,7 +13402,7 @@
       </c>
     </row>
     <row r="389" spans="5:8">
-      <c r="E389" s="15" t="str">
+      <c r="E389" s="5" t="str">
         <f t="shared" si="14"/>
         <v>010F</v>
       </c>
@@ -13777,7 +13418,7 @@
       </c>
     </row>
     <row r="390" spans="5:8">
-      <c r="E390" s="15" t="str">
+      <c r="E390" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0110</v>
       </c>
@@ -13793,7 +13434,7 @@
       </c>
     </row>
     <row r="391" spans="5:8">
-      <c r="E391" s="15" t="str">
+      <c r="E391" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0111</v>
       </c>
@@ -13809,11 +13450,11 @@
       </c>
     </row>
     <row r="392" spans="1:21">
-      <c r="A392" s="23"/>
-      <c r="B392" s="23"/>
+      <c r="A392" s="21"/>
+      <c r="B392" s="21"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
-      <c r="E392" s="15" t="str">
+      <c r="E392" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0112</v>
       </c>
@@ -13827,24 +13468,24 @@
       <c r="H392" s="4">
         <v>2322</v>
       </c>
-      <c r="K392" s="23"/>
-      <c r="L392" s="23"/>
-      <c r="M392" s="23"/>
-      <c r="N392" s="23"/>
-      <c r="O392" s="23"/>
-      <c r="P392" s="23"/>
-      <c r="Q392" s="23"/>
-      <c r="R392" s="23"/>
-      <c r="S392" s="23"/>
-      <c r="T392" s="23"/>
-      <c r="U392" s="23"/>
+      <c r="K392" s="21"/>
+      <c r="L392" s="21"/>
+      <c r="M392" s="21"/>
+      <c r="N392" s="21"/>
+      <c r="O392" s="21"/>
+      <c r="P392" s="21"/>
+      <c r="Q392" s="21"/>
+      <c r="R392" s="21"/>
+      <c r="S392" s="21"/>
+      <c r="T392" s="21"/>
+      <c r="U392" s="21"/>
     </row>
     <row r="393" spans="1:21">
-      <c r="A393" s="23"/>
-      <c r="B393" s="23"/>
+      <c r="A393" s="21"/>
+      <c r="B393" s="21"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
-      <c r="E393" s="15" t="str">
+      <c r="E393" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0113</v>
       </c>
@@ -13858,24 +13499,24 @@
       <c r="H393" s="4">
         <v>2323</v>
       </c>
-      <c r="K393" s="23"/>
-      <c r="L393" s="23"/>
-      <c r="M393" s="23"/>
-      <c r="N393" s="23"/>
-      <c r="O393" s="23"/>
-      <c r="P393" s="23"/>
-      <c r="Q393" s="23"/>
-      <c r="R393" s="23"/>
-      <c r="S393" s="23"/>
-      <c r="T393" s="23"/>
-      <c r="U393" s="23"/>
+      <c r="K393" s="21"/>
+      <c r="L393" s="21"/>
+      <c r="M393" s="21"/>
+      <c r="N393" s="21"/>
+      <c r="O393" s="21"/>
+      <c r="P393" s="21"/>
+      <c r="Q393" s="21"/>
+      <c r="R393" s="21"/>
+      <c r="S393" s="21"/>
+      <c r="T393" s="21"/>
+      <c r="U393" s="21"/>
     </row>
     <row r="394" spans="1:21">
-      <c r="A394" s="23"/>
-      <c r="B394" s="23"/>
+      <c r="A394" s="21"/>
+      <c r="B394" s="21"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
-      <c r="E394" s="15" t="str">
+      <c r="E394" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0114</v>
       </c>
@@ -13889,24 +13530,24 @@
       <c r="H394" s="4">
         <v>2324</v>
       </c>
-      <c r="K394" s="23"/>
-      <c r="L394" s="23"/>
-      <c r="M394" s="23"/>
-      <c r="N394" s="23"/>
-      <c r="O394" s="23"/>
-      <c r="P394" s="23"/>
-      <c r="Q394" s="23"/>
-      <c r="R394" s="23"/>
-      <c r="S394" s="23"/>
-      <c r="T394" s="23"/>
-      <c r="U394" s="23"/>
+      <c r="K394" s="21"/>
+      <c r="L394" s="21"/>
+      <c r="M394" s="21"/>
+      <c r="N394" s="21"/>
+      <c r="O394" s="21"/>
+      <c r="P394" s="21"/>
+      <c r="Q394" s="21"/>
+      <c r="R394" s="21"/>
+      <c r="S394" s="21"/>
+      <c r="T394" s="21"/>
+      <c r="U394" s="21"/>
     </row>
     <row r="395" spans="1:21">
-      <c r="A395" s="23"/>
-      <c r="B395" s="23"/>
+      <c r="A395" s="21"/>
+      <c r="B395" s="21"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
-      <c r="E395" s="15" t="str">
+      <c r="E395" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0115</v>
       </c>
@@ -13923,23 +13564,23 @@
       <c r="K395" s="7">
         <v>2</v>
       </c>
-      <c r="L395" s="23"/>
-      <c r="M395" s="23"/>
-      <c r="N395" s="23"/>
-      <c r="O395" s="23"/>
-      <c r="P395" s="23"/>
-      <c r="Q395" s="23"/>
-      <c r="R395" s="23"/>
-      <c r="S395" s="23"/>
-      <c r="T395" s="23"/>
-      <c r="U395" s="23"/>
+      <c r="L395" s="21"/>
+      <c r="M395" s="21"/>
+      <c r="N395" s="21"/>
+      <c r="O395" s="21"/>
+      <c r="P395" s="21"/>
+      <c r="Q395" s="21"/>
+      <c r="R395" s="21"/>
+      <c r="S395" s="21"/>
+      <c r="T395" s="21"/>
+      <c r="U395" s="21"/>
     </row>
     <row r="396" spans="1:21">
-      <c r="A396" s="23"/>
-      <c r="B396" s="23"/>
+      <c r="A396" s="21"/>
+      <c r="B396" s="21"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
-      <c r="E396" s="15" t="str">
+      <c r="E396" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0116</v>
       </c>
@@ -13953,24 +13594,24 @@
       <c r="H396" s="4">
         <v>2326</v>
       </c>
-      <c r="K396" s="23"/>
-      <c r="L396" s="23"/>
-      <c r="M396" s="23"/>
-      <c r="N396" s="23"/>
-      <c r="O396" s="23"/>
-      <c r="P396" s="23"/>
-      <c r="Q396" s="23"/>
-      <c r="R396" s="23"/>
-      <c r="S396" s="23"/>
-      <c r="T396" s="23"/>
-      <c r="U396" s="23"/>
+      <c r="K396" s="21"/>
+      <c r="L396" s="21"/>
+      <c r="M396" s="21"/>
+      <c r="N396" s="21"/>
+      <c r="O396" s="21"/>
+      <c r="P396" s="21"/>
+      <c r="Q396" s="21"/>
+      <c r="R396" s="21"/>
+      <c r="S396" s="21"/>
+      <c r="T396" s="21"/>
+      <c r="U396" s="21"/>
     </row>
     <row r="397" spans="1:21">
-      <c r="A397" s="24"/>
+      <c r="A397" s="22"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
-      <c r="E397" s="15" t="str">
+      <c r="E397" s="5" t="str">
         <f t="shared" ref="E397:E429" si="17">DEC2HEX(F397,4)</f>
         <v>0117</v>
       </c>
@@ -13984,24 +13625,24 @@
       <c r="H397" s="4">
         <v>2327</v>
       </c>
-      <c r="K397" s="23"/>
-      <c r="L397" s="23"/>
-      <c r="M397" s="23"/>
-      <c r="N397" s="23"/>
-      <c r="O397" s="23"/>
-      <c r="P397" s="23"/>
-      <c r="Q397" s="23"/>
-      <c r="R397" s="23"/>
-      <c r="S397" s="23"/>
-      <c r="T397" s="23"/>
-      <c r="U397" s="23"/>
+      <c r="K397" s="21"/>
+      <c r="L397" s="21"/>
+      <c r="M397" s="21"/>
+      <c r="N397" s="21"/>
+      <c r="O397" s="21"/>
+      <c r="P397" s="21"/>
+      <c r="Q397" s="21"/>
+      <c r="R397" s="21"/>
+      <c r="S397" s="21"/>
+      <c r="T397" s="21"/>
+      <c r="U397" s="21"/>
     </row>
     <row r="398" spans="1:21">
-      <c r="A398" s="23"/>
-      <c r="B398" s="23"/>
+      <c r="A398" s="21"/>
+      <c r="B398" s="21"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
-      <c r="E398" s="15" t="str">
+      <c r="E398" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0118</v>
       </c>
@@ -14015,24 +13656,24 @@
       <c r="H398" s="4">
         <v>2328</v>
       </c>
-      <c r="K398" s="23"/>
-      <c r="L398" s="23"/>
-      <c r="M398" s="23"/>
-      <c r="N398" s="23"/>
-      <c r="O398" s="23"/>
-      <c r="P398" s="23"/>
-      <c r="Q398" s="23"/>
-      <c r="R398" s="23"/>
-      <c r="S398" s="23"/>
-      <c r="T398" s="23"/>
-      <c r="U398" s="23"/>
+      <c r="K398" s="21"/>
+      <c r="L398" s="21"/>
+      <c r="M398" s="21"/>
+      <c r="N398" s="21"/>
+      <c r="O398" s="21"/>
+      <c r="P398" s="21"/>
+      <c r="Q398" s="21"/>
+      <c r="R398" s="21"/>
+      <c r="S398" s="21"/>
+      <c r="T398" s="21"/>
+      <c r="U398" s="21"/>
     </row>
     <row r="399" spans="1:21">
-      <c r="A399" s="23"/>
-      <c r="B399" s="23"/>
+      <c r="A399" s="21"/>
+      <c r="B399" s="21"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
-      <c r="E399" s="15" t="str">
+      <c r="E399" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0119</v>
       </c>
@@ -14046,24 +13687,24 @@
       <c r="H399" s="4">
         <v>2329</v>
       </c>
-      <c r="K399" s="23"/>
-      <c r="L399" s="23"/>
-      <c r="M399" s="23"/>
-      <c r="N399" s="23"/>
-      <c r="O399" s="23"/>
-      <c r="P399" s="23"/>
-      <c r="Q399" s="23"/>
-      <c r="R399" s="23"/>
-      <c r="S399" s="23"/>
-      <c r="T399" s="23"/>
-      <c r="U399" s="23"/>
+      <c r="K399" s="21"/>
+      <c r="L399" s="21"/>
+      <c r="M399" s="21"/>
+      <c r="N399" s="21"/>
+      <c r="O399" s="21"/>
+      <c r="P399" s="21"/>
+      <c r="Q399" s="21"/>
+      <c r="R399" s="21"/>
+      <c r="S399" s="21"/>
+      <c r="T399" s="21"/>
+      <c r="U399" s="21"/>
     </row>
     <row r="400" spans="1:21">
-      <c r="A400" s="23"/>
-      <c r="B400" s="23"/>
+      <c r="A400" s="21"/>
+      <c r="B400" s="21"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
-      <c r="E400" s="15" t="str">
+      <c r="E400" s="5" t="str">
         <f t="shared" si="17"/>
         <v>011A</v>
       </c>
@@ -14077,24 +13718,24 @@
       <c r="H400" s="4">
         <v>2330</v>
       </c>
-      <c r="K400" s="23"/>
-      <c r="L400" s="23"/>
-      <c r="M400" s="23"/>
-      <c r="N400" s="23"/>
-      <c r="O400" s="23"/>
-      <c r="P400" s="23"/>
-      <c r="Q400" s="23"/>
-      <c r="R400" s="23"/>
-      <c r="S400" s="23"/>
-      <c r="T400" s="23"/>
-      <c r="U400" s="23"/>
+      <c r="K400" s="21"/>
+      <c r="L400" s="21"/>
+      <c r="M400" s="21"/>
+      <c r="N400" s="21"/>
+      <c r="O400" s="21"/>
+      <c r="P400" s="21"/>
+      <c r="Q400" s="21"/>
+      <c r="R400" s="21"/>
+      <c r="S400" s="21"/>
+      <c r="T400" s="21"/>
+      <c r="U400" s="21"/>
     </row>
     <row r="401" spans="1:21">
-      <c r="A401" s="23"/>
-      <c r="B401" s="23"/>
+      <c r="A401" s="21"/>
+      <c r="B401" s="21"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
-      <c r="E401" s="15" t="str">
+      <c r="E401" s="5" t="str">
         <f t="shared" si="17"/>
         <v>011B</v>
       </c>
@@ -14108,24 +13749,24 @@
       <c r="H401" s="4">
         <v>2331</v>
       </c>
-      <c r="K401" s="23"/>
-      <c r="L401" s="23"/>
-      <c r="M401" s="23"/>
-      <c r="N401" s="23"/>
-      <c r="O401" s="23"/>
-      <c r="P401" s="23"/>
-      <c r="Q401" s="23"/>
-      <c r="R401" s="23"/>
-      <c r="S401" s="23"/>
-      <c r="T401" s="23"/>
-      <c r="U401" s="23"/>
+      <c r="K401" s="21"/>
+      <c r="L401" s="21"/>
+      <c r="M401" s="21"/>
+      <c r="N401" s="21"/>
+      <c r="O401" s="21"/>
+      <c r="P401" s="21"/>
+      <c r="Q401" s="21"/>
+      <c r="R401" s="21"/>
+      <c r="S401" s="21"/>
+      <c r="T401" s="21"/>
+      <c r="U401" s="21"/>
     </row>
     <row r="402" spans="1:21">
-      <c r="A402" s="23"/>
-      <c r="B402" s="23"/>
+      <c r="A402" s="21"/>
+      <c r="B402" s="21"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
-      <c r="E402" s="15" t="str">
+      <c r="E402" s="5" t="str">
         <f t="shared" si="17"/>
         <v>011C</v>
       </c>
@@ -14139,26 +13780,26 @@
       <c r="H402" s="4">
         <v>2332</v>
       </c>
-      <c r="K402" s="23"/>
-      <c r="L402" s="23"/>
-      <c r="M402" s="23"/>
-      <c r="N402" s="23"/>
-      <c r="O402" s="23"/>
-      <c r="P402" s="23"/>
-      <c r="Q402" s="23"/>
-      <c r="R402" s="23"/>
-      <c r="S402" s="23"/>
-      <c r="T402" s="23"/>
-      <c r="U402" s="23"/>
+      <c r="K402" s="21"/>
+      <c r="L402" s="21"/>
+      <c r="M402" s="21"/>
+      <c r="N402" s="21"/>
+      <c r="O402" s="21"/>
+      <c r="P402" s="21"/>
+      <c r="Q402" s="21"/>
+      <c r="R402" s="21"/>
+      <c r="S402" s="21"/>
+      <c r="T402" s="21"/>
+      <c r="U402" s="21"/>
     </row>
     <row r="403" spans="3:8">
-      <c r="C403" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="D403" s="16" t="s">
+      <c r="C403" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D403" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E403" s="15" t="str">
+      <c r="E403" s="5" t="str">
         <f t="shared" si="17"/>
         <v>011D</v>
       </c>
@@ -14174,11 +13815,11 @@
       </c>
     </row>
     <row r="404" spans="3:8">
-      <c r="C404" s="17"/>
-      <c r="D404" s="15" t="s">
+      <c r="C404" s="16"/>
+      <c r="D404" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E404" s="15" t="str">
+      <c r="E404" s="5" t="str">
         <f t="shared" si="17"/>
         <v>011E</v>
       </c>
@@ -14194,13 +13835,13 @@
       </c>
     </row>
     <row r="405" spans="3:11">
-      <c r="C405" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D405" s="15" t="s">
+      <c r="C405" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D405" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E405" s="15" t="str">
+      <c r="E405" s="5" t="str">
         <f t="shared" si="17"/>
         <v>011F</v>
       </c>
@@ -14219,10 +13860,10 @@
       </c>
     </row>
     <row r="406" spans="4:8">
-      <c r="D406" s="15" t="s">
+      <c r="D406" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E406" s="15" t="str">
+      <c r="E406" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0120</v>
       </c>
@@ -14238,13 +13879,13 @@
       </c>
     </row>
     <row r="407" spans="3:8">
-      <c r="C407" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="D407" s="15" t="s">
+      <c r="C407" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D407" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E407" s="15" t="str">
+      <c r="E407" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0121</v>
       </c>
@@ -14260,10 +13901,10 @@
       </c>
     </row>
     <row r="408" spans="4:8">
-      <c r="D408" s="15" t="s">
+      <c r="D408" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E408" s="15" t="str">
+      <c r="E408" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0122</v>
       </c>
@@ -14279,13 +13920,13 @@
       </c>
     </row>
     <row r="409" spans="3:8">
-      <c r="C409" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D409" s="15" t="s">
+      <c r="C409" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D409" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E409" s="15" t="str">
+      <c r="E409" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0123</v>
       </c>
@@ -14301,10 +13942,10 @@
       </c>
     </row>
     <row r="410" spans="4:8">
-      <c r="D410" s="15" t="s">
+      <c r="D410" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E410" s="15" t="str">
+      <c r="E410" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0124</v>
       </c>
@@ -14320,13 +13961,13 @@
       </c>
     </row>
     <row r="411" spans="3:8">
-      <c r="C411" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D411" s="15" t="s">
+      <c r="C411" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D411" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E411" s="15" t="str">
+      <c r="E411" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0125</v>
       </c>
@@ -14342,10 +13983,10 @@
       </c>
     </row>
     <row r="412" spans="4:8">
-      <c r="D412" s="15" t="s">
+      <c r="D412" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E412" s="15" t="str">
+      <c r="E412" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0126</v>
       </c>
@@ -14361,13 +14002,13 @@
       </c>
     </row>
     <row r="413" spans="3:8">
-      <c r="C413" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="D413" s="15" t="s">
+      <c r="C413" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D413" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E413" s="15" t="str">
+      <c r="E413" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0127</v>
       </c>
@@ -14383,10 +14024,10 @@
       </c>
     </row>
     <row r="414" spans="4:8">
-      <c r="D414" s="15" t="s">
+      <c r="D414" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E414" s="15" t="str">
+      <c r="E414" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0128</v>
       </c>
@@ -14402,13 +14043,13 @@
       </c>
     </row>
     <row r="415" spans="3:8">
-      <c r="C415" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="D415" s="15" t="s">
+      <c r="C415" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D415" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E415" s="15" t="str">
+      <c r="E415" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0129</v>
       </c>
@@ -14424,10 +14065,10 @@
       </c>
     </row>
     <row r="416" spans="4:8">
-      <c r="D416" s="15" t="s">
+      <c r="D416" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E416" s="15" t="str">
+      <c r="E416" s="5" t="str">
         <f t="shared" si="17"/>
         <v>012A</v>
       </c>
@@ -14443,13 +14084,13 @@
       </c>
     </row>
     <row r="417" spans="3:8">
-      <c r="C417" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="D417" s="15" t="s">
+      <c r="C417" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D417" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E417" s="15" t="str">
+      <c r="E417" s="5" t="str">
         <f t="shared" si="17"/>
         <v>012B</v>
       </c>
@@ -14465,10 +14106,10 @@
       </c>
     </row>
     <row r="418" spans="4:8">
-      <c r="D418" s="15" t="s">
+      <c r="D418" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E418" s="15" t="str">
+      <c r="E418" s="5" t="str">
         <f t="shared" si="17"/>
         <v>012C</v>
       </c>
@@ -14484,13 +14125,13 @@
       </c>
     </row>
     <row r="419" spans="3:8">
-      <c r="C419" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D419" s="15" t="s">
+      <c r="C419" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D419" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E419" s="15" t="str">
+      <c r="E419" s="5" t="str">
         <f t="shared" si="17"/>
         <v>012D</v>
       </c>
@@ -14506,10 +14147,10 @@
       </c>
     </row>
     <row r="420" spans="4:8">
-      <c r="D420" s="15" t="s">
+      <c r="D420" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E420" s="15" t="str">
+      <c r="E420" s="5" t="str">
         <f t="shared" si="17"/>
         <v>012E</v>
       </c>
@@ -14525,13 +14166,13 @@
       </c>
     </row>
     <row r="421" spans="3:8">
-      <c r="C421" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D421" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E421" s="15" t="str">
+      <c r="C421" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D421" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E421" s="5" t="str">
         <f t="shared" si="17"/>
         <v>012F</v>
       </c>
@@ -14540,20 +14181,20 @@
       </c>
       <c r="G421" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0937</v>
+        <v>092F</v>
       </c>
       <c r="H421" s="4">
-        <v>2359</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="422" spans="3:8">
-      <c r="C422" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="D422" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E422" s="15" t="str">
+      <c r="C422" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D422" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E422" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0130</v>
       </c>
@@ -14562,20 +14203,20 @@
       </c>
       <c r="G422" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0938</v>
+        <v>0930</v>
       </c>
       <c r="H422" s="4">
-        <v>2360</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="423" spans="3:8">
-      <c r="C423" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D423" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E423" s="15" t="str">
+      <c r="C423" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D423" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E423" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0131</v>
       </c>
@@ -14584,20 +14225,20 @@
       </c>
       <c r="G423" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0939</v>
+        <v>0931</v>
       </c>
       <c r="H423" s="4">
-        <v>2361</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="424" spans="3:8">
-      <c r="C424" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D424" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E424" s="15" t="str">
+      <c r="C424" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E424" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0132</v>
       </c>
@@ -14606,20 +14247,20 @@
       </c>
       <c r="G424" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>093A</v>
+        <v>0932</v>
       </c>
       <c r="H424" s="4">
-        <v>2362</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="425" spans="3:8">
-      <c r="C425" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="D425" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E425" s="15" t="str">
+      <c r="C425" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D425" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E425" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0133</v>
       </c>
@@ -14628,20 +14269,20 @@
       </c>
       <c r="G425" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>093B</v>
+        <v>0933</v>
       </c>
       <c r="H425" s="4">
-        <v>2363</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="426" spans="3:8">
-      <c r="C426" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="D426" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E426" s="15" t="str">
+      <c r="C426" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D426" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E426" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0134</v>
       </c>
@@ -14650,20 +14291,20 @@
       </c>
       <c r="G426" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>093C</v>
+        <v>0934</v>
       </c>
       <c r="H426" s="4">
-        <v>2364</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="427" spans="3:8">
-      <c r="C427" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="D427" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E427" s="15" t="str">
+      <c r="C427" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D427" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E427" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0135</v>
       </c>
@@ -14672,20 +14313,20 @@
       </c>
       <c r="G427" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>093D</v>
+        <v>0935</v>
       </c>
       <c r="H427" s="4">
-        <v>2365</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="428" spans="3:8">
-      <c r="C428" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D428" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E428" s="15" t="str">
+      <c r="C428" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D428" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E428" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0136</v>
       </c>
@@ -14694,17 +14335,17 @@
       </c>
       <c r="G428" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>093E</v>
+        <v>0936</v>
       </c>
       <c r="H428" s="4">
-        <v>2366</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="429" spans="4:8">
       <c r="D429" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E429" s="15" t="str">
+        <v>165</v>
+      </c>
+      <c r="E429" s="5" t="str">
         <f t="shared" si="17"/>
         <v>0137</v>
       </c>
@@ -14713,116 +14354,392 @@
       </c>
       <c r="G429" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>093F</v>
+        <v>0937</v>
       </c>
       <c r="H429" s="4">
-        <v>2367</v>
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="430" spans="6:8">
+      <c r="F430" s="4">
+        <v>312</v>
+      </c>
+      <c r="G430" s="4" t="str">
+        <f t="shared" ref="G430:G450" si="19">DEC2HEX(H430,4)</f>
+        <v>0938</v>
+      </c>
+      <c r="H430" s="4">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="431" spans="6:8">
+      <c r="F431" s="4">
+        <v>313</v>
+      </c>
+      <c r="G431" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0939</v>
+      </c>
+      <c r="H431" s="4">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="432" spans="6:8">
+      <c r="F432" s="4">
+        <v>314</v>
+      </c>
+      <c r="G432" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>093A</v>
+      </c>
+      <c r="H432" s="4">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="433" spans="6:8">
+      <c r="F433" s="4">
+        <v>315</v>
+      </c>
+      <c r="G433" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0943</v>
+      </c>
+      <c r="H433" s="4">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="434" spans="6:8">
+      <c r="F434" s="4">
+        <v>316</v>
+      </c>
+      <c r="G434" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0944</v>
+      </c>
+      <c r="H434" s="4">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="435" spans="6:8">
+      <c r="F435" s="4">
+        <v>317</v>
+      </c>
+      <c r="G435" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0945</v>
+      </c>
+      <c r="H435" s="4">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="436" spans="6:8">
+      <c r="F436" s="4">
+        <v>318</v>
+      </c>
+      <c r="G436" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0946</v>
+      </c>
+      <c r="H436" s="4">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="437" spans="6:8">
+      <c r="F437" s="4">
+        <v>319</v>
+      </c>
+      <c r="G437" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0947</v>
+      </c>
+      <c r="H437" s="4">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="438" spans="6:8">
+      <c r="F438" s="4">
+        <v>320</v>
+      </c>
+      <c r="G438" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0948</v>
+      </c>
+      <c r="H438" s="4">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="439" spans="6:8">
+      <c r="F439" s="4">
+        <v>321</v>
+      </c>
+      <c r="G439" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0949</v>
+      </c>
+      <c r="H439" s="4">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="440" spans="6:8">
+      <c r="F440" s="4">
+        <v>322</v>
+      </c>
+      <c r="G440" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>094A</v>
+      </c>
+      <c r="H440" s="4">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="441" spans="6:8">
+      <c r="F441" s="4">
+        <v>323</v>
+      </c>
+      <c r="G441" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>094B</v>
+      </c>
+      <c r="H441" s="4">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="442" spans="6:8">
+      <c r="F442" s="4">
+        <v>324</v>
+      </c>
+      <c r="G442" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>094C</v>
+      </c>
+      <c r="H442" s="4">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="443" spans="6:8">
+      <c r="F443" s="4">
+        <v>325</v>
+      </c>
+      <c r="G443" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>094D</v>
+      </c>
+      <c r="H443" s="4">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="444" spans="6:8">
+      <c r="F444" s="4">
+        <v>326</v>
+      </c>
+      <c r="G444" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>094E</v>
+      </c>
+      <c r="H444" s="4">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="445" spans="6:8">
+      <c r="F445" s="4">
+        <v>327</v>
+      </c>
+      <c r="G445" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>094F</v>
+      </c>
+      <c r="H445" s="4">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="446" spans="6:8">
+      <c r="F446" s="4">
+        <v>328</v>
+      </c>
+      <c r="G446" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0950</v>
+      </c>
+      <c r="H446" s="4">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="447" spans="6:8">
+      <c r="F447" s="4">
+        <v>329</v>
+      </c>
+      <c r="G447" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0951</v>
+      </c>
+      <c r="H447" s="4">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="448" spans="3:8">
+      <c r="C448" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D448" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F448" s="4">
+        <v>330</v>
+      </c>
+      <c r="G448" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0952</v>
+      </c>
+      <c r="H448" s="4">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="449" spans="6:8">
+      <c r="F449" s="4">
+        <v>331</v>
+      </c>
+      <c r="G449" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0953</v>
+      </c>
+      <c r="H449" s="4">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="450" spans="6:8">
+      <c r="F450" s="4">
+        <v>332</v>
+      </c>
+      <c r="G450" s="4" t="str">
+        <f>DEC2HEX(H450,4)</f>
+        <v>0954</v>
+      </c>
+      <c r="H450" s="4">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="452" spans="3:8">
+      <c r="C452" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D452" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F452" s="4">
+        <v>1041</v>
+      </c>
+      <c r="G452" s="4" t="str">
+        <f>DEC2HEX(H452,4)</f>
+        <v>0C19</v>
+      </c>
+      <c r="H452" s="4">
+        <v>3097</v>
       </c>
     </row>
     <row r="472" spans="1:3">
-      <c r="A472" s="23"/>
-      <c r="B472" s="23"/>
+      <c r="A472" s="21"/>
+      <c r="B472" s="21"/>
       <c r="C472" s="7"/>
     </row>
     <row r="473" spans="1:3">
-      <c r="A473" s="23"/>
-      <c r="B473" s="23"/>
+      <c r="A473" s="21"/>
+      <c r="B473" s="21"/>
       <c r="C473" s="7"/>
     </row>
     <row r="474" spans="1:3">
-      <c r="A474" s="23"/>
-      <c r="B474" s="23"/>
+      <c r="A474" s="21"/>
+      <c r="B474" s="21"/>
       <c r="C474" s="7"/>
     </row>
     <row r="475" spans="1:3">
-      <c r="A475" s="23"/>
-      <c r="B475" s="23"/>
+      <c r="A475" s="21"/>
+      <c r="B475" s="21"/>
       <c r="C475" s="7"/>
     </row>
     <row r="476" spans="1:3">
-      <c r="A476" s="23"/>
-      <c r="B476" s="23"/>
+      <c r="A476" s="21"/>
+      <c r="B476" s="21"/>
       <c r="C476" s="7"/>
     </row>
     <row r="477" spans="1:3">
-      <c r="A477" s="23"/>
-      <c r="B477" s="23"/>
+      <c r="A477" s="21"/>
+      <c r="B477" s="21"/>
       <c r="C477" s="7"/>
     </row>
     <row r="478" spans="1:3">
-      <c r="A478" s="23"/>
-      <c r="B478" s="23"/>
+      <c r="A478" s="21"/>
+      <c r="B478" s="21"/>
       <c r="C478" s="7"/>
     </row>
     <row r="479" spans="1:3">
-      <c r="A479" s="23"/>
-      <c r="B479" s="23"/>
+      <c r="A479" s="21"/>
+      <c r="B479" s="21"/>
       <c r="C479" s="7"/>
     </row>
     <row r="480" spans="1:5">
-      <c r="A480" s="23"/>
-      <c r="B480" s="23"/>
-      <c r="C480" s="25"/>
-      <c r="D480" s="15"/>
+      <c r="A480" s="21"/>
+      <c r="B480" s="21"/>
+      <c r="C480" s="23"/>
+      <c r="D480" s="5"/>
       <c r="E480" s="7"/>
     </row>
     <row r="481" spans="3:4">
       <c r="C481" s="14"/>
-      <c r="D481" s="15"/>
+      <c r="D481" s="5"/>
     </row>
     <row r="482" spans="3:5">
-      <c r="C482" s="26"/>
-      <c r="D482" s="15"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="5"/>
       <c r="E482" s="7"/>
     </row>
     <row r="483" spans="3:4">
       <c r="C483" s="14"/>
-      <c r="D483" s="15"/>
+      <c r="D483" s="5"/>
     </row>
     <row r="484" spans="3:5">
-      <c r="C484" s="26"/>
-      <c r="D484" s="15"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="5"/>
       <c r="E484" s="7"/>
     </row>
     <row r="485" spans="3:4">
       <c r="C485" s="14"/>
-      <c r="D485" s="15"/>
+      <c r="D485" s="5"/>
     </row>
     <row r="486" spans="3:5">
-      <c r="C486" s="26"/>
-      <c r="D486" s="15"/>
+      <c r="C486" s="13"/>
+      <c r="D486" s="5"/>
       <c r="E486" s="7"/>
     </row>
     <row r="487" spans="3:4">
       <c r="C487" s="14"/>
-      <c r="D487" s="15"/>
+      <c r="D487" s="5"/>
     </row>
     <row r="488" spans="3:5">
-      <c r="C488" s="26"/>
-      <c r="D488" s="15"/>
+      <c r="C488" s="13"/>
+      <c r="D488" s="5"/>
       <c r="E488" s="7"/>
     </row>
     <row r="489" spans="3:4">
       <c r="C489" s="14"/>
-      <c r="D489" s="15"/>
+      <c r="D489" s="5"/>
     </row>
     <row r="490" spans="3:5">
-      <c r="C490" s="26"/>
-      <c r="D490" s="15"/>
+      <c r="C490" s="13"/>
+      <c r="D490" s="5"/>
       <c r="E490" s="7"/>
     </row>
     <row r="491" spans="3:4">
       <c r="C491" s="14"/>
-      <c r="D491" s="15"/>
+      <c r="D491" s="5"/>
     </row>
     <row r="492" spans="3:5">
-      <c r="C492" s="26"/>
-      <c r="D492" s="15"/>
+      <c r="C492" s="13"/>
+      <c r="D492" s="5"/>
       <c r="E492" s="7"/>
     </row>
     <row r="493" spans="3:4">
       <c r="C493" s="14"/>
-      <c r="D493" s="15"/>
+      <c r="D493" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="177">
@@ -15026,7 +14943,7 @@
   <sheetData>
     <row r="1" ht="23" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -15044,602 +14961,602 @@
     <row r="2" spans="1:13">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" t="s">
+        <v>353</v>
+      </c>
+      <c r="I7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L7" t="s">
         <v>367</v>
       </c>
-      <c r="C7" t="s">
-        <v>367</v>
-      </c>
-      <c r="D7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H7" t="s">
-        <v>366</v>
-      </c>
-      <c r="I7" t="s">
-        <v>379</v>
-      </c>
-      <c r="J7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L7" t="s">
-        <v>380</v>
-      </c>
       <c r="M7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E8" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H8" t="s">
+        <v>353</v>
+      </c>
+      <c r="I8" t="s">
         <v>366</v>
       </c>
-      <c r="I8" t="s">
-        <v>379</v>
-      </c>
       <c r="J8" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="K8" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="L8" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M8" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C10" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E10" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F10" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G10" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H10" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="I10" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J10" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="K10" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="L10" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M10" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="L11" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E14" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F14" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G14" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H14" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="I14" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J14" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="K14" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="L14" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M14" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C15" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D15" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E15" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G15" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H15" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="I15" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J15" t="s">
+        <v>364</v>
+      </c>
+      <c r="K15" t="s">
         <v>377</v>
       </c>
-      <c r="K15" t="s">
-        <v>390</v>
-      </c>
       <c r="L15" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M15" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B16" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C16" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D16" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E16" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F16" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G16" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H16" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="I16" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J16" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="K16" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="L16" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M16" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C17" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E17" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F17" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G17" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H17" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="I17" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J17" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="K17" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="L17" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M17" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C18" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D18" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E18" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F18" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G18" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H18" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="I18" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J18" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="K18" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="L18" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M18" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/new地址分配说明.xlsx
+++ b/new地址分配说明.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="395">
   <si>
     <t>站号</t>
   </si>
@@ -831,28 +831,37 @@
     <t>DJ1</t>
   </si>
   <si>
+    <t>清除报错</t>
+  </si>
+  <si>
+    <t>todu</t>
+  </si>
+  <si>
+    <t>DJ2</t>
+  </si>
+  <si>
+    <t>DJ3</t>
+  </si>
+  <si>
+    <t>DJ4</t>
+  </si>
+  <si>
+    <t>DJ5</t>
+  </si>
+  <si>
+    <t>DJ6</t>
+  </si>
+  <si>
+    <t>DJ7</t>
+  </si>
+  <si>
+    <t>DJ8</t>
+  </si>
+  <si>
+    <t>清除警告</t>
+  </si>
+  <si>
     <t>存在</t>
-  </si>
-  <si>
-    <t>DJ2</t>
-  </si>
-  <si>
-    <t>DJ3</t>
-  </si>
-  <si>
-    <t>DJ4</t>
-  </si>
-  <si>
-    <t>DJ5</t>
-  </si>
-  <si>
-    <t>DJ6</t>
-  </si>
-  <si>
-    <t>DJ7</t>
-  </si>
-  <si>
-    <t>DJ8</t>
   </si>
   <si>
     <t>故障</t>
@@ -912,6 +921,9 @@
   </si>
   <si>
     <t>电机急停</t>
+  </si>
+  <si>
+    <t>警告信息</t>
   </si>
   <si>
     <r>
@@ -2071,6 +2083,9 @@
     </r>
   </si>
   <si>
+    <t>做了修改</t>
+  </si>
+  <si>
     <t>DJ9</t>
   </si>
   <si>
@@ -2096,6 +2111,9 @@
     </r>
   </si>
   <si>
+    <t>新添加</t>
+  </si>
+  <si>
     <t>补料站电缸</t>
   </si>
   <si>
@@ -2103,6 +2121,12 @@
   </si>
   <si>
     <t>启动运动</t>
+  </si>
+  <si>
+    <t>错误清除</t>
+  </si>
+  <si>
+    <t>警告清除</t>
   </si>
   <si>
     <t>进料站</t>
@@ -2272,10 +2296,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2293,11 +2317,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2316,77 +2347,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2406,16 +2369,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2429,9 +2447,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2476,13 +2500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2500,7 +2524,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2512,7 +2620,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2530,55 +2656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2590,73 +2668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2667,45 +2691,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2734,6 +2719,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2750,20 +2785,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2775,10 +2799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2787,137 +2811,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2961,6 +2985,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3340,8 +3367,8 @@
   <sheetPr/>
   <dimension ref="A1:AE493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="H431" sqref="H431"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -7885,309 +7912,408 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:10">
       <c r="A134" s="4"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="4" t="str">
+      <c r="B134" s="15"/>
+      <c r="C134" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E134" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0084</v>
       </c>
-      <c r="F134" s="4">
+      <c r="F134" s="17">
         <v>132</v>
       </c>
-      <c r="G134" s="4" t="str">
+      <c r="G134" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0884</v>
       </c>
-      <c r="H134" s="4">
+      <c r="H134" s="17">
         <v>2180</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" s="17"/>
+      <c r="J134" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="4"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="4" t="str">
+      <c r="B135" s="15"/>
+      <c r="C135" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E135" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0085</v>
       </c>
-      <c r="F135" s="4">
+      <c r="F135" s="17">
         <v>133</v>
       </c>
-      <c r="G135" s="4" t="str">
+      <c r="G135" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0885</v>
       </c>
-      <c r="H135" s="4">
+      <c r="H135" s="17">
         <v>2181</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" s="17"/>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="4"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="4" t="str">
+      <c r="B136" s="15"/>
+      <c r="C136" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E136" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0086</v>
       </c>
-      <c r="F136" s="4">
+      <c r="F136" s="17">
         <v>134</v>
       </c>
-      <c r="G136" s="4" t="str">
+      <c r="G136" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0886</v>
       </c>
-      <c r="H136" s="4">
+      <c r="H136" s="17">
         <v>2182</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" s="17"/>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="4"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="4" t="str">
+      <c r="B137" s="15"/>
+      <c r="C137" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E137" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0087</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="17">
         <v>135</v>
       </c>
-      <c r="G137" s="4" t="str">
+      <c r="G137" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0887</v>
       </c>
-      <c r="H137" s="4">
+      <c r="H137" s="17">
         <v>2183</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" s="17"/>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="4"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="4" t="str">
+      <c r="B138" s="15"/>
+      <c r="C138" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E138" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0088</v>
       </c>
-      <c r="F138" s="4">
+      <c r="F138" s="17">
         <v>136</v>
       </c>
-      <c r="G138" s="4" t="str">
+      <c r="G138" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0888</v>
       </c>
-      <c r="H138" s="4">
+      <c r="H138" s="17">
         <v>2184</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" s="17"/>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="4"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="4" t="str">
+      <c r="B139" s="15"/>
+      <c r="C139" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E139" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0089</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="17">
         <v>137</v>
       </c>
-      <c r="G139" s="4" t="str">
+      <c r="G139" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0889</v>
       </c>
-      <c r="H139" s="4">
+      <c r="H139" s="17">
         <v>2185</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" s="17"/>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="4"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="4" t="str">
+      <c r="B140" s="15"/>
+      <c r="C140" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E140" s="17" t="str">
         <f t="shared" si="6"/>
         <v>008A</v>
       </c>
-      <c r="F140" s="4">
+      <c r="F140" s="17">
         <v>138</v>
       </c>
-      <c r="G140" s="4" t="str">
+      <c r="G140" s="17" t="str">
         <f t="shared" si="7"/>
         <v>088A</v>
       </c>
-      <c r="H140" s="4">
+      <c r="H140" s="17">
         <v>2186</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" s="17"/>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="4"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="4" t="str">
+      <c r="B141" s="15"/>
+      <c r="C141" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E141" s="17" t="str">
         <f t="shared" si="6"/>
         <v>008B</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="17">
         <v>139</v>
       </c>
-      <c r="G141" s="4" t="str">
+      <c r="G141" s="17" t="str">
         <f t="shared" si="7"/>
         <v>088B</v>
       </c>
-      <c r="H141" s="4">
+      <c r="H141" s="17">
         <v>2187</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" s="17"/>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="4"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="4" t="str">
+      <c r="B142" s="15"/>
+      <c r="C142" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E142" s="17" t="str">
         <f t="shared" si="6"/>
         <v>008C</v>
       </c>
-      <c r="F142" s="4">
+      <c r="F142" s="17">
         <v>140</v>
       </c>
-      <c r="G142" s="4" t="str">
+      <c r="G142" s="17" t="str">
         <f t="shared" si="7"/>
         <v>088C</v>
       </c>
-      <c r="H142" s="4">
+      <c r="H142" s="17">
         <v>2188</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" s="17"/>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="4"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="4" t="str">
+      <c r="B143" s="15"/>
+      <c r="C143" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E143" s="17" t="str">
         <f t="shared" si="6"/>
         <v>008D</v>
       </c>
-      <c r="F143" s="4">
+      <c r="F143" s="17">
         <v>141</v>
       </c>
-      <c r="G143" s="4" t="str">
+      <c r="G143" s="17" t="str">
         <f t="shared" si="7"/>
         <v>088D</v>
       </c>
-      <c r="H143" s="4">
+      <c r="H143" s="17">
         <v>2189</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" s="17"/>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="4"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="4" t="str">
+      <c r="B144" s="15"/>
+      <c r="C144" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E144" s="17" t="str">
         <f t="shared" si="6"/>
         <v>008E</v>
       </c>
-      <c r="F144" s="4">
+      <c r="F144" s="17">
         <v>142</v>
       </c>
-      <c r="G144" s="4" t="str">
+      <c r="G144" s="17" t="str">
         <f t="shared" si="7"/>
         <v>088E</v>
       </c>
-      <c r="H144" s="4">
+      <c r="H144" s="17">
         <v>2190</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" s="17"/>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="4"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="4" t="str">
+      <c r="B145" s="15"/>
+      <c r="C145" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E145" s="17" t="str">
         <f t="shared" si="6"/>
         <v>008F</v>
       </c>
-      <c r="F145" s="4">
+      <c r="F145" s="17">
         <v>143</v>
       </c>
-      <c r="G145" s="4" t="str">
+      <c r="G145" s="17" t="str">
         <f t="shared" si="7"/>
         <v>088F</v>
       </c>
-      <c r="H145" s="4">
+      <c r="H145" s="17">
         <v>2191</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" s="17"/>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="4"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="4" t="str">
+      <c r="B146" s="15"/>
+      <c r="C146" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E146" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0090</v>
       </c>
-      <c r="F146" s="4">
+      <c r="F146" s="17">
         <v>144</v>
       </c>
-      <c r="G146" s="4" t="str">
+      <c r="G146" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0890</v>
       </c>
-      <c r="H146" s="4">
+      <c r="H146" s="17">
         <v>2192</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" s="17"/>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="4"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="4" t="str">
+      <c r="B147" s="15"/>
+      <c r="C147" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E147" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0091</v>
       </c>
-      <c r="F147" s="4">
+      <c r="F147" s="17">
         <v>145</v>
       </c>
-      <c r="G147" s="4" t="str">
+      <c r="G147" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0891</v>
       </c>
-      <c r="H147" s="4">
+      <c r="H147" s="17">
         <v>2193</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" s="17"/>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="4"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="4" t="str">
+      <c r="B148" s="15"/>
+      <c r="C148" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E148" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0092</v>
       </c>
-      <c r="F148" s="4">
+      <c r="F148" s="17">
         <v>146</v>
       </c>
-      <c r="G148" s="4" t="str">
+      <c r="G148" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0892</v>
       </c>
-      <c r="H148" s="4">
+      <c r="H148" s="17">
         <v>2194</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" s="17"/>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="4"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="4" t="str">
+      <c r="B149" s="15"/>
+      <c r="C149" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E149" s="17" t="str">
         <f t="shared" si="6"/>
         <v>0093</v>
       </c>
-      <c r="F149" s="4">
+      <c r="F149" s="17">
         <v>147</v>
       </c>
-      <c r="G149" s="4" t="str">
+      <c r="G149" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0893</v>
       </c>
-      <c r="H149" s="4">
+      <c r="H149" s="17">
         <v>2195</v>
       </c>
+      <c r="I149" s="17"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="4"/>
@@ -8195,7 +8321,7 @@
         <v>150</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E150" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8215,10 +8341,10 @@
     <row r="151" spans="1:8">
       <c r="A151" s="4"/>
       <c r="C151" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E151" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8238,10 +8364,10 @@
     <row r="152" spans="1:8">
       <c r="A152" s="4"/>
       <c r="C152" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E152" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8261,10 +8387,10 @@
     <row r="153" spans="1:8">
       <c r="A153" s="4"/>
       <c r="C153" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E153" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8284,10 +8410,10 @@
     <row r="154" spans="1:8">
       <c r="A154" s="4"/>
       <c r="C154" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E154" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8307,10 +8433,10 @@
     <row r="155" spans="1:8">
       <c r="A155" s="4"/>
       <c r="C155" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E155" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8330,10 +8456,10 @@
     <row r="156" spans="1:8">
       <c r="A156" s="4"/>
       <c r="C156" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E156" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8353,10 +8479,10 @@
     <row r="157" spans="1:8">
       <c r="A157" s="4"/>
       <c r="C157" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E157" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8380,7 +8506,7 @@
         <v>75</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E158" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8404,7 +8530,7 @@
         <v>78</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E159" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8428,7 +8554,7 @@
         <v>79</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E160" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8452,7 +8578,7 @@
         <v>80</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E161" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8476,7 +8602,7 @@
         <v>116</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E162" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8500,7 +8626,7 @@
         <v>117</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E163" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8524,7 +8650,7 @@
         <v>144</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E164" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8548,7 +8674,7 @@
         <v>145</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E165" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8669,7 +8795,7 @@
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="4" t="str">
@@ -8690,11 +8816,11 @@
     <row r="172" spans="1:8">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D172" s="15" t="s">
-        <v>162</v>
+      <c r="C172" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="E172" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8714,9 +8840,9 @@
     <row r="173" spans="1:8">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="16"/>
+      <c r="C173" s="17"/>
       <c r="D173" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E173" s="4" t="str">
         <f t="shared" si="6"/>
@@ -9100,7 +9226,7 @@
         <v>75</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E190" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9124,7 +9250,7 @@
         <v>78</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E191" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9148,7 +9274,7 @@
         <v>79</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E192" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9172,7 +9298,7 @@
         <v>80</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E193" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9196,7 +9322,7 @@
         <v>116</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E194" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9220,7 +9346,7 @@
         <v>117</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E195" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9244,7 +9370,7 @@
         <v>144</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E196" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9268,7 +9394,7 @@
         <v>145</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E197" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9289,7 +9415,7 @@
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="D198" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E198" s="4" t="str">
         <f t="shared" si="8"/>
@@ -9308,7 +9434,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
+      <c r="B199" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D199" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E199" s="4" t="str">
+        <f t="shared" ref="E199:E206" si="10">DEC2HEX(F199,4)</f>
+        <v>00C5</v>
+      </c>
+      <c r="F199" s="4">
+        <v>197</v>
+      </c>
       <c r="H199" s="4">
         <v>2245</v>
       </c>
@@ -9316,6 +9457,19 @@
     <row r="200" spans="1:8">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
+      <c r="C200" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E200" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>00C6</v>
+      </c>
+      <c r="F200" s="4">
+        <v>198</v>
+      </c>
       <c r="H200" s="4">
         <v>2246</v>
       </c>
@@ -9323,6 +9477,19 @@
     <row r="201" spans="1:8">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
+      <c r="C201" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E201" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>00C7</v>
+      </c>
+      <c r="F201" s="4">
+        <v>199</v>
+      </c>
       <c r="H201" s="4">
         <v>2247</v>
       </c>
@@ -9330,6 +9497,19 @@
     <row r="202" spans="1:8">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
+      <c r="C202" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E202" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>00C8</v>
+      </c>
+      <c r="F202" s="4">
+        <v>200</v>
+      </c>
       <c r="H202" s="4">
         <v>2248</v>
       </c>
@@ -9337,6 +9517,19 @@
     <row r="203" spans="1:8">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
+      <c r="C203" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E203" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>00C9</v>
+      </c>
+      <c r="F203" s="4">
+        <v>201</v>
+      </c>
       <c r="H203" s="4">
         <v>2249</v>
       </c>
@@ -9344,6 +9537,19 @@
     <row r="204" spans="1:8">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
+      <c r="C204" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E204" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>00CA</v>
+      </c>
+      <c r="F204" s="4">
+        <v>202</v>
+      </c>
       <c r="H204" s="4">
         <v>2250</v>
       </c>
@@ -9351,6 +9557,19 @@
     <row r="205" spans="1:8">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
+      <c r="C205" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E205" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>00CB</v>
+      </c>
+      <c r="F205" s="4">
+        <v>203</v>
+      </c>
       <c r="H205" s="4">
         <v>2251</v>
       </c>
@@ -9358,6 +9577,19 @@
     <row r="206" spans="1:8">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
+      <c r="C206" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E206" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>00CC</v>
+      </c>
+      <c r="F206" s="4">
+        <v>204</v>
+      </c>
       <c r="H206" s="4">
         <v>2252</v>
       </c>
@@ -9426,19 +9658,19 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B215" s="4"/>
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="4" t="str">
@@ -9462,18 +9694,18 @@
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D217" s="8"/>
       <c r="E217" s="4" t="str">
-        <f t="shared" ref="E217:E280" si="10">DEC2HEX(F217,4)</f>
+        <f t="shared" ref="E217:E280" si="11">DEC2HEX(F217,4)</f>
         <v>006D</v>
       </c>
       <c r="F217" s="7">
         <v>109</v>
       </c>
       <c r="G217" s="5" t="str">
-        <f t="shared" ref="G217:G280" si="11">DEC2HEX(H217,4)</f>
+        <f t="shared" ref="G217:G280" si="12">DEC2HEX(H217,4)</f>
         <v>086D</v>
       </c>
       <c r="H217" s="5">
@@ -9486,20 +9718,20 @@
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E218" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>006E</v>
       </c>
       <c r="F218" s="4">
         <v>110</v>
       </c>
       <c r="G218" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>086E</v>
       </c>
       <c r="H218" s="5">
@@ -9514,17 +9746,17 @@
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="D219" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E219" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>006F</v>
       </c>
       <c r="F219" s="7">
         <v>111</v>
       </c>
       <c r="G219" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>086F</v>
       </c>
       <c r="H219" s="5">
@@ -9537,20 +9769,20 @@
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E220" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0070</v>
       </c>
       <c r="F220" s="4">
         <v>112</v>
       </c>
       <c r="G220" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0870</v>
       </c>
       <c r="H220" s="5">
@@ -9563,17 +9795,17 @@
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="D221" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E221" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0071</v>
       </c>
       <c r="F221" s="7">
         <v>113</v>
       </c>
       <c r="G221" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0871</v>
       </c>
       <c r="H221" s="5">
@@ -9586,20 +9818,20 @@
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E222" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0072</v>
       </c>
       <c r="F222" s="4">
         <v>114</v>
       </c>
       <c r="G222" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0872</v>
       </c>
       <c r="H222" s="5">
@@ -9612,17 +9844,17 @@
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="D223" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E223" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0073</v>
       </c>
       <c r="F223" s="7">
         <v>115</v>
       </c>
       <c r="G223" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0873</v>
       </c>
       <c r="H223" s="5">
@@ -9635,20 +9867,20 @@
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E224" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0074</v>
       </c>
       <c r="F224" s="4">
         <v>116</v>
       </c>
       <c r="G224" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0874</v>
       </c>
       <c r="H224" s="5">
@@ -9661,17 +9893,17 @@
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="D225" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E225" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0075</v>
       </c>
       <c r="F225" s="7">
         <v>117</v>
       </c>
       <c r="G225" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0875</v>
       </c>
       <c r="H225" s="5">
@@ -9683,71 +9915,71 @@
     <row r="226" spans="1:10">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D226" s="18" t="s">
-        <v>183</v>
+      <c r="C226" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D226" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="E226" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>00D6</v>
       </c>
-      <c r="F226" s="19">
+      <c r="F226" s="20">
         <v>214</v>
       </c>
       <c r="G226" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>08D6</v>
       </c>
-      <c r="H226" s="17">
+      <c r="H226" s="18">
         <v>2262</v>
       </c>
-      <c r="I226" s="17"/>
-      <c r="J226" s="17"/>
+      <c r="I226" s="18"/>
+      <c r="J226" s="18"/>
     </row>
     <row r="227" spans="1:10">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="19"/>
-      <c r="D227" s="18" t="s">
-        <v>184</v>
+      <c r="C227" s="20"/>
+      <c r="D227" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="E227" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>00D7</v>
       </c>
-      <c r="F227" s="19">
+      <c r="F227" s="20">
         <v>215</v>
       </c>
       <c r="G227" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>08D7</v>
       </c>
-      <c r="H227" s="17">
+      <c r="H227" s="18">
         <v>2263</v>
       </c>
-      <c r="I227" s="17"/>
-      <c r="J227" s="17"/>
+      <c r="I227" s="18"/>
+      <c r="J227" s="18"/>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E228" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0076</v>
       </c>
       <c r="F228" s="4">
         <v>118</v>
       </c>
       <c r="G228" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0876</v>
       </c>
       <c r="H228" s="4">
@@ -9761,17 +9993,17 @@
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="D229" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E229" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0077</v>
       </c>
       <c r="F229" s="7">
         <v>119</v>
       </c>
       <c r="G229" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0877</v>
       </c>
       <c r="H229" s="4">
@@ -9782,20 +10014,20 @@
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E230" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0078</v>
       </c>
       <c r="F230" s="4">
         <v>120</v>
       </c>
       <c r="G230" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0878</v>
       </c>
       <c r="H230" s="4">
@@ -9806,17 +10038,17 @@
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="D231" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E231" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0079</v>
       </c>
       <c r="F231" s="7">
         <v>121</v>
       </c>
       <c r="G231" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0879</v>
       </c>
       <c r="H231" s="4">
@@ -9827,20 +10059,20 @@
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E232" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>007A</v>
       </c>
       <c r="F232" s="4">
         <v>122</v>
       </c>
       <c r="G232" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>087A</v>
       </c>
       <c r="H232" s="4">
@@ -9851,17 +10083,17 @@
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="D233" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E233" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>007B</v>
       </c>
       <c r="F233" s="7">
         <v>123</v>
       </c>
       <c r="G233" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>087B</v>
       </c>
       <c r="H233" s="4">
@@ -9872,20 +10104,20 @@
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E234" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>007C</v>
       </c>
       <c r="F234" s="4">
         <v>124</v>
       </c>
       <c r="G234" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>087C</v>
       </c>
       <c r="H234" s="4">
@@ -9896,17 +10128,17 @@
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="D235" s="9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E235" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>007D</v>
       </c>
       <c r="F235" s="7">
         <v>125</v>
       </c>
       <c r="G235" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>087D</v>
       </c>
       <c r="H235" s="4">
@@ -9916,51 +10148,51 @@
     <row r="236" spans="1:10">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
-      <c r="C236" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D236" s="18" t="s">
-        <v>198</v>
+      <c r="C236" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D236" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="E236" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>00D8</v>
       </c>
-      <c r="F236" s="19">
+      <c r="F236" s="20">
         <v>216</v>
       </c>
       <c r="G236" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>08D8</v>
       </c>
-      <c r="H236" s="17">
+      <c r="H236" s="18">
         <v>2264</v>
       </c>
-      <c r="I236" s="17"/>
-      <c r="J236" s="17"/>
+      <c r="I236" s="18"/>
+      <c r="J236" s="18"/>
     </row>
     <row r="237" spans="1:10">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
-      <c r="C237" s="19"/>
-      <c r="D237" s="18" t="s">
-        <v>199</v>
+      <c r="C237" s="20"/>
+      <c r="D237" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="E237" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>00D9</v>
       </c>
-      <c r="F237" s="19">
+      <c r="F237" s="20">
         <v>217</v>
       </c>
       <c r="G237" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>08D9</v>
       </c>
-      <c r="H237" s="17">
+      <c r="H237" s="18">
         <v>2265</v>
       </c>
-      <c r="J237" s="17"/>
+      <c r="J237" s="18"/>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="4"/>
@@ -9968,20 +10200,20 @@
         <v>74</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E238" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>007E</v>
       </c>
       <c r="F238" s="4">
         <v>126</v>
       </c>
       <c r="G238" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>087E</v>
       </c>
       <c r="H238" s="4">
@@ -9999,14 +10231,14 @@
         <v>77</v>
       </c>
       <c r="E239" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>007F</v>
       </c>
       <c r="F239" s="4">
         <v>127</v>
       </c>
       <c r="G239" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>087F</v>
       </c>
       <c r="H239" s="4">
@@ -10015,23 +10247,23 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E240" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0080</v>
       </c>
       <c r="F240" s="4">
         <v>128</v>
       </c>
       <c r="G240" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0880</v>
       </c>
       <c r="H240" s="4">
@@ -10042,18 +10274,18 @@
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0081</v>
       </c>
       <c r="F241" s="4">
         <v>129</v>
       </c>
       <c r="G241" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0881</v>
       </c>
       <c r="H241" s="4">
@@ -10064,17 +10296,17 @@
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E242" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0082</v>
       </c>
       <c r="F242" s="4">
         <v>130</v>
       </c>
       <c r="G242" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0882</v>
       </c>
       <c r="H242" s="4">
@@ -10085,17 +10317,17 @@
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E243" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0083</v>
       </c>
       <c r="F243" s="4">
         <v>131</v>
       </c>
       <c r="G243" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0883</v>
       </c>
       <c r="H243" s="4">
@@ -10108,20 +10340,20 @@
         <v>25</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E244" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0084</v>
       </c>
       <c r="F244" s="4">
         <v>132</v>
       </c>
       <c r="G244" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0884</v>
       </c>
       <c r="H244" s="4">
@@ -10132,17 +10364,17 @@
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="D245" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E245" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0085</v>
       </c>
       <c r="F245" s="4">
         <v>133</v>
       </c>
       <c r="G245" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0885</v>
       </c>
       <c r="H245" s="4">
@@ -10153,20 +10385,20 @@
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E246" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0086</v>
       </c>
       <c r="F246" s="4">
         <v>134</v>
       </c>
       <c r="G246" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0886</v>
       </c>
       <c r="H246" s="4">
@@ -10180,17 +10412,17 @@
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="D247" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E247" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0087</v>
       </c>
       <c r="F247" s="4">
         <v>135</v>
       </c>
       <c r="G247" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0887</v>
       </c>
       <c r="H247" s="4">
@@ -10201,20 +10433,20 @@
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E248" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0088</v>
       </c>
       <c r="F248" s="4">
         <v>136</v>
       </c>
       <c r="G248" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0888</v>
       </c>
       <c r="H248" s="4">
@@ -10225,17 +10457,17 @@
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="D249" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E249" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0089</v>
       </c>
       <c r="F249" s="4">
         <v>137</v>
       </c>
       <c r="G249" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0889</v>
       </c>
       <c r="H249" s="4">
@@ -10246,20 +10478,20 @@
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E250" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>008A</v>
       </c>
       <c r="F250" s="4">
         <v>138</v>
       </c>
       <c r="G250" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>088A</v>
       </c>
       <c r="H250" s="4">
@@ -10270,17 +10502,17 @@
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="D251" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E251" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>008B</v>
       </c>
       <c r="F251" s="4">
         <v>139</v>
       </c>
       <c r="G251" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>088B</v>
       </c>
       <c r="H251" s="4">
@@ -10290,21 +10522,21 @@
     <row r="252" spans="1:8">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
-      <c r="C252" s="15" t="s">
-        <v>218</v>
+      <c r="C252" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E252" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>008C</v>
       </c>
       <c r="F252" s="4">
         <v>140</v>
       </c>
       <c r="G252" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>088C</v>
       </c>
       <c r="H252" s="4">
@@ -10314,19 +10546,19 @@
     <row r="253" spans="1:8">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
-      <c r="C253" s="16"/>
+      <c r="C253" s="17"/>
       <c r="D253" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E253" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>008D</v>
       </c>
       <c r="F253" s="4">
         <v>141</v>
       </c>
       <c r="G253" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>088D</v>
       </c>
       <c r="H253" s="4">
@@ -10337,20 +10569,20 @@
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E254" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>008E</v>
       </c>
       <c r="F254" s="4">
         <v>142</v>
       </c>
       <c r="G254" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>088E</v>
       </c>
       <c r="H254" s="4">
@@ -10364,17 +10596,17 @@
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="D255" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E255" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>008F</v>
       </c>
       <c r="F255" s="4">
         <v>143</v>
       </c>
       <c r="G255" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>088F</v>
       </c>
       <c r="H255" s="4">
@@ -10385,20 +10617,20 @@
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E256" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0090</v>
       </c>
       <c r="F256" s="4">
         <v>144</v>
       </c>
       <c r="G256" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0890</v>
       </c>
       <c r="H256" s="4">
@@ -10409,17 +10641,17 @@
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="D257" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E257" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0091</v>
       </c>
       <c r="F257" s="4">
         <v>145</v>
       </c>
       <c r="G257" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0891</v>
       </c>
       <c r="H257" s="4">
@@ -10430,20 +10662,20 @@
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E258" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0092</v>
       </c>
       <c r="F258" s="4">
         <v>146</v>
       </c>
       <c r="G258" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0892</v>
       </c>
       <c r="H258" s="4">
@@ -10454,17 +10686,17 @@
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="D259" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E259" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0093</v>
       </c>
       <c r="F259" s="4">
         <v>147</v>
       </c>
       <c r="G259" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0893</v>
       </c>
       <c r="H259" s="4">
@@ -10475,20 +10707,20 @@
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E260" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0094</v>
       </c>
       <c r="F260" s="4">
         <v>148</v>
       </c>
       <c r="G260" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0894</v>
       </c>
       <c r="H260" s="4">
@@ -10499,17 +10731,17 @@
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="D261" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E261" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0095</v>
       </c>
       <c r="F261" s="4">
         <v>149</v>
       </c>
       <c r="G261" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0895</v>
       </c>
       <c r="H261" s="4">
@@ -10519,21 +10751,21 @@
     <row r="262" spans="1:9">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
-      <c r="C262" s="15" t="s">
-        <v>233</v>
+      <c r="C262" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E262" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0096</v>
       </c>
       <c r="F262" s="4">
         <v>150</v>
       </c>
       <c r="G262" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0896</v>
       </c>
       <c r="H262" s="4">
@@ -10546,19 +10778,19 @@
     <row r="263" spans="1:8">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
-      <c r="C263" s="16"/>
+      <c r="C263" s="17"/>
       <c r="D263" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E263" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0097</v>
       </c>
       <c r="F263" s="4">
         <v>151</v>
       </c>
       <c r="G263" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0897</v>
       </c>
       <c r="H263" s="4">
@@ -10571,20 +10803,20 @@
         <v>74</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E264" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0098</v>
       </c>
       <c r="F264" s="4">
         <v>152</v>
       </c>
       <c r="G264" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0898</v>
       </c>
       <c r="H264" s="4">
@@ -10598,14 +10830,14 @@
         <v>77</v>
       </c>
       <c r="E265" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0099</v>
       </c>
       <c r="F265" s="4">
         <v>153</v>
       </c>
       <c r="G265" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0899</v>
       </c>
       <c r="H265" s="4">
@@ -10616,20 +10848,20 @@
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E266" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>009A</v>
       </c>
       <c r="F266" s="4">
         <v>154</v>
       </c>
       <c r="G266" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>089A</v>
       </c>
       <c r="H266" s="4">
@@ -10643,14 +10875,14 @@
         <v>77</v>
       </c>
       <c r="E267" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>009B</v>
       </c>
       <c r="F267" s="4">
         <v>155</v>
       </c>
       <c r="G267" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>089B</v>
       </c>
       <c r="H267" s="4">
@@ -10659,23 +10891,23 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E268" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>009C</v>
       </c>
       <c r="F268" s="4">
         <v>156</v>
       </c>
       <c r="G268" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>089C</v>
       </c>
       <c r="H268" s="4">
@@ -10686,17 +10918,17 @@
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E269" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>009D</v>
       </c>
       <c r="F269" s="4">
         <v>157</v>
       </c>
       <c r="G269" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>089D</v>
       </c>
       <c r="H269" s="4">
@@ -10709,20 +10941,20 @@
         <v>25</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E270" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>009E</v>
       </c>
       <c r="F270" s="4">
         <v>158</v>
       </c>
       <c r="G270" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>089E</v>
       </c>
       <c r="H270" s="4">
@@ -10736,17 +10968,17 @@
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="D271" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E271" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>009F</v>
       </c>
       <c r="F271" s="4">
         <v>159</v>
       </c>
       <c r="G271" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>089F</v>
       </c>
       <c r="H271" s="4">
@@ -10757,20 +10989,20 @@
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E272" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>00A0</v>
       </c>
       <c r="F272" s="4">
         <v>160</v>
       </c>
       <c r="G272" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>08A0</v>
       </c>
       <c r="H272" s="4">
@@ -10781,17 +11013,17 @@
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="D273" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E273" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>00A1</v>
       </c>
       <c r="F273" s="4">
         <v>161</v>
       </c>
       <c r="G273" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>08A1</v>
       </c>
       <c r="H273" s="4">
@@ -10802,20 +11034,20 @@
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E274" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>00A2</v>
       </c>
       <c r="F274" s="4">
         <v>162</v>
       </c>
       <c r="G274" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>08A2</v>
       </c>
       <c r="H274" s="4">
@@ -10826,17 +11058,17 @@
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="D275" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E275" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>00A3</v>
       </c>
       <c r="F275" s="4">
         <v>163</v>
       </c>
       <c r="G275" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>08A3</v>
       </c>
       <c r="H275" s="4">
@@ -10847,20 +11079,20 @@
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E276" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>00A4</v>
       </c>
       <c r="F276" s="4">
         <v>164</v>
       </c>
       <c r="G276" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>08A4</v>
       </c>
       <c r="H276" s="4">
@@ -10871,17 +11103,17 @@
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="D277" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E277" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>00A5</v>
       </c>
       <c r="F277" s="4">
         <v>165</v>
       </c>
       <c r="G277" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>08A5</v>
       </c>
       <c r="H277" s="4">
@@ -10892,20 +11124,20 @@
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E278" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>00A6</v>
       </c>
       <c r="F278" s="4">
         <v>166</v>
       </c>
       <c r="G278" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>08A6</v>
       </c>
       <c r="H278" s="4">
@@ -10919,17 +11151,17 @@
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="D279" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E279" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>00A7</v>
       </c>
       <c r="F279" s="4">
         <v>167</v>
       </c>
       <c r="G279" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>08A7</v>
       </c>
       <c r="H279" s="4">
@@ -10940,20 +11172,20 @@
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E280" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>00A8</v>
       </c>
       <c r="F280" s="4">
         <v>168</v>
       </c>
       <c r="G280" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>08A8</v>
       </c>
       <c r="H280" s="4">
@@ -10964,17 +11196,17 @@
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="D281" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E281" s="4" t="str">
-        <f t="shared" ref="E281:E329" si="12">DEC2HEX(F281,4)</f>
+        <f t="shared" ref="E281:E329" si="13">DEC2HEX(F281,4)</f>
         <v>00A9</v>
       </c>
       <c r="F281" s="4">
         <v>169</v>
       </c>
       <c r="G281" s="5" t="str">
-        <f t="shared" ref="G281:G329" si="13">DEC2HEX(H281,4)</f>
+        <f t="shared" ref="G281:G329" si="14">DEC2HEX(H281,4)</f>
         <v>08A9</v>
       </c>
       <c r="H281" s="4">
@@ -10984,21 +11216,21 @@
     <row r="282" spans="1:8">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
-      <c r="C282" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D282" s="15" t="s">
-        <v>260</v>
+      <c r="C282" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D282" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="E282" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00AA</v>
       </c>
       <c r="F282" s="4">
         <v>170</v>
       </c>
       <c r="G282" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08AA</v>
       </c>
       <c r="H282" s="4">
@@ -11008,19 +11240,19 @@
     <row r="283" spans="1:8">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
-      <c r="C283" s="16"/>
-      <c r="D283" s="15" t="s">
-        <v>261</v>
+      <c r="C283" s="17"/>
+      <c r="D283" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="E283" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00AB</v>
       </c>
       <c r="F283" s="4">
         <v>171</v>
       </c>
       <c r="G283" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08AB</v>
       </c>
       <c r="H283" s="4">
@@ -11030,71 +11262,71 @@
     <row r="284" spans="1:10">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D284" s="17" t="s">
-        <v>263</v>
+      <c r="C284" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D284" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="E284" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00DA</v>
       </c>
-      <c r="F284" s="19">
+      <c r="F284" s="20">
         <v>218</v>
       </c>
       <c r="G284" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08DA</v>
       </c>
-      <c r="H284" s="17">
+      <c r="H284" s="18">
         <v>2266</v>
       </c>
-      <c r="I284" s="17"/>
-      <c r="J284" s="17"/>
+      <c r="I284" s="18"/>
+      <c r="J284" s="18"/>
     </row>
     <row r="285" spans="1:10">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="19"/>
-      <c r="D285" s="17" t="s">
-        <v>264</v>
+      <c r="C285" s="20"/>
+      <c r="D285" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="E285" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00DB</v>
       </c>
-      <c r="F285" s="19">
+      <c r="F285" s="20">
         <v>219</v>
       </c>
       <c r="G285" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08DB</v>
       </c>
-      <c r="H285" s="17">
+      <c r="H285" s="18">
         <v>2267</v>
       </c>
-      <c r="I285" s="17"/>
-      <c r="J285" s="17"/>
+      <c r="I285" s="18"/>
+      <c r="J285" s="18"/>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E286" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00AC</v>
       </c>
       <c r="F286" s="4">
         <v>172</v>
       </c>
       <c r="G286" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08AC</v>
       </c>
       <c r="H286" s="4">
@@ -11105,17 +11337,17 @@
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="D287" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E287" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00AD</v>
       </c>
       <c r="F287" s="4">
         <v>173</v>
       </c>
       <c r="G287" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08AD</v>
       </c>
       <c r="H287" s="4">
@@ -11126,20 +11358,20 @@
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E288" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00AE</v>
       </c>
       <c r="F288" s="4">
         <v>174</v>
       </c>
       <c r="G288" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08AE</v>
       </c>
       <c r="H288" s="4">
@@ -11153,17 +11385,17 @@
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="D289" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E289" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00AF</v>
       </c>
       <c r="F289" s="4">
         <v>175</v>
       </c>
       <c r="G289" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08AF</v>
       </c>
       <c r="H289" s="4">
@@ -11174,20 +11406,20 @@
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E290" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00B0</v>
       </c>
       <c r="F290" s="4">
         <v>176</v>
       </c>
       <c r="G290" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08B0</v>
       </c>
       <c r="H290" s="4">
@@ -11198,17 +11430,17 @@
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="D291" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E291" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00B1</v>
       </c>
       <c r="F291" s="4">
         <v>177</v>
       </c>
       <c r="G291" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08B1</v>
       </c>
       <c r="H291" s="4">
@@ -11219,20 +11451,20 @@
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E292" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00B2</v>
       </c>
       <c r="F292" s="4">
         <v>178</v>
       </c>
       <c r="G292" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08B2</v>
       </c>
       <c r="H292" s="4">
@@ -11243,17 +11475,17 @@
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="D293" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E293" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00B3</v>
       </c>
       <c r="F293" s="4">
         <v>179</v>
       </c>
       <c r="G293" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08B3</v>
       </c>
       <c r="H293" s="4">
@@ -11264,20 +11496,20 @@
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E294" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00B4</v>
       </c>
       <c r="F294" s="4">
         <v>180</v>
       </c>
       <c r="G294" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08B4</v>
       </c>
       <c r="H294" s="4">
@@ -11288,17 +11520,17 @@
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="D295" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E295" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00B5</v>
       </c>
       <c r="F295" s="4">
         <v>181</v>
       </c>
       <c r="G295" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08B5</v>
       </c>
       <c r="H295" s="4">
@@ -11309,20 +11541,20 @@
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E296" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00B6</v>
       </c>
       <c r="F296" s="4">
         <v>182</v>
       </c>
       <c r="G296" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08B6</v>
       </c>
       <c r="H296" s="4">
@@ -11336,17 +11568,17 @@
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="D297" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E297" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00B7</v>
       </c>
       <c r="F297" s="4">
         <v>183</v>
       </c>
       <c r="G297" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08B7</v>
       </c>
       <c r="H297" s="4">
@@ -11356,21 +11588,21 @@
     <row r="298" spans="1:8">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
-      <c r="C298" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D298" s="15" t="s">
-        <v>284</v>
+      <c r="C298" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D298" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="E298" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00B8</v>
       </c>
       <c r="F298" s="4">
         <v>184</v>
       </c>
       <c r="G298" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08B8</v>
       </c>
       <c r="H298" s="4">
@@ -11380,19 +11612,19 @@
     <row r="299" spans="1:8">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
-      <c r="C299" s="16"/>
-      <c r="D299" s="15" t="s">
-        <v>285</v>
+      <c r="C299" s="17"/>
+      <c r="D299" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="E299" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00B9</v>
       </c>
       <c r="F299" s="4">
         <v>185</v>
       </c>
       <c r="G299" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08B9</v>
       </c>
       <c r="H299" s="4">
@@ -11402,52 +11634,52 @@
     <row r="300" spans="1:10">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
-      <c r="C300" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>287</v>
+      <c r="C300" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D300" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="E300" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00DC</v>
       </c>
-      <c r="F300" s="19">
+      <c r="F300" s="20">
         <v>220</v>
       </c>
       <c r="G300" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08DC</v>
       </c>
-      <c r="H300" s="17">
+      <c r="H300" s="18">
         <v>2268</v>
       </c>
-      <c r="I300" s="17"/>
-      <c r="J300" s="17"/>
+      <c r="I300" s="18"/>
+      <c r="J300" s="18"/>
     </row>
     <row r="301" spans="1:10">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
-      <c r="C301" s="19"/>
-      <c r="D301" s="17" t="s">
-        <v>288</v>
+      <c r="C301" s="20"/>
+      <c r="D301" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="E301" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00DD</v>
       </c>
-      <c r="F301" s="19">
+      <c r="F301" s="20">
         <v>221</v>
       </c>
       <c r="G301" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08DD</v>
       </c>
-      <c r="H301" s="17">
+      <c r="H301" s="18">
         <v>2269</v>
       </c>
-      <c r="I301" s="17"/>
-      <c r="J301" s="17"/>
+      <c r="I301" s="18"/>
+      <c r="J301" s="18"/>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="4"/>
@@ -11455,20 +11687,20 @@
         <v>74</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E302" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00BA</v>
       </c>
       <c r="F302" s="4">
         <v>186</v>
       </c>
       <c r="G302" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08BA</v>
       </c>
       <c r="H302" s="4">
@@ -11483,14 +11715,14 @@
         <v>77</v>
       </c>
       <c r="E303" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00BB</v>
       </c>
       <c r="F303" s="4">
         <v>187</v>
       </c>
       <c r="G303" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08BB</v>
       </c>
       <c r="H303" s="4">
@@ -11501,20 +11733,20 @@
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E304" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00BC</v>
       </c>
       <c r="F304" s="4">
         <v>188</v>
       </c>
       <c r="G304" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08BC</v>
       </c>
       <c r="H304" s="4">
@@ -11528,14 +11760,14 @@
         <v>77</v>
       </c>
       <c r="E305" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00BD</v>
       </c>
       <c r="F305" s="4">
         <v>189</v>
       </c>
       <c r="G305" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08BD</v>
       </c>
       <c r="H305" s="4">
@@ -11544,23 +11776,23 @@
     </row>
     <row r="306" spans="1:9">
       <c r="A306" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E306" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00BE</v>
       </c>
       <c r="F306" s="4">
         <v>190</v>
       </c>
       <c r="G306" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08BE</v>
       </c>
       <c r="H306" s="4">
@@ -11574,17 +11806,17 @@
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E307" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00BF</v>
       </c>
       <c r="F307" s="4">
         <v>191</v>
       </c>
       <c r="G307" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08BF</v>
       </c>
       <c r="H307" s="4">
@@ -11595,17 +11827,17 @@
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E308" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00C0</v>
       </c>
       <c r="F308" s="4">
         <v>192</v>
       </c>
       <c r="G308" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08C0</v>
       </c>
       <c r="H308" s="4">
@@ -11616,17 +11848,17 @@
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E309" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00C1</v>
       </c>
       <c r="F309" s="4">
         <v>193</v>
       </c>
       <c r="G309" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08C1</v>
       </c>
       <c r="H309" s="4">
@@ -11637,17 +11869,17 @@
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E310" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00C2</v>
       </c>
       <c r="F310" s="4">
         <v>194</v>
       </c>
       <c r="G310" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08C2</v>
       </c>
       <c r="H310" s="4">
@@ -11658,17 +11890,17 @@
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E311" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00C3</v>
       </c>
       <c r="F311" s="4">
         <v>195</v>
       </c>
       <c r="G311" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08C3</v>
       </c>
       <c r="H311" s="4">
@@ -11681,20 +11913,20 @@
         <v>25</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E312" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00C4</v>
       </c>
       <c r="F312" s="4">
         <v>196</v>
       </c>
       <c r="G312" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08C4</v>
       </c>
       <c r="H312" s="4">
@@ -11705,17 +11937,17 @@
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="D313" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E313" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00C5</v>
       </c>
       <c r="F313" s="4">
         <v>197</v>
       </c>
       <c r="G313" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08C5</v>
       </c>
       <c r="H313" s="4">
@@ -11726,20 +11958,20 @@
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E314" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00C6</v>
       </c>
       <c r="F314" s="4">
         <v>198</v>
       </c>
       <c r="G314" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08C6</v>
       </c>
       <c r="H314" s="4">
@@ -11753,17 +11985,17 @@
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="D315" s="6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E315" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00C7</v>
       </c>
       <c r="F315" s="4">
         <v>199</v>
       </c>
       <c r="G315" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08C7</v>
       </c>
       <c r="H315" s="4">
@@ -11774,20 +12006,20 @@
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E316" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00C8</v>
       </c>
       <c r="F316" s="4">
         <v>200</v>
       </c>
       <c r="G316" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08C8</v>
       </c>
       <c r="H316" s="4">
@@ -11798,17 +12030,17 @@
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="D317" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E317" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00C9</v>
       </c>
       <c r="F317" s="4">
         <v>201</v>
       </c>
       <c r="G317" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08C9</v>
       </c>
       <c r="H317" s="4">
@@ -11819,20 +12051,20 @@
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E318" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00CA</v>
       </c>
       <c r="F318" s="4">
         <v>202</v>
       </c>
       <c r="G318" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08CA</v>
       </c>
       <c r="H318" s="4">
@@ -11843,17 +12075,17 @@
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="D319" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E319" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00CB</v>
       </c>
       <c r="F319" s="4">
         <v>203</v>
       </c>
       <c r="G319" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08CB</v>
       </c>
       <c r="H319" s="4">
@@ -11864,20 +12096,20 @@
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E320" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00CC</v>
       </c>
       <c r="F320" s="4">
         <v>204</v>
       </c>
       <c r="G320" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08CC</v>
       </c>
       <c r="H320" s="4">
@@ -11888,17 +12120,17 @@
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="D321" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E321" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00CD</v>
       </c>
       <c r="F321" s="4">
         <v>205</v>
       </c>
       <c r="G321" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08CD</v>
       </c>
       <c r="H321" s="4">
@@ -11909,20 +12141,20 @@
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E322" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00CE</v>
       </c>
       <c r="F322" s="4">
         <v>206</v>
       </c>
       <c r="G322" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08CE</v>
       </c>
       <c r="H322" s="4">
@@ -11936,17 +12168,17 @@
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="D323" s="4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E323" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00CF</v>
       </c>
       <c r="F323" s="4">
         <v>207</v>
       </c>
       <c r="G323" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08CF</v>
       </c>
       <c r="H323" s="4">
@@ -11959,20 +12191,20 @@
         <v>74</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E324" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00D0</v>
       </c>
       <c r="F324" s="4">
         <v>208</v>
       </c>
       <c r="G324" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08D0</v>
       </c>
       <c r="H324" s="4">
@@ -11986,14 +12218,14 @@
         <v>77</v>
       </c>
       <c r="E325" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00D1</v>
       </c>
       <c r="F325" s="4">
         <v>209</v>
       </c>
       <c r="G325" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08D1</v>
       </c>
       <c r="H325" s="4">
@@ -12004,20 +12236,20 @@
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E326" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00D2</v>
       </c>
       <c r="F326" s="4">
         <v>210</v>
       </c>
       <c r="G326" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08D2</v>
       </c>
       <c r="H326" s="4">
@@ -12031,14 +12263,14 @@
         <v>77</v>
       </c>
       <c r="E327" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00D3</v>
       </c>
       <c r="F327" s="4">
         <v>211</v>
       </c>
       <c r="G327" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08D3</v>
       </c>
       <c r="H327" s="4">
@@ -12049,20 +12281,20 @@
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E328" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00D4</v>
       </c>
       <c r="F328" s="4">
         <v>212</v>
       </c>
       <c r="G328" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08D4</v>
       </c>
       <c r="H328" s="4">
@@ -12076,14 +12308,14 @@
         <v>77</v>
       </c>
       <c r="E329" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>00D5</v>
       </c>
       <c r="F329" s="4">
         <v>213</v>
       </c>
       <c r="G329" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08D5</v>
       </c>
       <c r="H329" s="4">
@@ -12091,41 +12323,41 @@
       </c>
     </row>
     <row r="330" spans="1:19">
-      <c r="A330" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B330" s="16"/>
-      <c r="C330" s="16"/>
-      <c r="D330" s="16"/>
-      <c r="E330" s="16"/>
-      <c r="F330" s="16"/>
-      <c r="G330" s="16"/>
-      <c r="H330" s="16"/>
-      <c r="I330" s="16"/>
-      <c r="J330" s="16"/>
-      <c r="K330" s="20"/>
-      <c r="L330" s="20"/>
-      <c r="M330" s="20"/>
-      <c r="N330" s="20"/>
-      <c r="O330" s="20"/>
-      <c r="P330" s="20"/>
-      <c r="Q330" s="20"/>
-      <c r="R330" s="20"/>
-      <c r="S330" s="20"/>
+      <c r="A330" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B330" s="17"/>
+      <c r="C330" s="17"/>
+      <c r="D330" s="17"/>
+      <c r="E330" s="17"/>
+      <c r="F330" s="17"/>
+      <c r="G330" s="17"/>
+      <c r="H330" s="17"/>
+      <c r="I330" s="17"/>
+      <c r="J330" s="17"/>
+      <c r="K330" s="21"/>
+      <c r="L330" s="21"/>
+      <c r="M330" s="21"/>
+      <c r="N330" s="21"/>
+      <c r="O330" s="21"/>
+      <c r="P330" s="21"/>
+      <c r="Q330" s="21"/>
+      <c r="R330" s="21"/>
+      <c r="S330" s="21"/>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B331" s="4"/>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" s="14"/>
-      <c r="C332" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D332" s="18" t="s">
-        <v>183</v>
+      <c r="C332" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D332" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="E332" s="5" t="str">
         <f>DEC2HEX(F332,4)</f>
@@ -12147,19 +12379,19 @@
     </row>
     <row r="333" spans="1:8">
       <c r="A333" s="14"/>
-      <c r="C333" s="19"/>
-      <c r="D333" s="18" t="s">
-        <v>184</v>
+      <c r="C333" s="20"/>
+      <c r="D333" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="E333" s="5" t="str">
-        <f t="shared" ref="E333:E396" si="14">DEC2HEX(F333,4)</f>
+        <f t="shared" ref="E333:E396" si="15">DEC2HEX(F333,4)</f>
         <v>00D7</v>
       </c>
       <c r="F333" s="4">
         <v>215</v>
       </c>
       <c r="G333" s="4" t="str">
-        <f t="shared" ref="G333:G340" si="15">DEC2HEX(H333,4)</f>
+        <f t="shared" ref="G333:G340" si="16">DEC2HEX(H333,4)</f>
         <v>08D7</v>
       </c>
       <c r="H333" s="4">
@@ -12168,21 +12400,21 @@
     </row>
     <row r="334" spans="1:8">
       <c r="A334" s="14"/>
-      <c r="C334" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D334" s="18" t="s">
-        <v>198</v>
+      <c r="C334" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D334" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="E334" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00D8</v>
       </c>
       <c r="F334" s="4">
         <v>216</v>
       </c>
       <c r="G334" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>08D8</v>
       </c>
       <c r="H334" s="4">
@@ -12191,19 +12423,19 @@
     </row>
     <row r="335" spans="1:8">
       <c r="A335" s="14"/>
-      <c r="C335" s="19"/>
-      <c r="D335" s="18" t="s">
-        <v>199</v>
+      <c r="C335" s="20"/>
+      <c r="D335" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="E335" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00D9</v>
       </c>
       <c r="F335" s="4">
         <v>217</v>
       </c>
       <c r="G335" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>08D9</v>
       </c>
       <c r="H335" s="4">
@@ -12212,21 +12444,21 @@
     </row>
     <row r="336" spans="1:8">
       <c r="A336" s="14"/>
-      <c r="C336" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D336" s="17" t="s">
-        <v>263</v>
+      <c r="C336" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D336" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="E336" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00DA</v>
       </c>
       <c r="F336" s="4">
         <v>218</v>
       </c>
       <c r="G336" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>08DA</v>
       </c>
       <c r="H336" s="4">
@@ -12235,19 +12467,19 @@
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="14"/>
-      <c r="C337" s="19"/>
-      <c r="D337" s="17" t="s">
-        <v>264</v>
+      <c r="C337" s="20"/>
+      <c r="D337" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="E337" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00DB</v>
       </c>
       <c r="F337" s="4">
         <v>219</v>
       </c>
       <c r="G337" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>08DB</v>
       </c>
       <c r="H337" s="4">
@@ -12256,21 +12488,21 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="14"/>
-      <c r="C338" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="D338" s="17" t="s">
-        <v>287</v>
+      <c r="C338" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D338" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="E338" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00DC</v>
       </c>
       <c r="F338" s="4">
         <v>220</v>
       </c>
       <c r="G338" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>08DC</v>
       </c>
       <c r="H338" s="4">
@@ -12279,19 +12511,19 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="14"/>
-      <c r="C339" s="19"/>
-      <c r="D339" s="17" t="s">
-        <v>288</v>
+      <c r="C339" s="20"/>
+      <c r="D339" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="E339" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00DD</v>
       </c>
       <c r="F339" s="4">
         <v>221</v>
       </c>
       <c r="G339" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>08DD</v>
       </c>
       <c r="H339" s="4">
@@ -12304,20 +12536,20 @@
         <v>74</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D340" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E340" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00DE</v>
       </c>
       <c r="F340" s="4">
         <v>222</v>
       </c>
       <c r="G340" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>08DE</v>
       </c>
       <c r="H340" s="4">
@@ -12331,20 +12563,20 @@
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
       <c r="C341" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D341" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E341" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00DF</v>
       </c>
       <c r="F341" s="4">
         <v>223</v>
       </c>
       <c r="G341" s="4" t="str">
-        <f t="shared" ref="G341:G404" si="16">DEC2HEX(H341,4)</f>
+        <f t="shared" ref="G341:G404" si="17">DEC2HEX(H341,4)</f>
         <v>08DF</v>
       </c>
       <c r="H341" s="4">
@@ -12355,20 +12587,20 @@
       <c r="A342" s="14"/>
       <c r="B342" s="14"/>
       <c r="C342" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E342" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00E0</v>
       </c>
       <c r="F342" s="4">
         <v>224</v>
       </c>
       <c r="G342" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08E0</v>
       </c>
       <c r="H342" s="4">
@@ -12379,20 +12611,20 @@
       <c r="A343" s="14"/>
       <c r="B343" s="14"/>
       <c r="C343" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E343" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00E1</v>
       </c>
       <c r="F343" s="4">
         <v>225</v>
       </c>
       <c r="G343" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08E1</v>
       </c>
       <c r="H343" s="4">
@@ -12405,20 +12637,20 @@
         <v>74</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E344" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00E2</v>
       </c>
       <c r="F344" s="4">
         <v>226</v>
       </c>
       <c r="G344" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08E2</v>
       </c>
       <c r="H344" s="4">
@@ -12429,20 +12661,20 @@
       <c r="A345" s="14"/>
       <c r="B345" s="14"/>
       <c r="C345" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E345" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00E3</v>
       </c>
       <c r="F345" s="4">
         <v>227</v>
       </c>
       <c r="G345" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08E3</v>
       </c>
       <c r="H345" s="4">
@@ -12453,20 +12685,20 @@
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
       <c r="C346" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D346" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E346" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00E4</v>
       </c>
       <c r="F346" s="4">
         <v>228</v>
       </c>
       <c r="G346" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08E4</v>
       </c>
       <c r="H346" s="4">
@@ -12477,20 +12709,20 @@
       <c r="A347" s="14"/>
       <c r="B347" s="14"/>
       <c r="C347" s="8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D347" s="8" t="s">
         <v>147</v>
       </c>
       <c r="E347" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00E5</v>
       </c>
       <c r="F347" s="4">
         <v>229</v>
       </c>
       <c r="G347" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08E5</v>
       </c>
       <c r="H347" s="4">
@@ -12501,20 +12733,20 @@
       <c r="A348" s="14"/>
       <c r="B348" s="14"/>
       <c r="C348" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D348" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E348" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00E6</v>
       </c>
       <c r="F348" s="4">
         <v>230</v>
       </c>
       <c r="G348" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08E6</v>
       </c>
       <c r="H348" s="4">
@@ -12528,20 +12760,20 @@
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
       <c r="C349" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D349" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E349" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00E7</v>
       </c>
       <c r="F349" s="4">
         <v>231</v>
       </c>
       <c r="G349" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08E7</v>
       </c>
       <c r="H349" s="4">
@@ -12554,20 +12786,20 @@
         <v>74</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D350" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E350" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00E8</v>
       </c>
       <c r="F350" s="4">
         <v>232</v>
       </c>
       <c r="G350" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08E8</v>
       </c>
       <c r="H350" s="4">
@@ -12578,20 +12810,20 @@
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D351" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E351" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00E9</v>
       </c>
       <c r="F351" s="4">
         <v>233</v>
       </c>
       <c r="G351" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08E9</v>
       </c>
       <c r="H351" s="4">
@@ -12602,20 +12834,20 @@
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D352" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E352" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00EA</v>
       </c>
       <c r="F352" s="4">
         <v>234</v>
       </c>
       <c r="G352" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08EA</v>
       </c>
       <c r="H352" s="4">
@@ -12626,20 +12858,20 @@
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D353" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E353" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00EB</v>
       </c>
       <c r="F353" s="4">
         <v>235</v>
       </c>
       <c r="G353" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08EB</v>
       </c>
       <c r="H353" s="4">
@@ -12650,20 +12882,20 @@
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
       <c r="C354" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D354" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E354" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00EC</v>
       </c>
       <c r="F354" s="4">
         <v>236</v>
       </c>
       <c r="G354" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08EC</v>
       </c>
       <c r="H354" s="4">
@@ -12674,20 +12906,20 @@
       <c r="A355" s="14"/>
       <c r="B355" s="14"/>
       <c r="C355" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D355" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E355" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00ED</v>
       </c>
       <c r="F355" s="4">
         <v>237</v>
       </c>
       <c r="G355" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08ED</v>
       </c>
       <c r="H355" s="4">
@@ -12698,20 +12930,20 @@
       <c r="A356" s="14"/>
       <c r="B356" s="13"/>
       <c r="C356" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D356" s="5" t="s">
         <v>149</v>
       </c>
       <c r="E356" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00EE</v>
       </c>
       <c r="F356" s="4">
         <v>238</v>
       </c>
       <c r="G356" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08EE</v>
       </c>
       <c r="H356" s="4">
@@ -12725,20 +12957,20 @@
       <c r="A357" s="14"/>
       <c r="B357" s="14"/>
       <c r="C357" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D357" s="5" t="s">
         <v>149</v>
       </c>
       <c r="E357" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00EF</v>
       </c>
       <c r="F357" s="4">
         <v>239</v>
       </c>
       <c r="G357" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08EF</v>
       </c>
       <c r="H357" s="4">
@@ -12747,22 +12979,24 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="14"/>
-      <c r="B358" s="13"/>
-      <c r="C358" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="D358" s="15" t="s">
+      <c r="B358" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C358" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D358" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E358" s="15" t="str">
-        <f t="shared" si="14"/>
+      <c r="E358" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>0066</v>
       </c>
-      <c r="F358" s="16">
+      <c r="F358" s="17">
         <v>102</v>
       </c>
       <c r="G358" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0866</v>
       </c>
       <c r="H358" s="4">
@@ -12772,21 +13006,21 @@
     <row r="359" spans="1:8">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
-      <c r="C359" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="D359" s="15" t="s">
+      <c r="C359" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D359" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E359" s="15" t="str">
-        <f t="shared" si="14"/>
+      <c r="E359" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>0067</v>
       </c>
-      <c r="F359" s="16">
+      <c r="F359" s="17">
         <v>103</v>
       </c>
       <c r="G359" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0867</v>
       </c>
       <c r="H359" s="4">
@@ -12796,21 +13030,21 @@
     <row r="360" spans="1:8">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
-      <c r="C360" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="D360" s="15" t="s">
+      <c r="C360" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D360" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E360" s="15" t="str">
-        <f t="shared" si="14"/>
+      <c r="E360" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>0068</v>
       </c>
-      <c r="F360" s="16">
+      <c r="F360" s="17">
         <v>104</v>
       </c>
       <c r="G360" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0868</v>
       </c>
       <c r="H360" s="4">
@@ -12820,21 +13054,21 @@
     <row r="361" spans="1:8">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
-      <c r="C361" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="D361" s="15" t="s">
+      <c r="C361" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D361" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E361" s="15" t="str">
-        <f t="shared" si="14"/>
+      <c r="E361" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>0069</v>
       </c>
-      <c r="F361" s="16">
+      <c r="F361" s="17">
         <v>105</v>
       </c>
       <c r="G361" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0869</v>
       </c>
       <c r="H361" s="4">
@@ -12844,21 +13078,21 @@
     <row r="362" spans="1:8">
       <c r="A362" s="14"/>
       <c r="B362" s="13"/>
-      <c r="C362" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="D362" s="15" t="s">
+      <c r="C362" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D362" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E362" s="15" t="str">
-        <f t="shared" si="14"/>
+      <c r="E362" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>006A</v>
       </c>
-      <c r="F362" s="16">
+      <c r="F362" s="17">
         <v>106</v>
       </c>
       <c r="G362" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>086A</v>
       </c>
       <c r="H362" s="4">
@@ -12868,165 +13102,208 @@
     <row r="363" spans="1:8">
       <c r="A363" s="14"/>
       <c r="B363" s="14"/>
-      <c r="C363" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="D363" s="15" t="s">
+      <c r="C363" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="D363" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E363" s="15" t="str">
-        <f t="shared" si="14"/>
+      <c r="E363" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>006B</v>
       </c>
-      <c r="F363" s="16">
+      <c r="F363" s="17">
         <v>107</v>
       </c>
       <c r="G363" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>086B</v>
       </c>
       <c r="H363" s="4">
         <v>2155</v>
       </c>
     </row>
-    <row r="364" spans="3:8">
-      <c r="C364" s="5"/>
-      <c r="D364" s="5"/>
-      <c r="E364" s="5" t="str">
-        <f t="shared" si="14"/>
+    <row r="364" spans="1:8">
+      <c r="A364" t="s">
+        <v>152</v>
+      </c>
+      <c r="B364" s="15"/>
+      <c r="C364" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D364" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E364" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>00F6</v>
       </c>
       <c r="F364" s="4">
         <v>246</v>
       </c>
       <c r="G364" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08F6</v>
       </c>
       <c r="H364" s="4">
         <v>2294</v>
       </c>
     </row>
-    <row r="365" spans="3:8">
-      <c r="C365" s="5"/>
-      <c r="D365" s="5"/>
-      <c r="E365" s="5" t="str">
-        <f t="shared" si="14"/>
+    <row r="365" spans="2:8">
+      <c r="B365" s="15"/>
+      <c r="C365" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D365" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E365" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>00F7</v>
       </c>
       <c r="F365" s="4">
         <v>247</v>
       </c>
       <c r="G365" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08F7</v>
       </c>
       <c r="H365" s="4">
         <v>2295</v>
       </c>
     </row>
-    <row r="366" spans="3:8">
-      <c r="C366" s="5"/>
-      <c r="D366" s="5"/>
-      <c r="E366" s="5" t="str">
-        <f t="shared" si="14"/>
+    <row r="366" spans="2:8">
+      <c r="B366" s="15"/>
+      <c r="C366" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D366" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E366" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>00F8</v>
       </c>
       <c r="F366" s="4">
         <v>248</v>
       </c>
       <c r="G366" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08F8</v>
       </c>
       <c r="H366" s="4">
         <v>2296</v>
       </c>
     </row>
-    <row r="367" spans="3:8">
-      <c r="C367" s="5"/>
-      <c r="D367" s="5"/>
-      <c r="E367" s="5" t="str">
-        <f t="shared" si="14"/>
+    <row r="367" spans="2:8">
+      <c r="B367" s="15"/>
+      <c r="C367" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D367" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E367" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>00F9</v>
       </c>
       <c r="F367" s="4">
         <v>249</v>
       </c>
       <c r="G367" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08F9</v>
       </c>
       <c r="H367" s="4">
         <v>2297</v>
       </c>
     </row>
-    <row r="368" spans="3:8">
-      <c r="C368" s="5"/>
-      <c r="D368" s="5"/>
-      <c r="E368" s="5" t="str">
-        <f t="shared" si="14"/>
+    <row r="368" spans="2:8">
+      <c r="B368" s="15"/>
+      <c r="C368" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D368" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E368" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>00FA</v>
       </c>
       <c r="F368" s="4">
         <v>250</v>
       </c>
       <c r="G368" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08FA</v>
       </c>
       <c r="H368" s="4">
         <v>2298</v>
       </c>
     </row>
-    <row r="369" spans="3:8">
-      <c r="C369" s="5"/>
-      <c r="D369" s="5"/>
-      <c r="E369" s="5" t="str">
-        <f t="shared" si="14"/>
+    <row r="369" spans="2:8">
+      <c r="B369" s="15"/>
+      <c r="C369" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D369" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E369" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>00FB</v>
       </c>
       <c r="F369" s="4">
         <v>251</v>
       </c>
       <c r="G369" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08FB</v>
       </c>
       <c r="H369" s="4">
         <v>2299</v>
       </c>
     </row>
-    <row r="370" spans="3:8">
-      <c r="C370" s="5"/>
-      <c r="D370" s="5"/>
-      <c r="E370" s="5" t="str">
-        <f t="shared" si="14"/>
+    <row r="370" spans="2:8">
+      <c r="B370" s="15"/>
+      <c r="C370" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D370" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E370" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>00FC</v>
       </c>
       <c r="F370" s="4">
         <v>252</v>
       </c>
       <c r="G370" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08FC</v>
       </c>
       <c r="H370" s="4">
         <v>2300</v>
       </c>
     </row>
-    <row r="371" spans="3:8">
-      <c r="C371" s="5"/>
-      <c r="D371" s="5"/>
-      <c r="E371" s="5" t="str">
-        <f t="shared" si="14"/>
+    <row r="371" spans="2:8">
+      <c r="B371" s="15"/>
+      <c r="C371" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D371" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E371" s="16" t="str">
+        <f t="shared" si="15"/>
         <v>00FD</v>
       </c>
       <c r="F371" s="4">
         <v>253</v>
       </c>
       <c r="G371" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08FD</v>
       </c>
       <c r="H371" s="4">
@@ -13035,20 +13312,20 @@
     </row>
     <row r="372" spans="3:8">
       <c r="C372" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D372" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E372" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00FE</v>
       </c>
       <c r="F372" s="4">
         <v>254</v>
       </c>
       <c r="G372" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08FE</v>
       </c>
       <c r="H372" s="4">
@@ -13057,20 +13334,20 @@
     </row>
     <row r="373" spans="3:8">
       <c r="C373" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D373" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E373" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>00FF</v>
       </c>
       <c r="F373" s="4">
         <v>255</v>
       </c>
       <c r="G373" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08FF</v>
       </c>
       <c r="H373" s="4">
@@ -13079,20 +13356,20 @@
     </row>
     <row r="374" spans="3:8">
       <c r="C374" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E374" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0100</v>
       </c>
       <c r="F374" s="4">
         <v>256</v>
       </c>
       <c r="G374" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0900</v>
       </c>
       <c r="H374" s="4">
@@ -13101,20 +13378,20 @@
     </row>
     <row r="375" spans="3:8">
       <c r="C375" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D375" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E375" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0101</v>
       </c>
       <c r="F375" s="4">
         <v>257</v>
       </c>
       <c r="G375" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0901</v>
       </c>
       <c r="H375" s="4">
@@ -13123,20 +13400,20 @@
     </row>
     <row r="376" spans="3:8">
       <c r="C376" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E376" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0102</v>
       </c>
       <c r="F376" s="4">
         <v>258</v>
       </c>
       <c r="G376" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0902</v>
       </c>
       <c r="H376" s="4">
@@ -13145,20 +13422,20 @@
     </row>
     <row r="377" spans="3:8">
       <c r="C377" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D377" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E377" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0103</v>
       </c>
       <c r="F377" s="4">
         <v>259</v>
       </c>
       <c r="G377" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0903</v>
       </c>
       <c r="H377" s="4">
@@ -13167,20 +13444,20 @@
     </row>
     <row r="378" spans="3:8">
       <c r="C378" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E378" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0104</v>
       </c>
       <c r="F378" s="4">
         <v>260</v>
       </c>
       <c r="G378" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0904</v>
       </c>
       <c r="H378" s="4">
@@ -13189,20 +13466,20 @@
     </row>
     <row r="379" spans="3:8">
       <c r="C379" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E379" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0105</v>
       </c>
       <c r="F379" s="4">
         <v>261</v>
       </c>
       <c r="G379" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0905</v>
       </c>
       <c r="H379" s="4">
@@ -13211,20 +13488,20 @@
     </row>
     <row r="380" spans="3:8">
       <c r="C380" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E380" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0106</v>
       </c>
       <c r="F380" s="4">
         <v>262</v>
       </c>
       <c r="G380" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0906</v>
       </c>
       <c r="H380" s="4">
@@ -13233,20 +13510,20 @@
     </row>
     <row r="381" spans="3:8">
       <c r="C381" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E381" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0107</v>
       </c>
       <c r="F381" s="4">
         <v>263</v>
       </c>
       <c r="G381" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0907</v>
       </c>
       <c r="H381" s="4">
@@ -13255,20 +13532,20 @@
     </row>
     <row r="382" spans="3:8">
       <c r="C382" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E382" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0108</v>
       </c>
       <c r="F382" s="4">
         <v>264</v>
       </c>
       <c r="G382" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0908</v>
       </c>
       <c r="H382" s="4">
@@ -13277,20 +13554,20 @@
     </row>
     <row r="383" spans="3:8">
       <c r="C383" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E383" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0109</v>
       </c>
       <c r="F383" s="4">
         <v>265</v>
       </c>
       <c r="G383" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0909</v>
       </c>
       <c r="H383" s="4">
@@ -13299,20 +13576,20 @@
     </row>
     <row r="384" spans="3:8">
       <c r="C384" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E384" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>010A</v>
       </c>
       <c r="F384" s="4">
         <v>266</v>
       </c>
       <c r="G384" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>090A</v>
       </c>
       <c r="H384" s="4">
@@ -13321,20 +13598,20 @@
     </row>
     <row r="385" spans="3:8">
       <c r="C385" s="4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E385" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>010B</v>
       </c>
       <c r="F385" s="4">
         <v>267</v>
       </c>
       <c r="G385" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>090B</v>
       </c>
       <c r="H385" s="4">
@@ -13343,20 +13620,20 @@
     </row>
     <row r="386" spans="3:8">
       <c r="C386" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E386" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>010C</v>
       </c>
       <c r="F386" s="4">
         <v>268</v>
       </c>
       <c r="G386" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>090C</v>
       </c>
       <c r="H386" s="4">
@@ -13365,20 +13642,20 @@
     </row>
     <row r="387" spans="3:8">
       <c r="C387" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E387" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>010D</v>
       </c>
       <c r="F387" s="4">
         <v>269</v>
       </c>
       <c r="G387" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>090D</v>
       </c>
       <c r="H387" s="4">
@@ -13387,14 +13664,14 @@
     </row>
     <row r="388" spans="5:8">
       <c r="E388" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>010E</v>
       </c>
       <c r="F388" s="4">
         <v>270</v>
       </c>
       <c r="G388" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>090E</v>
       </c>
       <c r="H388" s="4">
@@ -13403,14 +13680,14 @@
     </row>
     <row r="389" spans="5:8">
       <c r="E389" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>010F</v>
       </c>
       <c r="F389" s="4">
         <v>271</v>
       </c>
       <c r="G389" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>090F</v>
       </c>
       <c r="H389" s="4">
@@ -13419,14 +13696,14 @@
     </row>
     <row r="390" spans="5:8">
       <c r="E390" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0110</v>
       </c>
       <c r="F390" s="4">
         <v>272</v>
       </c>
       <c r="G390" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0910</v>
       </c>
       <c r="H390" s="4">
@@ -13435,14 +13712,14 @@
     </row>
     <row r="391" spans="5:8">
       <c r="E391" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0111</v>
       </c>
       <c r="F391" s="4">
         <v>273</v>
       </c>
       <c r="G391" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0911</v>
       </c>
       <c r="H391" s="4">
@@ -13450,112 +13727,112 @@
       </c>
     </row>
     <row r="392" spans="1:21">
-      <c r="A392" s="21"/>
-      <c r="B392" s="21"/>
+      <c r="A392" s="22"/>
+      <c r="B392" s="22"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0112</v>
       </c>
       <c r="F392" s="4">
         <v>274</v>
       </c>
       <c r="G392" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0912</v>
       </c>
       <c r="H392" s="4">
         <v>2322</v>
       </c>
-      <c r="K392" s="21"/>
-      <c r="L392" s="21"/>
-      <c r="M392" s="21"/>
-      <c r="N392" s="21"/>
-      <c r="O392" s="21"/>
-      <c r="P392" s="21"/>
-      <c r="Q392" s="21"/>
-      <c r="R392" s="21"/>
-      <c r="S392" s="21"/>
-      <c r="T392" s="21"/>
-      <c r="U392" s="21"/>
+      <c r="K392" s="22"/>
+      <c r="L392" s="22"/>
+      <c r="M392" s="22"/>
+      <c r="N392" s="22"/>
+      <c r="O392" s="22"/>
+      <c r="P392" s="22"/>
+      <c r="Q392" s="22"/>
+      <c r="R392" s="22"/>
+      <c r="S392" s="22"/>
+      <c r="T392" s="22"/>
+      <c r="U392" s="22"/>
     </row>
     <row r="393" spans="1:21">
-      <c r="A393" s="21"/>
-      <c r="B393" s="21"/>
+      <c r="A393" s="22"/>
+      <c r="B393" s="22"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0113</v>
       </c>
       <c r="F393" s="4">
         <v>275</v>
       </c>
       <c r="G393" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0913</v>
       </c>
       <c r="H393" s="4">
         <v>2323</v>
       </c>
-      <c r="K393" s="21"/>
-      <c r="L393" s="21"/>
-      <c r="M393" s="21"/>
-      <c r="N393" s="21"/>
-      <c r="O393" s="21"/>
-      <c r="P393" s="21"/>
-      <c r="Q393" s="21"/>
-      <c r="R393" s="21"/>
-      <c r="S393" s="21"/>
-      <c r="T393" s="21"/>
-      <c r="U393" s="21"/>
+      <c r="K393" s="22"/>
+      <c r="L393" s="22"/>
+      <c r="M393" s="22"/>
+      <c r="N393" s="22"/>
+      <c r="O393" s="22"/>
+      <c r="P393" s="22"/>
+      <c r="Q393" s="22"/>
+      <c r="R393" s="22"/>
+      <c r="S393" s="22"/>
+      <c r="T393" s="22"/>
+      <c r="U393" s="22"/>
     </row>
     <row r="394" spans="1:21">
-      <c r="A394" s="21"/>
-      <c r="B394" s="21"/>
+      <c r="A394" s="22"/>
+      <c r="B394" s="22"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0114</v>
       </c>
       <c r="F394" s="4">
         <v>276</v>
       </c>
       <c r="G394" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0914</v>
       </c>
       <c r="H394" s="4">
         <v>2324</v>
       </c>
-      <c r="K394" s="21"/>
-      <c r="L394" s="21"/>
-      <c r="M394" s="21"/>
-      <c r="N394" s="21"/>
-      <c r="O394" s="21"/>
-      <c r="P394" s="21"/>
-      <c r="Q394" s="21"/>
-      <c r="R394" s="21"/>
-      <c r="S394" s="21"/>
-      <c r="T394" s="21"/>
-      <c r="U394" s="21"/>
+      <c r="K394" s="22"/>
+      <c r="L394" s="22"/>
+      <c r="M394" s="22"/>
+      <c r="N394" s="22"/>
+      <c r="O394" s="22"/>
+      <c r="P394" s="22"/>
+      <c r="Q394" s="22"/>
+      <c r="R394" s="22"/>
+      <c r="S394" s="22"/>
+      <c r="T394" s="22"/>
+      <c r="U394" s="22"/>
     </row>
     <row r="395" spans="1:21">
-      <c r="A395" s="21"/>
-      <c r="B395" s="21"/>
+      <c r="A395" s="22"/>
+      <c r="B395" s="22"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0115</v>
       </c>
       <c r="F395" s="4">
         <v>277</v>
       </c>
       <c r="G395" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0915</v>
       </c>
       <c r="H395" s="4">
@@ -13564,250 +13841,250 @@
       <c r="K395" s="7">
         <v>2</v>
       </c>
-      <c r="L395" s="21"/>
-      <c r="M395" s="21"/>
-      <c r="N395" s="21"/>
-      <c r="O395" s="21"/>
-      <c r="P395" s="21"/>
-      <c r="Q395" s="21"/>
-      <c r="R395" s="21"/>
-      <c r="S395" s="21"/>
-      <c r="T395" s="21"/>
-      <c r="U395" s="21"/>
+      <c r="L395" s="22"/>
+      <c r="M395" s="22"/>
+      <c r="N395" s="22"/>
+      <c r="O395" s="22"/>
+      <c r="P395" s="22"/>
+      <c r="Q395" s="22"/>
+      <c r="R395" s="22"/>
+      <c r="S395" s="22"/>
+      <c r="T395" s="22"/>
+      <c r="U395" s="22"/>
     </row>
     <row r="396" spans="1:21">
-      <c r="A396" s="21"/>
-      <c r="B396" s="21"/>
+      <c r="A396" s="22"/>
+      <c r="B396" s="22"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0116</v>
       </c>
       <c r="F396" s="4">
         <v>278</v>
       </c>
       <c r="G396" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0916</v>
       </c>
       <c r="H396" s="4">
         <v>2326</v>
       </c>
-      <c r="K396" s="21"/>
-      <c r="L396" s="21"/>
-      <c r="M396" s="21"/>
-      <c r="N396" s="21"/>
-      <c r="O396" s="21"/>
-      <c r="P396" s="21"/>
-      <c r="Q396" s="21"/>
-      <c r="R396" s="21"/>
-      <c r="S396" s="21"/>
-      <c r="T396" s="21"/>
-      <c r="U396" s="21"/>
+      <c r="K396" s="22"/>
+      <c r="L396" s="22"/>
+      <c r="M396" s="22"/>
+      <c r="N396" s="22"/>
+      <c r="O396" s="22"/>
+      <c r="P396" s="22"/>
+      <c r="Q396" s="22"/>
+      <c r="R396" s="22"/>
+      <c r="S396" s="22"/>
+      <c r="T396" s="22"/>
+      <c r="U396" s="22"/>
     </row>
     <row r="397" spans="1:21">
-      <c r="A397" s="22"/>
+      <c r="A397" s="23"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="5" t="str">
-        <f t="shared" ref="E397:E429" si="17">DEC2HEX(F397,4)</f>
+        <f t="shared" ref="E397:E429" si="18">DEC2HEX(F397,4)</f>
         <v>0117</v>
       </c>
       <c r="F397" s="4">
         <v>279</v>
       </c>
       <c r="G397" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0917</v>
       </c>
       <c r="H397" s="4">
         <v>2327</v>
       </c>
-      <c r="K397" s="21"/>
-      <c r="L397" s="21"/>
-      <c r="M397" s="21"/>
-      <c r="N397" s="21"/>
-      <c r="O397" s="21"/>
-      <c r="P397" s="21"/>
-      <c r="Q397" s="21"/>
-      <c r="R397" s="21"/>
-      <c r="S397" s="21"/>
-      <c r="T397" s="21"/>
-      <c r="U397" s="21"/>
+      <c r="K397" s="22"/>
+      <c r="L397" s="22"/>
+      <c r="M397" s="22"/>
+      <c r="N397" s="22"/>
+      <c r="O397" s="22"/>
+      <c r="P397" s="22"/>
+      <c r="Q397" s="22"/>
+      <c r="R397" s="22"/>
+      <c r="S397" s="22"/>
+      <c r="T397" s="22"/>
+      <c r="U397" s="22"/>
     </row>
     <row r="398" spans="1:21">
-      <c r="A398" s="21"/>
-      <c r="B398" s="21"/>
+      <c r="A398" s="22"/>
+      <c r="B398" s="22"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0118</v>
       </c>
       <c r="F398" s="4">
         <v>280</v>
       </c>
       <c r="G398" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0918</v>
       </c>
       <c r="H398" s="4">
         <v>2328</v>
       </c>
-      <c r="K398" s="21"/>
-      <c r="L398" s="21"/>
-      <c r="M398" s="21"/>
-      <c r="N398" s="21"/>
-      <c r="O398" s="21"/>
-      <c r="P398" s="21"/>
-      <c r="Q398" s="21"/>
-      <c r="R398" s="21"/>
-      <c r="S398" s="21"/>
-      <c r="T398" s="21"/>
-      <c r="U398" s="21"/>
+      <c r="K398" s="22"/>
+      <c r="L398" s="22"/>
+      <c r="M398" s="22"/>
+      <c r="N398" s="22"/>
+      <c r="O398" s="22"/>
+      <c r="P398" s="22"/>
+      <c r="Q398" s="22"/>
+      <c r="R398" s="22"/>
+      <c r="S398" s="22"/>
+      <c r="T398" s="22"/>
+      <c r="U398" s="22"/>
     </row>
     <row r="399" spans="1:21">
-      <c r="A399" s="21"/>
-      <c r="B399" s="21"/>
+      <c r="A399" s="22"/>
+      <c r="B399" s="22"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0119</v>
       </c>
       <c r="F399" s="4">
         <v>281</v>
       </c>
       <c r="G399" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0919</v>
       </c>
       <c r="H399" s="4">
         <v>2329</v>
       </c>
-      <c r="K399" s="21"/>
-      <c r="L399" s="21"/>
-      <c r="M399" s="21"/>
-      <c r="N399" s="21"/>
-      <c r="O399" s="21"/>
-      <c r="P399" s="21"/>
-      <c r="Q399" s="21"/>
-      <c r="R399" s="21"/>
-      <c r="S399" s="21"/>
-      <c r="T399" s="21"/>
-      <c r="U399" s="21"/>
+      <c r="K399" s="22"/>
+      <c r="L399" s="22"/>
+      <c r="M399" s="22"/>
+      <c r="N399" s="22"/>
+      <c r="O399" s="22"/>
+      <c r="P399" s="22"/>
+      <c r="Q399" s="22"/>
+      <c r="R399" s="22"/>
+      <c r="S399" s="22"/>
+      <c r="T399" s="22"/>
+      <c r="U399" s="22"/>
     </row>
     <row r="400" spans="1:21">
-      <c r="A400" s="21"/>
-      <c r="B400" s="21"/>
+      <c r="A400" s="22"/>
+      <c r="B400" s="22"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>011A</v>
       </c>
       <c r="F400" s="4">
         <v>282</v>
       </c>
       <c r="G400" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>091A</v>
       </c>
       <c r="H400" s="4">
         <v>2330</v>
       </c>
-      <c r="K400" s="21"/>
-      <c r="L400" s="21"/>
-      <c r="M400" s="21"/>
-      <c r="N400" s="21"/>
-      <c r="O400" s="21"/>
-      <c r="P400" s="21"/>
-      <c r="Q400" s="21"/>
-      <c r="R400" s="21"/>
-      <c r="S400" s="21"/>
-      <c r="T400" s="21"/>
-      <c r="U400" s="21"/>
+      <c r="K400" s="22"/>
+      <c r="L400" s="22"/>
+      <c r="M400" s="22"/>
+      <c r="N400" s="22"/>
+      <c r="O400" s="22"/>
+      <c r="P400" s="22"/>
+      <c r="Q400" s="22"/>
+      <c r="R400" s="22"/>
+      <c r="S400" s="22"/>
+      <c r="T400" s="22"/>
+      <c r="U400" s="22"/>
     </row>
     <row r="401" spans="1:21">
-      <c r="A401" s="21"/>
-      <c r="B401" s="21"/>
+      <c r="A401" s="22"/>
+      <c r="B401" s="22"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>011B</v>
       </c>
       <c r="F401" s="4">
         <v>283</v>
       </c>
       <c r="G401" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>091B</v>
       </c>
       <c r="H401" s="4">
         <v>2331</v>
       </c>
-      <c r="K401" s="21"/>
-      <c r="L401" s="21"/>
-      <c r="M401" s="21"/>
-      <c r="N401" s="21"/>
-      <c r="O401" s="21"/>
-      <c r="P401" s="21"/>
-      <c r="Q401" s="21"/>
-      <c r="R401" s="21"/>
-      <c r="S401" s="21"/>
-      <c r="T401" s="21"/>
-      <c r="U401" s="21"/>
+      <c r="K401" s="22"/>
+      <c r="L401" s="22"/>
+      <c r="M401" s="22"/>
+      <c r="N401" s="22"/>
+      <c r="O401" s="22"/>
+      <c r="P401" s="22"/>
+      <c r="Q401" s="22"/>
+      <c r="R401" s="22"/>
+      <c r="S401" s="22"/>
+      <c r="T401" s="22"/>
+      <c r="U401" s="22"/>
     </row>
     <row r="402" spans="1:21">
-      <c r="A402" s="21"/>
-      <c r="B402" s="21"/>
+      <c r="A402" s="22"/>
+      <c r="B402" s="22"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>011C</v>
       </c>
       <c r="F402" s="4">
         <v>284</v>
       </c>
       <c r="G402" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>091C</v>
       </c>
       <c r="H402" s="4">
         <v>2332</v>
       </c>
-      <c r="K402" s="21"/>
-      <c r="L402" s="21"/>
-      <c r="M402" s="21"/>
-      <c r="N402" s="21"/>
-      <c r="O402" s="21"/>
-      <c r="P402" s="21"/>
-      <c r="Q402" s="21"/>
-      <c r="R402" s="21"/>
-      <c r="S402" s="21"/>
-      <c r="T402" s="21"/>
-      <c r="U402" s="21"/>
+      <c r="K402" s="22"/>
+      <c r="L402" s="22"/>
+      <c r="M402" s="22"/>
+      <c r="N402" s="22"/>
+      <c r="O402" s="22"/>
+      <c r="P402" s="22"/>
+      <c r="Q402" s="22"/>
+      <c r="R402" s="22"/>
+      <c r="S402" s="22"/>
+      <c r="T402" s="22"/>
+      <c r="U402" s="22"/>
     </row>
     <row r="403" spans="3:8">
-      <c r="C403" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="D403" s="15" t="s">
-        <v>162</v>
+      <c r="C403" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="D403" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="E403" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>011D</v>
       </c>
       <c r="F403" s="4">
         <v>285</v>
       </c>
       <c r="G403" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>091D</v>
       </c>
       <c r="H403" s="4">
@@ -13815,19 +14092,19 @@
       </c>
     </row>
     <row r="404" spans="3:8">
-      <c r="C404" s="16"/>
+      <c r="C404" s="17"/>
       <c r="D404" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E404" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>011E</v>
       </c>
       <c r="F404" s="4">
         <v>286</v>
       </c>
       <c r="G404" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>091E</v>
       </c>
       <c r="H404" s="4">
@@ -13836,20 +14113,20 @@
     </row>
     <row r="405" spans="3:11">
       <c r="C405" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D405" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E405" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>011F</v>
       </c>
       <c r="F405" s="4">
         <v>287</v>
       </c>
       <c r="G405" s="4" t="str">
-        <f t="shared" ref="G405:G429" si="18">DEC2HEX(H405,4)</f>
+        <f t="shared" ref="G405:G429" si="19">DEC2HEX(H405,4)</f>
         <v>091F</v>
       </c>
       <c r="H405" s="4">
@@ -13864,14 +14141,14 @@
         <v>77</v>
       </c>
       <c r="E406" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0120</v>
       </c>
       <c r="F406" s="4">
         <v>288</v>
       </c>
       <c r="G406" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0920</v>
       </c>
       <c r="H406" s="4">
@@ -13880,20 +14157,20 @@
     </row>
     <row r="407" spans="3:8">
       <c r="C407" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E407" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0121</v>
       </c>
       <c r="F407" s="4">
         <v>289</v>
       </c>
       <c r="G407" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0921</v>
       </c>
       <c r="H407" s="4">
@@ -13905,14 +14182,14 @@
         <v>77</v>
       </c>
       <c r="E408" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0122</v>
       </c>
       <c r="F408" s="4">
         <v>290</v>
       </c>
       <c r="G408" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0922</v>
       </c>
       <c r="H408" s="4">
@@ -13921,20 +14198,20 @@
     </row>
     <row r="409" spans="3:8">
       <c r="C409" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D409" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E409" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0123</v>
       </c>
       <c r="F409" s="4">
         <v>291</v>
       </c>
       <c r="G409" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0923</v>
       </c>
       <c r="H409" s="4">
@@ -13946,14 +14223,14 @@
         <v>77</v>
       </c>
       <c r="E410" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0124</v>
       </c>
       <c r="F410" s="4">
         <v>292</v>
       </c>
       <c r="G410" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0924</v>
       </c>
       <c r="H410" s="4">
@@ -13962,20 +14239,20 @@
     </row>
     <row r="411" spans="3:8">
       <c r="C411" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D411" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E411" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0125</v>
       </c>
       <c r="F411" s="4">
         <v>293</v>
       </c>
       <c r="G411" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0925</v>
       </c>
       <c r="H411" s="4">
@@ -13987,14 +14264,14 @@
         <v>77</v>
       </c>
       <c r="E412" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0126</v>
       </c>
       <c r="F412" s="4">
         <v>294</v>
       </c>
       <c r="G412" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0926</v>
       </c>
       <c r="H412" s="4">
@@ -14003,20 +14280,20 @@
     </row>
     <row r="413" spans="3:8">
       <c r="C413" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E413" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0127</v>
       </c>
       <c r="F413" s="4">
         <v>295</v>
       </c>
       <c r="G413" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0927</v>
       </c>
       <c r="H413" s="4">
@@ -14028,14 +14305,14 @@
         <v>77</v>
       </c>
       <c r="E414" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0128</v>
       </c>
       <c r="F414" s="4">
         <v>296</v>
       </c>
       <c r="G414" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0928</v>
       </c>
       <c r="H414" s="4">
@@ -14044,20 +14321,20 @@
     </row>
     <row r="415" spans="3:8">
       <c r="C415" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D415" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E415" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0129</v>
       </c>
       <c r="F415" s="4">
         <v>297</v>
       </c>
       <c r="G415" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0929</v>
       </c>
       <c r="H415" s="4">
@@ -14069,14 +14346,14 @@
         <v>77</v>
       </c>
       <c r="E416" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>012A</v>
       </c>
       <c r="F416" s="4">
         <v>298</v>
       </c>
       <c r="G416" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>092A</v>
       </c>
       <c r="H416" s="4">
@@ -14085,20 +14362,20 @@
     </row>
     <row r="417" spans="3:8">
       <c r="C417" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D417" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E417" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>012B</v>
       </c>
       <c r="F417" s="4">
         <v>299</v>
       </c>
       <c r="G417" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>092B</v>
       </c>
       <c r="H417" s="4">
@@ -14110,14 +14387,14 @@
         <v>77</v>
       </c>
       <c r="E418" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>012C</v>
       </c>
       <c r="F418" s="4">
         <v>300</v>
       </c>
       <c r="G418" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>092C</v>
       </c>
       <c r="H418" s="4">
@@ -14126,20 +14403,20 @@
     </row>
     <row r="419" spans="3:8">
       <c r="C419" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D419" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E419" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>012D</v>
       </c>
       <c r="F419" s="4">
         <v>301</v>
       </c>
       <c r="G419" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>092D</v>
       </c>
       <c r="H419" s="4">
@@ -14151,14 +14428,14 @@
         <v>77</v>
       </c>
       <c r="E420" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>012E</v>
       </c>
       <c r="F420" s="4">
         <v>302</v>
       </c>
       <c r="G420" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>092E</v>
       </c>
       <c r="H420" s="4">
@@ -14167,20 +14444,20 @@
     </row>
     <row r="421" spans="3:8">
       <c r="C421" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E421" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>012F</v>
       </c>
       <c r="F421" s="4">
         <v>303</v>
       </c>
       <c r="G421" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>092F</v>
       </c>
       <c r="H421" s="4">
@@ -14189,20 +14466,20 @@
     </row>
     <row r="422" spans="3:8">
       <c r="C422" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D422" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E422" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0130</v>
       </c>
       <c r="F422" s="4">
         <v>304</v>
       </c>
       <c r="G422" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0930</v>
       </c>
       <c r="H422" s="4">
@@ -14211,20 +14488,20 @@
     </row>
     <row r="423" spans="3:8">
       <c r="C423" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D423" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E423" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0131</v>
       </c>
       <c r="F423" s="4">
         <v>305</v>
       </c>
       <c r="G423" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0931</v>
       </c>
       <c r="H423" s="4">
@@ -14233,20 +14510,20 @@
     </row>
     <row r="424" spans="3:8">
       <c r="C424" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D424" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E424" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0132</v>
       </c>
       <c r="F424" s="4">
         <v>306</v>
       </c>
       <c r="G424" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="G424:G439" si="20">DEC2HEX(H424,4)</f>
         <v>0932</v>
       </c>
       <c r="H424" s="4">
@@ -14255,20 +14532,20 @@
     </row>
     <row r="425" spans="3:8">
       <c r="C425" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D425" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E425" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0133</v>
       </c>
       <c r="F425" s="4">
         <v>307</v>
       </c>
       <c r="G425" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0933</v>
       </c>
       <c r="H425" s="4">
@@ -14277,20 +14554,20 @@
     </row>
     <row r="426" spans="3:8">
       <c r="C426" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D426" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E426" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0134</v>
       </c>
       <c r="F426" s="4">
         <v>308</v>
       </c>
       <c r="G426" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0934</v>
       </c>
       <c r="H426" s="4">
@@ -14299,20 +14576,20 @@
     </row>
     <row r="427" spans="3:8">
       <c r="C427" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D427" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E427" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0135</v>
       </c>
       <c r="F427" s="4">
         <v>309</v>
       </c>
       <c r="G427" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0935</v>
       </c>
       <c r="H427" s="4">
@@ -14321,20 +14598,20 @@
     </row>
     <row r="428" spans="3:8">
       <c r="C428" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D428" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E428" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0136</v>
       </c>
       <c r="F428" s="4">
         <v>310</v>
       </c>
       <c r="G428" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0936</v>
       </c>
       <c r="H428" s="4">
@@ -14343,343 +14620,583 @@
     </row>
     <row r="429" spans="4:8">
       <c r="D429" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E429" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0137</v>
       </c>
       <c r="F429" s="4">
         <v>311</v>
       </c>
       <c r="G429" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0937</v>
       </c>
       <c r="H429" s="4">
         <v>2359</v>
       </c>
     </row>
-    <row r="430" spans="6:8">
+    <row r="430" spans="1:8">
+      <c r="A430" t="s">
+        <v>335</v>
+      </c>
+      <c r="B430" s="15"/>
+      <c r="C430" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D430" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E430" s="5" t="str">
+        <f>DEC2HEX(F430,4)</f>
+        <v>0138</v>
+      </c>
       <c r="F430" s="4">
         <v>312</v>
       </c>
       <c r="G430" s="4" t="str">
-        <f t="shared" ref="G430:G450" si="19">DEC2HEX(H430,4)</f>
+        <f t="shared" si="20"/>
         <v>0938</v>
       </c>
       <c r="H430" s="4">
         <v>2360</v>
       </c>
     </row>
-    <row r="431" spans="6:8">
+    <row r="431" spans="2:8">
+      <c r="B431" s="15"/>
+      <c r="C431" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D431" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="E431" s="5" t="str">
+        <f>DEC2HEX(F431,4)</f>
+        <v>0139</v>
+      </c>
       <c r="F431" s="4">
         <v>313</v>
       </c>
       <c r="G431" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0939</v>
       </c>
       <c r="H431" s="4">
         <v>2361</v>
       </c>
     </row>
-    <row r="432" spans="6:8">
+    <row r="432" spans="5:8">
+      <c r="E432" s="5" t="str">
+        <f>DEC2HEX(F432,4)</f>
+        <v>013A</v>
+      </c>
       <c r="F432" s="4">
         <v>314</v>
       </c>
       <c r="G432" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>093A</v>
       </c>
       <c r="H432" s="4">
         <v>2362</v>
       </c>
     </row>
-    <row r="433" spans="6:8">
+    <row r="433" spans="5:8">
+      <c r="E433" s="5" t="str">
+        <f>DEC2HEX(F433,4)</f>
+        <v>013B</v>
+      </c>
       <c r="F433" s="4">
         <v>315</v>
       </c>
       <c r="G433" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>0943</v>
+        <f t="shared" si="20"/>
+        <v>093B</v>
       </c>
       <c r="H433" s="4">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="434" spans="6:8">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="434" spans="5:8">
+      <c r="E434" s="5" t="str">
+        <f>DEC2HEX(F434,4)</f>
+        <v>013C</v>
+      </c>
       <c r="F434" s="4">
         <v>316</v>
       </c>
       <c r="G434" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>0944</v>
+        <f t="shared" si="20"/>
+        <v>093C</v>
       </c>
       <c r="H434" s="4">
-        <v>2372</v>
-      </c>
-    </row>
-    <row r="435" spans="6:8">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="435" spans="5:8">
+      <c r="E435" s="5" t="str">
+        <f>DEC2HEX(F435,4)</f>
+        <v>013D</v>
+      </c>
       <c r="F435" s="4">
         <v>317</v>
       </c>
       <c r="G435" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>0945</v>
+        <f t="shared" si="20"/>
+        <v>093D</v>
       </c>
       <c r="H435" s="4">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="436" spans="6:8">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="436" spans="5:8">
+      <c r="E436" s="5" t="str">
+        <f>DEC2HEX(F436,4)</f>
+        <v>013E</v>
+      </c>
       <c r="F436" s="4">
         <v>318</v>
       </c>
       <c r="G436" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>0946</v>
+        <f t="shared" si="20"/>
+        <v>093E</v>
       </c>
       <c r="H436" s="4">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="437" spans="6:8">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="437" spans="5:8">
+      <c r="E437" s="5" t="str">
+        <f>DEC2HEX(F437,4)</f>
+        <v>013F</v>
+      </c>
       <c r="F437" s="4">
         <v>319</v>
       </c>
       <c r="G437" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
+        <v>093F</v>
+      </c>
+      <c r="H437" s="4">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" t="s">
+        <v>152</v>
+      </c>
+      <c r="B438" s="15"/>
+      <c r="C438" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D438" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E438" s="16" t="str">
+        <f>DEC2HEX(F438,4)</f>
+        <v>0140</v>
+      </c>
+      <c r="F438" s="17">
+        <v>320</v>
+      </c>
+      <c r="G438" s="17" t="str">
+        <f t="shared" si="20"/>
+        <v>0940</v>
+      </c>
+      <c r="H438" s="17">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="439" spans="2:8">
+      <c r="B439" s="15"/>
+      <c r="C439" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D439" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E439" s="16" t="str">
+        <f t="shared" ref="E439:E453" si="21">DEC2HEX(F439,4)</f>
+        <v>0141</v>
+      </c>
+      <c r="F439" s="17">
+        <v>321</v>
+      </c>
+      <c r="G439" s="17" t="str">
+        <f t="shared" ref="G439:G453" si="22">DEC2HEX(H439,4)</f>
+        <v>0941</v>
+      </c>
+      <c r="H439" s="17">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="440" spans="2:8">
+      <c r="B440" s="15"/>
+      <c r="C440" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D440" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E440" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>0142</v>
+      </c>
+      <c r="F440" s="17">
+        <v>322</v>
+      </c>
+      <c r="G440" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>0942</v>
+      </c>
+      <c r="H440" s="17">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="441" spans="2:8">
+      <c r="B441" s="15"/>
+      <c r="C441" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D441" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E441" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>0143</v>
+      </c>
+      <c r="F441" s="17">
+        <v>323</v>
+      </c>
+      <c r="G441" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>0943</v>
+      </c>
+      <c r="H441" s="17">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="442" spans="2:8">
+      <c r="B442" s="15"/>
+      <c r="C442" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D442" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E442" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>0144</v>
+      </c>
+      <c r="F442" s="17">
+        <v>324</v>
+      </c>
+      <c r="G442" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>0944</v>
+      </c>
+      <c r="H442" s="17">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="443" spans="2:8">
+      <c r="B443" s="15"/>
+      <c r="C443" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D443" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E443" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>0145</v>
+      </c>
+      <c r="F443" s="17">
+        <v>325</v>
+      </c>
+      <c r="G443" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>0945</v>
+      </c>
+      <c r="H443" s="17">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="444" spans="2:8">
+      <c r="B444" s="15"/>
+      <c r="C444" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D444" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E444" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>0146</v>
+      </c>
+      <c r="F444" s="17">
+        <v>326</v>
+      </c>
+      <c r="G444" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>0946</v>
+      </c>
+      <c r="H444" s="17">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="445" spans="2:8">
+      <c r="B445" s="15"/>
+      <c r="C445" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D445" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E445" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>0147</v>
+      </c>
+      <c r="F445" s="17">
+        <v>327</v>
+      </c>
+      <c r="G445" s="17" t="str">
+        <f t="shared" si="22"/>
         <v>0947</v>
       </c>
-      <c r="H437" s="4">
+      <c r="H445" s="17">
         <v>2375</v>
       </c>
     </row>
-    <row r="438" spans="6:8">
-      <c r="F438" s="4">
+    <row r="446" spans="2:8">
+      <c r="B446" s="15"/>
+      <c r="C446" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D446" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E446" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>0148</v>
+      </c>
+      <c r="F446" s="17">
+        <v>328</v>
+      </c>
+      <c r="G446" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>0948</v>
+      </c>
+      <c r="H446" s="17">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="447" spans="2:8">
+      <c r="B447" s="15"/>
+      <c r="C447" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D447" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E447" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>0149</v>
+      </c>
+      <c r="F447" s="17">
+        <v>329</v>
+      </c>
+      <c r="G447" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>0949</v>
+      </c>
+      <c r="H447" s="17">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="448" spans="2:8">
+      <c r="B448" s="15"/>
+      <c r="C448" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D448" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E448" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>014A</v>
+      </c>
+      <c r="F448" s="17">
+        <v>330</v>
+      </c>
+      <c r="G448" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>094A</v>
+      </c>
+      <c r="H448" s="17">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="449" spans="2:8">
+      <c r="B449" s="15"/>
+      <c r="C449" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D449" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E449" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>014B</v>
+      </c>
+      <c r="F449" s="17">
+        <v>331</v>
+      </c>
+      <c r="G449" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>094B</v>
+      </c>
+      <c r="H449" s="17">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="450" spans="2:8">
+      <c r="B450" s="15"/>
+      <c r="C450" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D450" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E450" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>014C</v>
+      </c>
+      <c r="F450" s="17">
+        <v>332</v>
+      </c>
+      <c r="G450" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>094C</v>
+      </c>
+      <c r="H450" s="17">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="451" spans="2:8">
+      <c r="B451" s="15"/>
+      <c r="C451" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="G438" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>0948</v>
-      </c>
-      <c r="H438" s="4">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="439" spans="6:8">
-      <c r="F439" s="4">
+      <c r="D451" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E451" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>014D</v>
+      </c>
+      <c r="F451" s="17">
+        <v>333</v>
+      </c>
+      <c r="G451" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>094D</v>
+      </c>
+      <c r="H451" s="17">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="452" spans="2:8">
+      <c r="B452" s="15"/>
+      <c r="C452" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="G439" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>0949</v>
-      </c>
-      <c r="H439" s="4">
-        <v>2377</v>
-      </c>
-    </row>
-    <row r="440" spans="6:8">
-      <c r="F440" s="4">
+      <c r="D452" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E452" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>014E</v>
+      </c>
+      <c r="F452" s="17">
+        <v>334</v>
+      </c>
+      <c r="G452" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v>094E</v>
+      </c>
+      <c r="H452" s="17">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="453" spans="2:8">
+      <c r="B453" s="15"/>
+      <c r="C453" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="G440" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>094A</v>
-      </c>
-      <c r="H440" s="4">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="441" spans="6:8">
-      <c r="F441" s="4">
-        <v>323</v>
-      </c>
-      <c r="G441" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>094B</v>
-      </c>
-      <c r="H441" s="4">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="442" spans="6:8">
-      <c r="F442" s="4">
-        <v>324</v>
-      </c>
-      <c r="G442" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>094C</v>
-      </c>
-      <c r="H442" s="4">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="443" spans="6:8">
-      <c r="F443" s="4">
-        <v>325</v>
-      </c>
-      <c r="G443" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>094D</v>
-      </c>
-      <c r="H443" s="4">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="444" spans="6:8">
-      <c r="F444" s="4">
-        <v>326</v>
-      </c>
-      <c r="G444" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>094E</v>
-      </c>
-      <c r="H444" s="4">
-        <v>2382</v>
-      </c>
-    </row>
-    <row r="445" spans="6:8">
-      <c r="F445" s="4">
-        <v>327</v>
-      </c>
-      <c r="G445" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="D453" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E453" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v>014F</v>
+      </c>
+      <c r="F453" s="17">
+        <v>335</v>
+      </c>
+      <c r="G453" s="17" t="str">
+        <f t="shared" si="22"/>
         <v>094F</v>
       </c>
-      <c r="H445" s="4">
+      <c r="H453" s="17">
         <v>2383</v>
       </c>
     </row>
-    <row r="446" spans="6:8">
-      <c r="F446" s="4">
-        <v>328</v>
-      </c>
-      <c r="G446" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>0950</v>
-      </c>
-      <c r="H446" s="4">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="447" spans="6:8">
-      <c r="F447" s="4">
-        <v>329</v>
-      </c>
-      <c r="G447" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>0951</v>
-      </c>
-      <c r="H447" s="4">
-        <v>2385</v>
-      </c>
-    </row>
-    <row r="448" spans="3:8">
-      <c r="C448" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D448" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="F448" s="4">
-        <v>330</v>
-      </c>
-      <c r="G448" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>0952</v>
-      </c>
-      <c r="H448" s="4">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="449" spans="6:8">
-      <c r="F449" s="4">
-        <v>331</v>
-      </c>
-      <c r="G449" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>0953</v>
-      </c>
-      <c r="H449" s="4">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="450" spans="6:8">
-      <c r="F450" s="4">
-        <v>332</v>
-      </c>
-      <c r="G450" s="4" t="str">
-        <f>DEC2HEX(H450,4)</f>
-        <v>0954</v>
-      </c>
-      <c r="H450" s="4">
-        <v>2388</v>
-      </c>
-    </row>
-    <row r="452" spans="3:8">
-      <c r="C452" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D452" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F452" s="4">
-        <v>1041</v>
-      </c>
-      <c r="G452" s="4" t="str">
-        <f>DEC2HEX(H452,4)</f>
-        <v>0C19</v>
-      </c>
-      <c r="H452" s="4">
-        <v>3097</v>
-      </c>
-    </row>
     <row r="472" spans="1:3">
-      <c r="A472" s="21"/>
-      <c r="B472" s="21"/>
+      <c r="A472" s="22"/>
+      <c r="B472" s="22"/>
       <c r="C472" s="7"/>
     </row>
     <row r="473" spans="1:3">
-      <c r="A473" s="21"/>
-      <c r="B473" s="21"/>
+      <c r="A473" s="22"/>
+      <c r="B473" s="22"/>
       <c r="C473" s="7"/>
     </row>
     <row r="474" spans="1:3">
-      <c r="A474" s="21"/>
-      <c r="B474" s="21"/>
+      <c r="A474" s="22"/>
+      <c r="B474" s="22"/>
       <c r="C474" s="7"/>
     </row>
     <row r="475" spans="1:3">
-      <c r="A475" s="21"/>
-      <c r="B475" s="21"/>
+      <c r="A475" s="22"/>
+      <c r="B475" s="22"/>
       <c r="C475" s="7"/>
     </row>
     <row r="476" spans="1:3">
-      <c r="A476" s="21"/>
-      <c r="B476" s="21"/>
+      <c r="A476" s="22"/>
+      <c r="B476" s="22"/>
       <c r="C476" s="7"/>
     </row>
     <row r="477" spans="1:3">
-      <c r="A477" s="21"/>
-      <c r="B477" s="21"/>
+      <c r="A477" s="22"/>
+      <c r="B477" s="22"/>
       <c r="C477" s="7"/>
     </row>
     <row r="478" spans="1:3">
-      <c r="A478" s="21"/>
-      <c r="B478" s="21"/>
+      <c r="A478" s="22"/>
+      <c r="B478" s="22"/>
       <c r="C478" s="7"/>
     </row>
     <row r="479" spans="1:3">
-      <c r="A479" s="21"/>
-      <c r="B479" s="21"/>
+      <c r="A479" s="22"/>
+      <c r="B479" s="22"/>
       <c r="C479" s="7"/>
     </row>
     <row r="480" spans="1:5">
-      <c r="A480" s="21"/>
-      <c r="B480" s="21"/>
-      <c r="C480" s="23"/>
+      <c r="A480" s="22"/>
+      <c r="B480" s="22"/>
+      <c r="C480" s="24"/>
       <c r="D480" s="5"/>
       <c r="E480" s="7"/>
     </row>
@@ -14943,7 +15460,7 @@
   <sheetData>
     <row r="1" ht="23" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14961,602 +15478,602 @@
     <row r="2" spans="1:13">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="J7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C8" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D8" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E8" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F8" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G8" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H8" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I8" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="J8" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K8" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L8" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M8" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C10" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D10" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E10" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F10" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G10" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H10" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="I10" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J10" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L10" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M10" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E14" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F14" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G14" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H14" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I14" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J14" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K14" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L14" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M14" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D15" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E15" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F15" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G15" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I15" t="s">
+        <v>361</v>
+      </c>
+      <c r="J15" t="s">
+        <v>372</v>
+      </c>
+      <c r="K15" t="s">
+        <v>385</v>
+      </c>
+      <c r="L15" t="s">
         <v>362</v>
       </c>
-      <c r="I15" t="s">
-        <v>353</v>
-      </c>
-      <c r="J15" t="s">
-        <v>364</v>
-      </c>
-      <c r="K15" t="s">
-        <v>377</v>
-      </c>
-      <c r="L15" t="s">
-        <v>354</v>
-      </c>
       <c r="M15" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B16" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C16" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D16" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E16" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F16" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G16" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H16" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="I16" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J16" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K16" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L16" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M16" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C17" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D17" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E17" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F17" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G17" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H17" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="I17" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J17" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K17" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="L17" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M17" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" t="s">
         <v>362</v>
       </c>
-      <c r="C18" t="s">
-        <v>354</v>
-      </c>
       <c r="D18" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E18" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F18" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G18" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H18" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="I18" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J18" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="K18" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L18" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M18" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/new地址分配说明.xlsx
+++ b/new地址分配说明.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="403">
   <si>
     <t>站号</t>
   </si>
@@ -924,6 +924,30 @@
   </si>
   <si>
     <t>警告信息</t>
+  </si>
+  <si>
+    <t>每盒完成信号</t>
+  </si>
+  <si>
+    <t>两盒完成信号</t>
+  </si>
+  <si>
+    <t>第一盒状态</t>
+  </si>
+  <si>
+    <t>第二盒状态</t>
+  </si>
+  <si>
+    <t>抽检信号</t>
+  </si>
+  <si>
+    <t>第一个plc错误清</t>
+  </si>
+  <si>
+    <t>第一个plc警告清</t>
+  </si>
+  <si>
+    <t>通知plc两盒读取完成</t>
   </si>
   <si>
     <r>
@@ -2296,10 +2320,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2318,28 +2342,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2348,6 +2350,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2369,47 +2393,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2432,16 +2417,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2454,8 +2454,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2500,19 +2524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2530,7 +2554,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2548,61 +2602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2614,13 +2614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2638,7 +2632,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2650,19 +2680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2674,13 +2698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2703,17 +2727,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2733,28 +2757,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2791,6 +2804,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2799,10 +2823,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2811,133 +2835,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3367,8 +3391,8 @@
   <sheetPr/>
   <dimension ref="A1:AE493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="H214" sqref="H214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -9450,6 +9474,10 @@
       <c r="F199" s="4">
         <v>197</v>
       </c>
+      <c r="G199" s="4" t="str">
+        <f t="shared" ref="G199:G207" si="11">DEC2HEX(H199,4)</f>
+        <v>08C5</v>
+      </c>
       <c r="H199" s="4">
         <v>2245</v>
       </c>
@@ -9470,6 +9498,10 @@
       <c r="F200" s="4">
         <v>198</v>
       </c>
+      <c r="G200" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>08C6</v>
+      </c>
       <c r="H200" s="4">
         <v>2246</v>
       </c>
@@ -9490,6 +9522,10 @@
       <c r="F201" s="4">
         <v>199</v>
       </c>
+      <c r="G201" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>08C7</v>
+      </c>
       <c r="H201" s="4">
         <v>2247</v>
       </c>
@@ -9510,6 +9546,10 @@
       <c r="F202" s="4">
         <v>200</v>
       </c>
+      <c r="G202" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>08C8</v>
+      </c>
       <c r="H202" s="4">
         <v>2248</v>
       </c>
@@ -9530,6 +9570,10 @@
       <c r="F203" s="4">
         <v>201</v>
       </c>
+      <c r="G203" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>08C9</v>
+      </c>
       <c r="H203" s="4">
         <v>2249</v>
       </c>
@@ -9550,6 +9594,10 @@
       <c r="F204" s="4">
         <v>202</v>
       </c>
+      <c r="G204" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>08CA</v>
+      </c>
       <c r="H204" s="4">
         <v>2250</v>
       </c>
@@ -9570,6 +9618,10 @@
       <c r="F205" s="4">
         <v>203</v>
       </c>
+      <c r="G205" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>08CB</v>
+      </c>
       <c r="H205" s="4">
         <v>2251</v>
       </c>
@@ -9590,87 +9642,159 @@
       <c r="F206" s="4">
         <v>204</v>
       </c>
+      <c r="G206" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>08CC</v>
+      </c>
       <c r="H206" s="4">
         <v>2252</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:8">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
-    </row>
-    <row r="208" spans="1:2">
+      <c r="D207" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F207" s="4">
+        <v>503</v>
+      </c>
+      <c r="G207" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>09F7</v>
+      </c>
+      <c r="H207" s="4">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
+      <c r="D208" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F208" s="4">
+        <v>508</v>
+      </c>
+      <c r="G208" s="4" t="str">
+        <f>DEC2HEX(H208,4)</f>
+        <v>09FC</v>
+      </c>
+      <c r="H208" s="4">
+        <v>2556</v>
+      </c>
     </row>
     <row r="209" spans="1:10">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
-      <c r="D209" s="9"/>
+      <c r="D209" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F209" s="4">
+        <v>506</v>
+      </c>
       <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
+      <c r="H209" s="5">
+        <v>2554</v>
+      </c>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
-      <c r="D210" s="9"/>
+      <c r="D210" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F210" s="4">
+        <v>507</v>
+      </c>
       <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
+      <c r="H210" s="5">
+        <v>2555</v>
+      </c>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
-      <c r="D211" s="9"/>
+      <c r="D211" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F211" s="4">
+        <v>509</v>
+      </c>
       <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
+      <c r="H211" s="5">
+        <v>2557</v>
+      </c>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
-      <c r="D212" s="9"/>
+      <c r="D212" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F212" s="4">
+        <v>784</v>
+      </c>
       <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
+      <c r="H212" s="5">
+        <v>2832</v>
+      </c>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
     </row>
     <row r="213" spans="1:10">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
-      <c r="D213" s="9"/>
+      <c r="D213" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F213" s="4">
+        <v>785</v>
+      </c>
       <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
+      <c r="H213" s="5">
+        <v>2833</v>
+      </c>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
     </row>
     <row r="214" spans="1:10">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
-      <c r="D214" s="9"/>
+      <c r="D214" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F214" s="4">
+        <v>510</v>
+      </c>
       <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
+      <c r="H214" s="5">
+        <v>2558</v>
+      </c>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B215" s="4"/>
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="4" t="str">
@@ -9694,18 +9818,18 @@
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D217" s="8"/>
       <c r="E217" s="4" t="str">
-        <f t="shared" ref="E217:E280" si="11">DEC2HEX(F217,4)</f>
+        <f t="shared" ref="E217:E280" si="12">DEC2HEX(F217,4)</f>
         <v>006D</v>
       </c>
       <c r="F217" s="7">
         <v>109</v>
       </c>
       <c r="G217" s="5" t="str">
-        <f t="shared" ref="G217:G280" si="12">DEC2HEX(H217,4)</f>
+        <f t="shared" ref="G217:G280" si="13">DEC2HEX(H217,4)</f>
         <v>086D</v>
       </c>
       <c r="H217" s="5">
@@ -9718,20 +9842,20 @@
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E218" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>006E</v>
       </c>
       <c r="F218" s="4">
         <v>110</v>
       </c>
       <c r="G218" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>086E</v>
       </c>
       <c r="H218" s="5">
@@ -9746,17 +9870,17 @@
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="D219" s="9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E219" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>006F</v>
       </c>
       <c r="F219" s="7">
         <v>111</v>
       </c>
       <c r="G219" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>086F</v>
       </c>
       <c r="H219" s="5">
@@ -9769,20 +9893,20 @@
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E220" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0070</v>
       </c>
       <c r="F220" s="4">
         <v>112</v>
       </c>
       <c r="G220" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0870</v>
       </c>
       <c r="H220" s="5">
@@ -9795,17 +9919,17 @@
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="D221" s="9" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E221" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0071</v>
       </c>
       <c r="F221" s="7">
         <v>113</v>
       </c>
       <c r="G221" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0871</v>
       </c>
       <c r="H221" s="5">
@@ -9818,20 +9942,20 @@
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E222" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0072</v>
       </c>
       <c r="F222" s="4">
         <v>114</v>
       </c>
       <c r="G222" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0872</v>
       </c>
       <c r="H222" s="5">
@@ -9844,17 +9968,17 @@
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="D223" s="9" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E223" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0073</v>
       </c>
       <c r="F223" s="7">
         <v>115</v>
       </c>
       <c r="G223" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0873</v>
       </c>
       <c r="H223" s="5">
@@ -9867,20 +9991,20 @@
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="5" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E224" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0074</v>
       </c>
       <c r="F224" s="4">
         <v>116</v>
       </c>
       <c r="G224" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0874</v>
       </c>
       <c r="H224" s="5">
@@ -9893,17 +10017,17 @@
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="D225" s="9" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E225" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0075</v>
       </c>
       <c r="F225" s="7">
         <v>117</v>
       </c>
       <c r="G225" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0875</v>
       </c>
       <c r="H225" s="5">
@@ -9916,20 +10040,20 @@
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="18" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E226" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>00D6</v>
       </c>
       <c r="F226" s="20">
         <v>214</v>
       </c>
       <c r="G226" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>08D6</v>
       </c>
       <c r="H226" s="18">
@@ -9943,17 +10067,17 @@
       <c r="B227" s="4"/>
       <c r="C227" s="20"/>
       <c r="D227" s="19" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E227" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>00D7</v>
       </c>
       <c r="F227" s="20">
         <v>215</v>
       </c>
       <c r="G227" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>08D7</v>
       </c>
       <c r="H227" s="18">
@@ -9966,20 +10090,20 @@
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E228" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0076</v>
       </c>
       <c r="F228" s="4">
         <v>118</v>
       </c>
       <c r="G228" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0876</v>
       </c>
       <c r="H228" s="4">
@@ -9993,17 +10117,17 @@
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="D229" s="10" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E229" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0077</v>
       </c>
       <c r="F229" s="7">
         <v>119</v>
       </c>
       <c r="G229" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0877</v>
       </c>
       <c r="H229" s="4">
@@ -10014,20 +10138,20 @@
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="5" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E230" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0078</v>
       </c>
       <c r="F230" s="4">
         <v>120</v>
       </c>
       <c r="G230" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0878</v>
       </c>
       <c r="H230" s="4">
@@ -10038,17 +10162,17 @@
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="D231" s="9" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E231" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0079</v>
       </c>
       <c r="F231" s="7">
         <v>121</v>
       </c>
       <c r="G231" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0879</v>
       </c>
       <c r="H231" s="4">
@@ -10059,20 +10183,20 @@
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E232" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>007A</v>
       </c>
       <c r="F232" s="4">
         <v>122</v>
       </c>
       <c r="G232" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>087A</v>
       </c>
       <c r="H232" s="4">
@@ -10083,17 +10207,17 @@
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="D233" s="9" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E233" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>007B</v>
       </c>
       <c r="F233" s="7">
         <v>123</v>
       </c>
       <c r="G233" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>087B</v>
       </c>
       <c r="H233" s="4">
@@ -10104,20 +10228,20 @@
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E234" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>007C</v>
       </c>
       <c r="F234" s="4">
         <v>124</v>
       </c>
       <c r="G234" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>087C</v>
       </c>
       <c r="H234" s="4">
@@ -10128,17 +10252,17 @@
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="D235" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E235" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>007D</v>
       </c>
       <c r="F235" s="7">
         <v>125</v>
       </c>
       <c r="G235" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>087D</v>
       </c>
       <c r="H235" s="4">
@@ -10149,20 +10273,20 @@
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="18" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E236" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>00D8</v>
       </c>
       <c r="F236" s="20">
         <v>216</v>
       </c>
       <c r="G236" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>08D8</v>
       </c>
       <c r="H236" s="18">
@@ -10176,17 +10300,17 @@
       <c r="B237" s="4"/>
       <c r="C237" s="20"/>
       <c r="D237" s="19" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E237" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>00D9</v>
       </c>
       <c r="F237" s="20">
         <v>217</v>
       </c>
       <c r="G237" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>08D9</v>
       </c>
       <c r="H237" s="18">
@@ -10200,20 +10324,20 @@
         <v>74</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E238" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>007E</v>
       </c>
       <c r="F238" s="4">
         <v>126</v>
       </c>
       <c r="G238" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>087E</v>
       </c>
       <c r="H238" s="4">
@@ -10231,14 +10355,14 @@
         <v>77</v>
       </c>
       <c r="E239" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>007F</v>
       </c>
       <c r="F239" s="4">
         <v>127</v>
       </c>
       <c r="G239" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>087F</v>
       </c>
       <c r="H239" s="4">
@@ -10247,23 +10371,23 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E240" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0080</v>
       </c>
       <c r="F240" s="4">
         <v>128</v>
       </c>
       <c r="G240" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0880</v>
       </c>
       <c r="H240" s="4">
@@ -10274,18 +10398,18 @@
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="6" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0081</v>
       </c>
       <c r="F241" s="4">
         <v>129</v>
       </c>
       <c r="G241" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0881</v>
       </c>
       <c r="H241" s="4">
@@ -10296,17 +10420,17 @@
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E242" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0082</v>
       </c>
       <c r="F242" s="4">
         <v>130</v>
       </c>
       <c r="G242" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0882</v>
       </c>
       <c r="H242" s="4">
@@ -10317,17 +10441,17 @@
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E243" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0083</v>
       </c>
       <c r="F243" s="4">
         <v>131</v>
       </c>
       <c r="G243" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0883</v>
       </c>
       <c r="H243" s="4">
@@ -10340,20 +10464,20 @@
         <v>25</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E244" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0084</v>
       </c>
       <c r="F244" s="4">
         <v>132</v>
       </c>
       <c r="G244" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0884</v>
       </c>
       <c r="H244" s="4">
@@ -10364,17 +10488,17 @@
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="D245" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E245" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0085</v>
       </c>
       <c r="F245" s="4">
         <v>133</v>
       </c>
       <c r="G245" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0885</v>
       </c>
       <c r="H245" s="4">
@@ -10385,20 +10509,20 @@
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E246" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0086</v>
       </c>
       <c r="F246" s="4">
         <v>134</v>
       </c>
       <c r="G246" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0886</v>
       </c>
       <c r="H246" s="4">
@@ -10412,17 +10536,17 @@
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="D247" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E247" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0087</v>
       </c>
       <c r="F247" s="4">
         <v>135</v>
       </c>
       <c r="G247" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0887</v>
       </c>
       <c r="H247" s="4">
@@ -10433,20 +10557,20 @@
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E248" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0088</v>
       </c>
       <c r="F248" s="4">
         <v>136</v>
       </c>
       <c r="G248" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0888</v>
       </c>
       <c r="H248" s="4">
@@ -10457,17 +10581,17 @@
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="D249" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E249" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0089</v>
       </c>
       <c r="F249" s="4">
         <v>137</v>
       </c>
       <c r="G249" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0889</v>
       </c>
       <c r="H249" s="4">
@@ -10478,20 +10602,20 @@
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E250" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>008A</v>
       </c>
       <c r="F250" s="4">
         <v>138</v>
       </c>
       <c r="G250" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>088A</v>
       </c>
       <c r="H250" s="4">
@@ -10502,17 +10626,17 @@
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="D251" s="6" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E251" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>008B</v>
       </c>
       <c r="F251" s="4">
         <v>139</v>
       </c>
       <c r="G251" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>088B</v>
       </c>
       <c r="H251" s="4">
@@ -10523,20 +10647,20 @@
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="16" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E252" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>008C</v>
       </c>
       <c r="F252" s="4">
         <v>140</v>
       </c>
       <c r="G252" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>088C</v>
       </c>
       <c r="H252" s="4">
@@ -10548,17 +10672,17 @@
       <c r="B253" s="4"/>
       <c r="C253" s="17"/>
       <c r="D253" s="5" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E253" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>008D</v>
       </c>
       <c r="F253" s="4">
         <v>141</v>
       </c>
       <c r="G253" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>088D</v>
       </c>
       <c r="H253" s="4">
@@ -10569,20 +10693,20 @@
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E254" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>008E</v>
       </c>
       <c r="F254" s="4">
         <v>142</v>
       </c>
       <c r="G254" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>088E</v>
       </c>
       <c r="H254" s="4">
@@ -10596,17 +10720,17 @@
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="D255" s="4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E255" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>008F</v>
       </c>
       <c r="F255" s="4">
         <v>143</v>
       </c>
       <c r="G255" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>088F</v>
       </c>
       <c r="H255" s="4">
@@ -10617,20 +10741,20 @@
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E256" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0090</v>
       </c>
       <c r="F256" s="4">
         <v>144</v>
       </c>
       <c r="G256" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0890</v>
       </c>
       <c r="H256" s="4">
@@ -10641,17 +10765,17 @@
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="D257" s="4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E257" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0091</v>
       </c>
       <c r="F257" s="4">
         <v>145</v>
       </c>
       <c r="G257" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0891</v>
       </c>
       <c r="H257" s="4">
@@ -10662,20 +10786,20 @@
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E258" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0092</v>
       </c>
       <c r="F258" s="4">
         <v>146</v>
       </c>
       <c r="G258" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0892</v>
       </c>
       <c r="H258" s="4">
@@ -10686,17 +10810,17 @@
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="D259" s="4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E259" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0093</v>
       </c>
       <c r="F259" s="4">
         <v>147</v>
       </c>
       <c r="G259" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0893</v>
       </c>
       <c r="H259" s="4">
@@ -10707,20 +10831,20 @@
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E260" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0094</v>
       </c>
       <c r="F260" s="4">
         <v>148</v>
       </c>
       <c r="G260" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0894</v>
       </c>
       <c r="H260" s="4">
@@ -10731,17 +10855,17 @@
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="D261" s="6" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E261" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0095</v>
       </c>
       <c r="F261" s="4">
         <v>149</v>
       </c>
       <c r="G261" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0895</v>
       </c>
       <c r="H261" s="4">
@@ -10752,20 +10876,20 @@
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="16" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E262" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0096</v>
       </c>
       <c r="F262" s="4">
         <v>150</v>
       </c>
       <c r="G262" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0896</v>
       </c>
       <c r="H262" s="4">
@@ -10780,17 +10904,17 @@
       <c r="B263" s="4"/>
       <c r="C263" s="17"/>
       <c r="D263" s="5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E263" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0097</v>
       </c>
       <c r="F263" s="4">
         <v>151</v>
       </c>
       <c r="G263" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0897</v>
       </c>
       <c r="H263" s="4">
@@ -10803,20 +10927,20 @@
         <v>74</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E264" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0098</v>
       </c>
       <c r="F264" s="4">
         <v>152</v>
       </c>
       <c r="G264" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0898</v>
       </c>
       <c r="H264" s="4">
@@ -10830,14 +10954,14 @@
         <v>77</v>
       </c>
       <c r="E265" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0099</v>
       </c>
       <c r="F265" s="4">
         <v>153</v>
       </c>
       <c r="G265" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0899</v>
       </c>
       <c r="H265" s="4">
@@ -10848,20 +10972,20 @@
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E266" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>009A</v>
       </c>
       <c r="F266" s="4">
         <v>154</v>
       </c>
       <c r="G266" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>089A</v>
       </c>
       <c r="H266" s="4">
@@ -10875,14 +10999,14 @@
         <v>77</v>
       </c>
       <c r="E267" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>009B</v>
       </c>
       <c r="F267" s="4">
         <v>155</v>
       </c>
       <c r="G267" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>089B</v>
       </c>
       <c r="H267" s="4">
@@ -10891,23 +11015,23 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E268" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>009C</v>
       </c>
       <c r="F268" s="4">
         <v>156</v>
       </c>
       <c r="G268" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>089C</v>
       </c>
       <c r="H268" s="4">
@@ -10918,17 +11042,17 @@
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E269" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>009D</v>
       </c>
       <c r="F269" s="4">
         <v>157</v>
       </c>
       <c r="G269" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>089D</v>
       </c>
       <c r="H269" s="4">
@@ -10941,20 +11065,20 @@
         <v>25</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E270" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>009E</v>
       </c>
       <c r="F270" s="4">
         <v>158</v>
       </c>
       <c r="G270" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>089E</v>
       </c>
       <c r="H270" s="4">
@@ -10968,17 +11092,17 @@
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="D271" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E271" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>009F</v>
       </c>
       <c r="F271" s="4">
         <v>159</v>
       </c>
       <c r="G271" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>089F</v>
       </c>
       <c r="H271" s="4">
@@ -10989,20 +11113,20 @@
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E272" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>00A0</v>
       </c>
       <c r="F272" s="4">
         <v>160</v>
       </c>
       <c r="G272" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>08A0</v>
       </c>
       <c r="H272" s="4">
@@ -11013,17 +11137,17 @@
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="D273" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E273" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>00A1</v>
       </c>
       <c r="F273" s="4">
         <v>161</v>
       </c>
       <c r="G273" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>08A1</v>
       </c>
       <c r="H273" s="4">
@@ -11034,20 +11158,20 @@
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E274" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>00A2</v>
       </c>
       <c r="F274" s="4">
         <v>162</v>
       </c>
       <c r="G274" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>08A2</v>
       </c>
       <c r="H274" s="4">
@@ -11058,17 +11182,17 @@
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="D275" s="4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E275" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>00A3</v>
       </c>
       <c r="F275" s="4">
         <v>163</v>
       </c>
       <c r="G275" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>08A3</v>
       </c>
       <c r="H275" s="4">
@@ -11079,20 +11203,20 @@
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E276" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>00A4</v>
       </c>
       <c r="F276" s="4">
         <v>164</v>
       </c>
       <c r="G276" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>08A4</v>
       </c>
       <c r="H276" s="4">
@@ -11103,17 +11227,17 @@
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="D277" s="4" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E277" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>00A5</v>
       </c>
       <c r="F277" s="4">
         <v>165</v>
       </c>
       <c r="G277" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>08A5</v>
       </c>
       <c r="H277" s="4">
@@ -11124,20 +11248,20 @@
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E278" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>00A6</v>
       </c>
       <c r="F278" s="4">
         <v>166</v>
       </c>
       <c r="G278" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>08A6</v>
       </c>
       <c r="H278" s="4">
@@ -11151,17 +11275,17 @@
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="D279" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E279" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>00A7</v>
       </c>
       <c r="F279" s="4">
         <v>167</v>
       </c>
       <c r="G279" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>08A7</v>
       </c>
       <c r="H279" s="4">
@@ -11172,20 +11296,20 @@
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E280" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>00A8</v>
       </c>
       <c r="F280" s="4">
         <v>168</v>
       </c>
       <c r="G280" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>08A8</v>
       </c>
       <c r="H280" s="4">
@@ -11196,17 +11320,17 @@
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="D281" s="6" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E281" s="4" t="str">
-        <f t="shared" ref="E281:E329" si="13">DEC2HEX(F281,4)</f>
+        <f t="shared" ref="E281:E329" si="14">DEC2HEX(F281,4)</f>
         <v>00A9</v>
       </c>
       <c r="F281" s="4">
         <v>169</v>
       </c>
       <c r="G281" s="5" t="str">
-        <f t="shared" ref="G281:G329" si="14">DEC2HEX(H281,4)</f>
+        <f t="shared" ref="G281:G329" si="15">DEC2HEX(H281,4)</f>
         <v>08A9</v>
       </c>
       <c r="H281" s="4">
@@ -11217,20 +11341,20 @@
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="16" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D282" s="16" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E282" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00AA</v>
       </c>
       <c r="F282" s="4">
         <v>170</v>
       </c>
       <c r="G282" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08AA</v>
       </c>
       <c r="H282" s="4">
@@ -11242,17 +11366,17 @@
       <c r="B283" s="4"/>
       <c r="C283" s="17"/>
       <c r="D283" s="16" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E283" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00AB</v>
       </c>
       <c r="F283" s="4">
         <v>171</v>
       </c>
       <c r="G283" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08AB</v>
       </c>
       <c r="H283" s="4">
@@ -11263,20 +11387,20 @@
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="18" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D284" s="18" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E284" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00DA</v>
       </c>
       <c r="F284" s="20">
         <v>218</v>
       </c>
       <c r="G284" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08DA</v>
       </c>
       <c r="H284" s="18">
@@ -11290,17 +11414,17 @@
       <c r="B285" s="4"/>
       <c r="C285" s="20"/>
       <c r="D285" s="18" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E285" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00DB</v>
       </c>
       <c r="F285" s="20">
         <v>219</v>
       </c>
       <c r="G285" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08DB</v>
       </c>
       <c r="H285" s="18">
@@ -11313,20 +11437,20 @@
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E286" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00AC</v>
       </c>
       <c r="F286" s="4">
         <v>172</v>
       </c>
       <c r="G286" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08AC</v>
       </c>
       <c r="H286" s="4">
@@ -11337,17 +11461,17 @@
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="D287" s="4" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="E287" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00AD</v>
       </c>
       <c r="F287" s="4">
         <v>173</v>
       </c>
       <c r="G287" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08AD</v>
       </c>
       <c r="H287" s="4">
@@ -11358,20 +11482,20 @@
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E288" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00AE</v>
       </c>
       <c r="F288" s="4">
         <v>174</v>
       </c>
       <c r="G288" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08AE</v>
       </c>
       <c r="H288" s="4">
@@ -11385,17 +11509,17 @@
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="D289" s="4" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="E289" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00AF</v>
       </c>
       <c r="F289" s="4">
         <v>175</v>
       </c>
       <c r="G289" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08AF</v>
       </c>
       <c r="H289" s="4">
@@ -11406,20 +11530,20 @@
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E290" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00B0</v>
       </c>
       <c r="F290" s="4">
         <v>176</v>
       </c>
       <c r="G290" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08B0</v>
       </c>
       <c r="H290" s="4">
@@ -11430,17 +11554,17 @@
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="D291" s="4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E291" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00B1</v>
       </c>
       <c r="F291" s="4">
         <v>177</v>
       </c>
       <c r="G291" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08B1</v>
       </c>
       <c r="H291" s="4">
@@ -11451,20 +11575,20 @@
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E292" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00B2</v>
       </c>
       <c r="F292" s="4">
         <v>178</v>
       </c>
       <c r="G292" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08B2</v>
       </c>
       <c r="H292" s="4">
@@ -11475,17 +11599,17 @@
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="D293" s="6" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E293" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00B3</v>
       </c>
       <c r="F293" s="4">
         <v>179</v>
       </c>
       <c r="G293" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08B3</v>
       </c>
       <c r="H293" s="4">
@@ -11496,20 +11620,20 @@
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E294" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00B4</v>
       </c>
       <c r="F294" s="4">
         <v>180</v>
       </c>
       <c r="G294" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08B4</v>
       </c>
       <c r="H294" s="4">
@@ -11520,17 +11644,17 @@
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="D295" s="4" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E295" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00B5</v>
       </c>
       <c r="F295" s="4">
         <v>181</v>
       </c>
       <c r="G295" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08B5</v>
       </c>
       <c r="H295" s="4">
@@ -11541,20 +11665,20 @@
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E296" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00B6</v>
       </c>
       <c r="F296" s="4">
         <v>182</v>
       </c>
       <c r="G296" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08B6</v>
       </c>
       <c r="H296" s="4">
@@ -11568,17 +11692,17 @@
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="D297" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="E297" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00B7</v>
       </c>
       <c r="F297" s="4">
         <v>183</v>
       </c>
       <c r="G297" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08B7</v>
       </c>
       <c r="H297" s="4">
@@ -11589,20 +11713,20 @@
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="16" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E298" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00B8</v>
       </c>
       <c r="F298" s="4">
         <v>184</v>
       </c>
       <c r="G298" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08B8</v>
       </c>
       <c r="H298" s="4">
@@ -11614,17 +11738,17 @@
       <c r="B299" s="4"/>
       <c r="C299" s="17"/>
       <c r="D299" s="16" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="E299" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00B9</v>
       </c>
       <c r="F299" s="4">
         <v>185</v>
       </c>
       <c r="G299" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08B9</v>
       </c>
       <c r="H299" s="4">
@@ -11635,20 +11759,20 @@
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="18" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D300" s="18" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E300" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00DC</v>
       </c>
       <c r="F300" s="20">
         <v>220</v>
       </c>
       <c r="G300" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08DC</v>
       </c>
       <c r="H300" s="18">
@@ -11662,17 +11786,17 @@
       <c r="B301" s="4"/>
       <c r="C301" s="20"/>
       <c r="D301" s="18" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E301" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00DD</v>
       </c>
       <c r="F301" s="20">
         <v>221</v>
       </c>
       <c r="G301" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08DD</v>
       </c>
       <c r="H301" s="18">
@@ -11687,20 +11811,20 @@
         <v>74</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E302" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00BA</v>
       </c>
       <c r="F302" s="4">
         <v>186</v>
       </c>
       <c r="G302" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08BA</v>
       </c>
       <c r="H302" s="4">
@@ -11715,14 +11839,14 @@
         <v>77</v>
       </c>
       <c r="E303" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00BB</v>
       </c>
       <c r="F303" s="4">
         <v>187</v>
       </c>
       <c r="G303" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08BB</v>
       </c>
       <c r="H303" s="4">
@@ -11733,20 +11857,20 @@
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E304" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00BC</v>
       </c>
       <c r="F304" s="4">
         <v>188</v>
       </c>
       <c r="G304" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08BC</v>
       </c>
       <c r="H304" s="4">
@@ -11760,14 +11884,14 @@
         <v>77</v>
       </c>
       <c r="E305" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00BD</v>
       </c>
       <c r="F305" s="4">
         <v>189</v>
       </c>
       <c r="G305" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08BD</v>
       </c>
       <c r="H305" s="4">
@@ -11776,23 +11900,23 @@
     </row>
     <row r="306" spans="1:9">
       <c r="A306" s="4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E306" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00BE</v>
       </c>
       <c r="F306" s="4">
         <v>190</v>
       </c>
       <c r="G306" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08BE</v>
       </c>
       <c r="H306" s="4">
@@ -11806,17 +11930,17 @@
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E307" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00BF</v>
       </c>
       <c r="F307" s="4">
         <v>191</v>
       </c>
       <c r="G307" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08BF</v>
       </c>
       <c r="H307" s="4">
@@ -11827,17 +11951,17 @@
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E308" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00C0</v>
       </c>
       <c r="F308" s="4">
         <v>192</v>
       </c>
       <c r="G308" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08C0</v>
       </c>
       <c r="H308" s="4">
@@ -11848,17 +11972,17 @@
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E309" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00C1</v>
       </c>
       <c r="F309" s="4">
         <v>193</v>
       </c>
       <c r="G309" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08C1</v>
       </c>
       <c r="H309" s="4">
@@ -11869,17 +11993,17 @@
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E310" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00C2</v>
       </c>
       <c r="F310" s="4">
         <v>194</v>
       </c>
       <c r="G310" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08C2</v>
       </c>
       <c r="H310" s="4">
@@ -11890,17 +12014,17 @@
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="E311" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00C3</v>
       </c>
       <c r="F311" s="4">
         <v>195</v>
       </c>
       <c r="G311" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08C3</v>
       </c>
       <c r="H311" s="4">
@@ -11913,20 +12037,20 @@
         <v>25</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E312" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00C4</v>
       </c>
       <c r="F312" s="4">
         <v>196</v>
       </c>
       <c r="G312" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08C4</v>
       </c>
       <c r="H312" s="4">
@@ -11937,17 +12061,17 @@
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="D313" s="4" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E313" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00C5</v>
       </c>
       <c r="F313" s="4">
         <v>197</v>
       </c>
       <c r="G313" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08C5</v>
       </c>
       <c r="H313" s="4">
@@ -11958,20 +12082,20 @@
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E314" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00C6</v>
       </c>
       <c r="F314" s="4">
         <v>198</v>
       </c>
       <c r="G314" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08C6</v>
       </c>
       <c r="H314" s="4">
@@ -11985,17 +12109,17 @@
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="D315" s="6" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E315" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00C7</v>
       </c>
       <c r="F315" s="4">
         <v>199</v>
       </c>
       <c r="G315" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08C7</v>
       </c>
       <c r="H315" s="4">
@@ -12006,20 +12130,20 @@
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E316" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00C8</v>
       </c>
       <c r="F316" s="4">
         <v>200</v>
       </c>
       <c r="G316" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08C8</v>
       </c>
       <c r="H316" s="4">
@@ -12030,17 +12154,17 @@
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="D317" s="4" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E317" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00C9</v>
       </c>
       <c r="F317" s="4">
         <v>201</v>
       </c>
       <c r="G317" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08C9</v>
       </c>
       <c r="H317" s="4">
@@ -12051,20 +12175,20 @@
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E318" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00CA</v>
       </c>
       <c r="F318" s="4">
         <v>202</v>
       </c>
       <c r="G318" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08CA</v>
       </c>
       <c r="H318" s="4">
@@ -12075,17 +12199,17 @@
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="D319" s="4" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E319" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00CB</v>
       </c>
       <c r="F319" s="4">
         <v>203</v>
       </c>
       <c r="G319" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08CB</v>
       </c>
       <c r="H319" s="4">
@@ -12096,20 +12220,20 @@
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E320" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00CC</v>
       </c>
       <c r="F320" s="4">
         <v>204</v>
       </c>
       <c r="G320" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08CC</v>
       </c>
       <c r="H320" s="4">
@@ -12120,17 +12244,17 @@
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="D321" s="4" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E321" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00CD</v>
       </c>
       <c r="F321" s="4">
         <v>205</v>
       </c>
       <c r="G321" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08CD</v>
       </c>
       <c r="H321" s="4">
@@ -12141,20 +12265,20 @@
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E322" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00CE</v>
       </c>
       <c r="F322" s="4">
         <v>206</v>
       </c>
       <c r="G322" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08CE</v>
       </c>
       <c r="H322" s="4">
@@ -12168,17 +12292,17 @@
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="D323" s="4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E323" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00CF</v>
       </c>
       <c r="F323" s="4">
         <v>207</v>
       </c>
       <c r="G323" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08CF</v>
       </c>
       <c r="H323" s="4">
@@ -12191,20 +12315,20 @@
         <v>74</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E324" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00D0</v>
       </c>
       <c r="F324" s="4">
         <v>208</v>
       </c>
       <c r="G324" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08D0</v>
       </c>
       <c r="H324" s="4">
@@ -12218,14 +12342,14 @@
         <v>77</v>
       </c>
       <c r="E325" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00D1</v>
       </c>
       <c r="F325" s="4">
         <v>209</v>
       </c>
       <c r="G325" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08D1</v>
       </c>
       <c r="H325" s="4">
@@ -12236,20 +12360,20 @@
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E326" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00D2</v>
       </c>
       <c r="F326" s="4">
         <v>210</v>
       </c>
       <c r="G326" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08D2</v>
       </c>
       <c r="H326" s="4">
@@ -12263,14 +12387,14 @@
         <v>77</v>
       </c>
       <c r="E327" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00D3</v>
       </c>
       <c r="F327" s="4">
         <v>211</v>
       </c>
       <c r="G327" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08D3</v>
       </c>
       <c r="H327" s="4">
@@ -12281,20 +12405,20 @@
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E328" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00D4</v>
       </c>
       <c r="F328" s="4">
         <v>212</v>
       </c>
       <c r="G328" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08D4</v>
       </c>
       <c r="H328" s="4">
@@ -12308,14 +12432,14 @@
         <v>77</v>
       </c>
       <c r="E329" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>00D5</v>
       </c>
       <c r="F329" s="4">
         <v>213</v>
       </c>
       <c r="G329" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08D5</v>
       </c>
       <c r="H329" s="4">
@@ -12324,7 +12448,7 @@
     </row>
     <row r="330" spans="1:19">
       <c r="A330" s="16" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
@@ -12347,17 +12471,17 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="5" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B331" s="4"/>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" s="14"/>
       <c r="C332" s="18" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D332" s="19" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E332" s="5" t="str">
         <f>DEC2HEX(F332,4)</f>
@@ -12381,17 +12505,17 @@
       <c r="A333" s="14"/>
       <c r="C333" s="20"/>
       <c r="D333" s="19" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E333" s="5" t="str">
-        <f t="shared" ref="E333:E396" si="15">DEC2HEX(F333,4)</f>
+        <f t="shared" ref="E333:E396" si="16">DEC2HEX(F333,4)</f>
         <v>00D7</v>
       </c>
       <c r="F333" s="4">
         <v>215</v>
       </c>
       <c r="G333" s="4" t="str">
-        <f t="shared" ref="G333:G340" si="16">DEC2HEX(H333,4)</f>
+        <f t="shared" ref="G333:G340" si="17">DEC2HEX(H333,4)</f>
         <v>08D7</v>
       </c>
       <c r="H333" s="4">
@@ -12401,20 +12525,20 @@
     <row r="334" spans="1:8">
       <c r="A334" s="14"/>
       <c r="C334" s="18" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D334" s="19" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E334" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00D8</v>
       </c>
       <c r="F334" s="4">
         <v>216</v>
       </c>
       <c r="G334" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08D8</v>
       </c>
       <c r="H334" s="4">
@@ -12425,17 +12549,17 @@
       <c r="A335" s="14"/>
       <c r="C335" s="20"/>
       <c r="D335" s="19" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E335" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00D9</v>
       </c>
       <c r="F335" s="4">
         <v>217</v>
       </c>
       <c r="G335" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08D9</v>
       </c>
       <c r="H335" s="4">
@@ -12445,20 +12569,20 @@
     <row r="336" spans="1:8">
       <c r="A336" s="14"/>
       <c r="C336" s="18" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D336" s="18" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E336" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00DA</v>
       </c>
       <c r="F336" s="4">
         <v>218</v>
       </c>
       <c r="G336" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08DA</v>
       </c>
       <c r="H336" s="4">
@@ -12469,17 +12593,17 @@
       <c r="A337" s="14"/>
       <c r="C337" s="20"/>
       <c r="D337" s="18" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E337" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00DB</v>
       </c>
       <c r="F337" s="4">
         <v>219</v>
       </c>
       <c r="G337" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08DB</v>
       </c>
       <c r="H337" s="4">
@@ -12489,20 +12613,20 @@
     <row r="338" spans="1:8">
       <c r="A338" s="14"/>
       <c r="C338" s="18" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D338" s="18" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E338" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00DC</v>
       </c>
       <c r="F338" s="4">
         <v>220</v>
       </c>
       <c r="G338" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08DC</v>
       </c>
       <c r="H338" s="4">
@@ -12513,17 +12637,17 @@
       <c r="A339" s="14"/>
       <c r="C339" s="20"/>
       <c r="D339" s="18" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E339" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00DD</v>
       </c>
       <c r="F339" s="4">
         <v>221</v>
       </c>
       <c r="G339" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08DD</v>
       </c>
       <c r="H339" s="4">
@@ -12536,20 +12660,20 @@
         <v>74</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D340" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E340" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00DE</v>
       </c>
       <c r="F340" s="4">
         <v>222</v>
       </c>
       <c r="G340" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>08DE</v>
       </c>
       <c r="H340" s="4">
@@ -12563,20 +12687,20 @@
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
       <c r="C341" s="5" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D341" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E341" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00DF</v>
       </c>
       <c r="F341" s="4">
         <v>223</v>
       </c>
       <c r="G341" s="4" t="str">
-        <f t="shared" ref="G341:G404" si="17">DEC2HEX(H341,4)</f>
+        <f t="shared" ref="G341:G404" si="18">DEC2HEX(H341,4)</f>
         <v>08DF</v>
       </c>
       <c r="H341" s="4">
@@ -12587,20 +12711,20 @@
       <c r="A342" s="14"/>
       <c r="B342" s="14"/>
       <c r="C342" s="5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E342" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00E0</v>
       </c>
       <c r="F342" s="4">
         <v>224</v>
       </c>
       <c r="G342" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08E0</v>
       </c>
       <c r="H342" s="4">
@@ -12611,20 +12735,20 @@
       <c r="A343" s="14"/>
       <c r="B343" s="14"/>
       <c r="C343" s="5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E343" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00E1</v>
       </c>
       <c r="F343" s="4">
         <v>225</v>
       </c>
       <c r="G343" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08E1</v>
       </c>
       <c r="H343" s="4">
@@ -12637,20 +12761,20 @@
         <v>74</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E344" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00E2</v>
       </c>
       <c r="F344" s="4">
         <v>226</v>
       </c>
       <c r="G344" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08E2</v>
       </c>
       <c r="H344" s="4">
@@ -12661,20 +12785,20 @@
       <c r="A345" s="14"/>
       <c r="B345" s="14"/>
       <c r="C345" s="5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E345" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00E3</v>
       </c>
       <c r="F345" s="4">
         <v>227</v>
       </c>
       <c r="G345" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08E3</v>
       </c>
       <c r="H345" s="4">
@@ -12685,20 +12809,20 @@
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
       <c r="C346" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D346" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E346" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00E4</v>
       </c>
       <c r="F346" s="4">
         <v>228</v>
       </c>
       <c r="G346" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08E4</v>
       </c>
       <c r="H346" s="4">
@@ -12709,20 +12833,20 @@
       <c r="A347" s="14"/>
       <c r="B347" s="14"/>
       <c r="C347" s="8" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D347" s="8" t="s">
         <v>147</v>
       </c>
       <c r="E347" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00E5</v>
       </c>
       <c r="F347" s="4">
         <v>229</v>
       </c>
       <c r="G347" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08E5</v>
       </c>
       <c r="H347" s="4">
@@ -12733,20 +12857,20 @@
       <c r="A348" s="14"/>
       <c r="B348" s="14"/>
       <c r="C348" s="5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D348" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E348" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00E6</v>
       </c>
       <c r="F348" s="4">
         <v>230</v>
       </c>
       <c r="G348" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08E6</v>
       </c>
       <c r="H348" s="4">
@@ -12760,20 +12884,20 @@
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
       <c r="C349" s="5" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D349" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E349" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00E7</v>
       </c>
       <c r="F349" s="4">
         <v>231</v>
       </c>
       <c r="G349" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08E7</v>
       </c>
       <c r="H349" s="4">
@@ -12786,20 +12910,20 @@
         <v>74</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D350" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E350" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00E8</v>
       </c>
       <c r="F350" s="4">
         <v>232</v>
       </c>
       <c r="G350" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08E8</v>
       </c>
       <c r="H350" s="4">
@@ -12810,20 +12934,20 @@
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" s="5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D351" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E351" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00E9</v>
       </c>
       <c r="F351" s="4">
         <v>233</v>
       </c>
       <c r="G351" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08E9</v>
       </c>
       <c r="H351" s="4">
@@ -12834,20 +12958,20 @@
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D352" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E352" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00EA</v>
       </c>
       <c r="F352" s="4">
         <v>234</v>
       </c>
       <c r="G352" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08EA</v>
       </c>
       <c r="H352" s="4">
@@ -12858,20 +12982,20 @@
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" s="5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D353" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E353" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00EB</v>
       </c>
       <c r="F353" s="4">
         <v>235</v>
       </c>
       <c r="G353" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08EB</v>
       </c>
       <c r="H353" s="4">
@@ -12882,20 +13006,20 @@
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
       <c r="C354" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D354" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E354" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00EC</v>
       </c>
       <c r="F354" s="4">
         <v>236</v>
       </c>
       <c r="G354" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08EC</v>
       </c>
       <c r="H354" s="4">
@@ -12906,20 +13030,20 @@
       <c r="A355" s="14"/>
       <c r="B355" s="14"/>
       <c r="C355" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D355" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E355" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00ED</v>
       </c>
       <c r="F355" s="4">
         <v>237</v>
       </c>
       <c r="G355" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08ED</v>
       </c>
       <c r="H355" s="4">
@@ -12930,20 +13054,20 @@
       <c r="A356" s="14"/>
       <c r="B356" s="13"/>
       <c r="C356" s="5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D356" s="5" t="s">
         <v>149</v>
       </c>
       <c r="E356" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00EE</v>
       </c>
       <c r="F356" s="4">
         <v>238</v>
       </c>
       <c r="G356" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08EE</v>
       </c>
       <c r="H356" s="4">
@@ -12957,20 +13081,20 @@
       <c r="A357" s="14"/>
       <c r="B357" s="14"/>
       <c r="C357" s="5" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D357" s="5" t="s">
         <v>149</v>
       </c>
       <c r="E357" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00EF</v>
       </c>
       <c r="F357" s="4">
         <v>239</v>
       </c>
       <c r="G357" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08EF</v>
       </c>
       <c r="H357" s="4">
@@ -12980,23 +13104,23 @@
     <row r="358" spans="1:8">
       <c r="A358" s="14"/>
       <c r="B358" s="13" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D358" s="16" t="s">
         <v>149</v>
       </c>
       <c r="E358" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0066</v>
       </c>
       <c r="F358" s="17">
         <v>102</v>
       </c>
       <c r="G358" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0866</v>
       </c>
       <c r="H358" s="4">
@@ -13007,20 +13131,20 @@
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" s="16" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D359" s="16" t="s">
         <v>149</v>
       </c>
       <c r="E359" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0067</v>
       </c>
       <c r="F359" s="17">
         <v>103</v>
       </c>
       <c r="G359" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0867</v>
       </c>
       <c r="H359" s="4">
@@ -13031,20 +13155,20 @@
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" s="16" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D360" s="16" t="s">
         <v>149</v>
       </c>
       <c r="E360" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0068</v>
       </c>
       <c r="F360" s="17">
         <v>104</v>
       </c>
       <c r="G360" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0868</v>
       </c>
       <c r="H360" s="4">
@@ -13055,20 +13179,20 @@
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" s="16" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D361" s="16" t="s">
         <v>149</v>
       </c>
       <c r="E361" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0069</v>
       </c>
       <c r="F361" s="17">
         <v>105</v>
       </c>
       <c r="G361" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0869</v>
       </c>
       <c r="H361" s="4">
@@ -13079,20 +13203,20 @@
       <c r="A362" s="14"/>
       <c r="B362" s="13"/>
       <c r="C362" s="16" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D362" s="16" t="s">
         <v>149</v>
       </c>
       <c r="E362" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>006A</v>
       </c>
       <c r="F362" s="17">
         <v>106</v>
       </c>
       <c r="G362" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>086A</v>
       </c>
       <c r="H362" s="4">
@@ -13103,20 +13227,20 @@
       <c r="A363" s="14"/>
       <c r="B363" s="14"/>
       <c r="C363" s="16" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D363" s="16" t="s">
         <v>149</v>
       </c>
       <c r="E363" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>006B</v>
       </c>
       <c r="F363" s="17">
         <v>107</v>
       </c>
       <c r="G363" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>086B</v>
       </c>
       <c r="H363" s="4">
@@ -13129,20 +13253,20 @@
       </c>
       <c r="B364" s="15"/>
       <c r="C364" s="16" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D364" s="16" t="s">
         <v>169</v>
       </c>
       <c r="E364" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00F6</v>
       </c>
       <c r="F364" s="4">
         <v>246</v>
       </c>
       <c r="G364" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08F6</v>
       </c>
       <c r="H364" s="4">
@@ -13152,20 +13276,20 @@
     <row r="365" spans="2:8">
       <c r="B365" s="15"/>
       <c r="C365" s="16" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D365" s="16" t="s">
         <v>169</v>
       </c>
       <c r="E365" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00F7</v>
       </c>
       <c r="F365" s="4">
         <v>247</v>
       </c>
       <c r="G365" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08F7</v>
       </c>
       <c r="H365" s="4">
@@ -13175,20 +13299,20 @@
     <row r="366" spans="2:8">
       <c r="B366" s="15"/>
       <c r="C366" s="16" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D366" s="16" t="s">
         <v>169</v>
       </c>
       <c r="E366" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00F8</v>
       </c>
       <c r="F366" s="4">
         <v>248</v>
       </c>
       <c r="G366" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08F8</v>
       </c>
       <c r="H366" s="4">
@@ -13198,20 +13322,20 @@
     <row r="367" spans="2:8">
       <c r="B367" s="15"/>
       <c r="C367" s="16" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D367" s="16" t="s">
         <v>169</v>
       </c>
       <c r="E367" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00F9</v>
       </c>
       <c r="F367" s="4">
         <v>249</v>
       </c>
       <c r="G367" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08F9</v>
       </c>
       <c r="H367" s="4">
@@ -13221,20 +13345,20 @@
     <row r="368" spans="2:8">
       <c r="B368" s="15"/>
       <c r="C368" s="16" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D368" s="16" t="s">
         <v>169</v>
       </c>
       <c r="E368" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00FA</v>
       </c>
       <c r="F368" s="4">
         <v>250</v>
       </c>
       <c r="G368" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08FA</v>
       </c>
       <c r="H368" s="4">
@@ -13244,20 +13368,20 @@
     <row r="369" spans="2:8">
       <c r="B369" s="15"/>
       <c r="C369" s="16" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D369" s="16" t="s">
         <v>169</v>
       </c>
       <c r="E369" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00FB</v>
       </c>
       <c r="F369" s="4">
         <v>251</v>
       </c>
       <c r="G369" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08FB</v>
       </c>
       <c r="H369" s="4">
@@ -13267,20 +13391,20 @@
     <row r="370" spans="2:8">
       <c r="B370" s="15"/>
       <c r="C370" s="16" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D370" s="16" t="s">
         <v>169</v>
       </c>
       <c r="E370" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00FC</v>
       </c>
       <c r="F370" s="4">
         <v>252</v>
       </c>
       <c r="G370" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08FC</v>
       </c>
       <c r="H370" s="4">
@@ -13290,20 +13414,20 @@
     <row r="371" spans="2:8">
       <c r="B371" s="15"/>
       <c r="C371" s="16" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D371" s="16" t="s">
         <v>169</v>
       </c>
       <c r="E371" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00FD</v>
       </c>
       <c r="F371" s="4">
         <v>253</v>
       </c>
       <c r="G371" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08FD</v>
       </c>
       <c r="H371" s="4">
@@ -13312,20 +13436,20 @@
     </row>
     <row r="372" spans="3:8">
       <c r="C372" s="5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D372" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E372" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00FE</v>
       </c>
       <c r="F372" s="4">
         <v>254</v>
       </c>
       <c r="G372" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08FE</v>
       </c>
       <c r="H372" s="4">
@@ -13334,20 +13458,20 @@
     </row>
     <row r="373" spans="3:8">
       <c r="C373" s="5" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D373" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E373" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>00FF</v>
       </c>
       <c r="F373" s="4">
         <v>255</v>
       </c>
       <c r="G373" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08FF</v>
       </c>
       <c r="H373" s="4">
@@ -13356,20 +13480,20 @@
     </row>
     <row r="374" spans="3:8">
       <c r="C374" s="5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E374" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0100</v>
       </c>
       <c r="F374" s="4">
         <v>256</v>
       </c>
       <c r="G374" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0900</v>
       </c>
       <c r="H374" s="4">
@@ -13378,20 +13502,20 @@
     </row>
     <row r="375" spans="3:8">
       <c r="C375" s="5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D375" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E375" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0101</v>
       </c>
       <c r="F375" s="4">
         <v>257</v>
       </c>
       <c r="G375" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0901</v>
       </c>
       <c r="H375" s="4">
@@ -13400,20 +13524,20 @@
     </row>
     <row r="376" spans="3:8">
       <c r="C376" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D376" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E376" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0102</v>
       </c>
       <c r="F376" s="4">
         <v>258</v>
       </c>
       <c r="G376" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0902</v>
       </c>
       <c r="H376" s="4">
@@ -13422,20 +13546,20 @@
     </row>
     <row r="377" spans="3:8">
       <c r="C377" s="5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D377" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E377" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0103</v>
       </c>
       <c r="F377" s="4">
         <v>259</v>
       </c>
       <c r="G377" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0903</v>
       </c>
       <c r="H377" s="4">
@@ -13444,20 +13568,20 @@
     </row>
     <row r="378" spans="3:8">
       <c r="C378" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D378" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E378" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0104</v>
       </c>
       <c r="F378" s="4">
         <v>260</v>
       </c>
       <c r="G378" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0904</v>
       </c>
       <c r="H378" s="4">
@@ -13466,20 +13590,20 @@
     </row>
     <row r="379" spans="3:8">
       <c r="C379" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E379" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0105</v>
       </c>
       <c r="F379" s="4">
         <v>261</v>
       </c>
       <c r="G379" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0905</v>
       </c>
       <c r="H379" s="4">
@@ -13488,20 +13612,20 @@
     </row>
     <row r="380" spans="3:8">
       <c r="C380" s="4" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E380" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0106</v>
       </c>
       <c r="F380" s="4">
         <v>262</v>
       </c>
       <c r="G380" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0906</v>
       </c>
       <c r="H380" s="4">
@@ -13510,20 +13634,20 @@
     </row>
     <row r="381" spans="3:8">
       <c r="C381" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E381" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0107</v>
       </c>
       <c r="F381" s="4">
         <v>263</v>
       </c>
       <c r="G381" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0907</v>
       </c>
       <c r="H381" s="4">
@@ -13532,20 +13656,20 @@
     </row>
     <row r="382" spans="3:8">
       <c r="C382" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E382" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0108</v>
       </c>
       <c r="F382" s="4">
         <v>264</v>
       </c>
       <c r="G382" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0908</v>
       </c>
       <c r="H382" s="4">
@@ -13554,20 +13678,20 @@
     </row>
     <row r="383" spans="3:8">
       <c r="C383" s="4" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E383" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0109</v>
       </c>
       <c r="F383" s="4">
         <v>265</v>
       </c>
       <c r="G383" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0909</v>
       </c>
       <c r="H383" s="4">
@@ -13576,20 +13700,20 @@
     </row>
     <row r="384" spans="3:8">
       <c r="C384" s="4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E384" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>010A</v>
       </c>
       <c r="F384" s="4">
         <v>266</v>
       </c>
       <c r="G384" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>090A</v>
       </c>
       <c r="H384" s="4">
@@ -13598,20 +13722,20 @@
     </row>
     <row r="385" spans="3:8">
       <c r="C385" s="4" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E385" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>010B</v>
       </c>
       <c r="F385" s="4">
         <v>267</v>
       </c>
       <c r="G385" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>090B</v>
       </c>
       <c r="H385" s="4">
@@ -13620,20 +13744,20 @@
     </row>
     <row r="386" spans="3:8">
       <c r="C386" s="4" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E386" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>010C</v>
       </c>
       <c r="F386" s="4">
         <v>268</v>
       </c>
       <c r="G386" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>090C</v>
       </c>
       <c r="H386" s="4">
@@ -13642,20 +13766,20 @@
     </row>
     <row r="387" spans="3:8">
       <c r="C387" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E387" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>010D</v>
       </c>
       <c r="F387" s="4">
         <v>269</v>
       </c>
       <c r="G387" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>090D</v>
       </c>
       <c r="H387" s="4">
@@ -13664,14 +13788,14 @@
     </row>
     <row r="388" spans="5:8">
       <c r="E388" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>010E</v>
       </c>
       <c r="F388" s="4">
         <v>270</v>
       </c>
       <c r="G388" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>090E</v>
       </c>
       <c r="H388" s="4">
@@ -13680,14 +13804,14 @@
     </row>
     <row r="389" spans="5:8">
       <c r="E389" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>010F</v>
       </c>
       <c r="F389" s="4">
         <v>271</v>
       </c>
       <c r="G389" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>090F</v>
       </c>
       <c r="H389" s="4">
@@ -13696,14 +13820,14 @@
     </row>
     <row r="390" spans="5:8">
       <c r="E390" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0110</v>
       </c>
       <c r="F390" s="4">
         <v>272</v>
       </c>
       <c r="G390" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0910</v>
       </c>
       <c r="H390" s="4">
@@ -13712,14 +13836,14 @@
     </row>
     <row r="391" spans="5:8">
       <c r="E391" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0111</v>
       </c>
       <c r="F391" s="4">
         <v>273</v>
       </c>
       <c r="G391" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0911</v>
       </c>
       <c r="H391" s="4">
@@ -13732,14 +13856,14 @@
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0112</v>
       </c>
       <c r="F392" s="4">
         <v>274</v>
       </c>
       <c r="G392" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0912</v>
       </c>
       <c r="H392" s="4">
@@ -13763,14 +13887,14 @@
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0113</v>
       </c>
       <c r="F393" s="4">
         <v>275</v>
       </c>
       <c r="G393" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0913</v>
       </c>
       <c r="H393" s="4">
@@ -13794,14 +13918,14 @@
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0114</v>
       </c>
       <c r="F394" s="4">
         <v>276</v>
       </c>
       <c r="G394" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0914</v>
       </c>
       <c r="H394" s="4">
@@ -13825,14 +13949,14 @@
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0115</v>
       </c>
       <c r="F395" s="4">
         <v>277</v>
       </c>
       <c r="G395" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0915</v>
       </c>
       <c r="H395" s="4">
@@ -13858,14 +13982,14 @@
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0116</v>
       </c>
       <c r="F396" s="4">
         <v>278</v>
       </c>
       <c r="G396" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0916</v>
       </c>
       <c r="H396" s="4">
@@ -13889,14 +14013,14 @@
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="5" t="str">
-        <f t="shared" ref="E397:E429" si="18">DEC2HEX(F397,4)</f>
+        <f t="shared" ref="E397:E438" si="19">DEC2HEX(F397,4)</f>
         <v>0117</v>
       </c>
       <c r="F397" s="4">
         <v>279</v>
       </c>
       <c r="G397" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0917</v>
       </c>
       <c r="H397" s="4">
@@ -13920,14 +14044,14 @@
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0118</v>
       </c>
       <c r="F398" s="4">
         <v>280</v>
       </c>
       <c r="G398" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0918</v>
       </c>
       <c r="H398" s="4">
@@ -13951,14 +14075,14 @@
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0119</v>
       </c>
       <c r="F399" s="4">
         <v>281</v>
       </c>
       <c r="G399" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0919</v>
       </c>
       <c r="H399" s="4">
@@ -13982,14 +14106,14 @@
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>011A</v>
       </c>
       <c r="F400" s="4">
         <v>282</v>
       </c>
       <c r="G400" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>091A</v>
       </c>
       <c r="H400" s="4">
@@ -14013,14 +14137,14 @@
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>011B</v>
       </c>
       <c r="F401" s="4">
         <v>283</v>
       </c>
       <c r="G401" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>091B</v>
       </c>
       <c r="H401" s="4">
@@ -14044,14 +14168,14 @@
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>011C</v>
       </c>
       <c r="F402" s="4">
         <v>284</v>
       </c>
       <c r="G402" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>091C</v>
       </c>
       <c r="H402" s="4">
@@ -14071,20 +14195,20 @@
     </row>
     <row r="403" spans="3:8">
       <c r="C403" s="16" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D403" s="16" t="s">
         <v>165</v>
       </c>
       <c r="E403" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>011D</v>
       </c>
       <c r="F403" s="4">
         <v>285</v>
       </c>
       <c r="G403" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>091D</v>
       </c>
       <c r="H403" s="4">
@@ -14097,14 +14221,14 @@
         <v>166</v>
       </c>
       <c r="E404" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>011E</v>
       </c>
       <c r="F404" s="4">
         <v>286</v>
       </c>
       <c r="G404" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>091E</v>
       </c>
       <c r="H404" s="4">
@@ -14113,20 +14237,20 @@
     </row>
     <row r="405" spans="3:11">
       <c r="C405" s="5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D405" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E405" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>011F</v>
       </c>
       <c r="F405" s="4">
         <v>287</v>
       </c>
       <c r="G405" s="4" t="str">
-        <f t="shared" ref="G405:G429" si="19">DEC2HEX(H405,4)</f>
+        <f t="shared" ref="G405:G429" si="20">DEC2HEX(H405,4)</f>
         <v>091F</v>
       </c>
       <c r="H405" s="4">
@@ -14141,14 +14265,14 @@
         <v>77</v>
       </c>
       <c r="E406" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0120</v>
       </c>
       <c r="F406" s="4">
         <v>288</v>
       </c>
       <c r="G406" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0920</v>
       </c>
       <c r="H406" s="4">
@@ -14157,20 +14281,20 @@
     </row>
     <row r="407" spans="3:8">
       <c r="C407" s="5" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E407" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0121</v>
       </c>
       <c r="F407" s="4">
         <v>289</v>
       </c>
       <c r="G407" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0921</v>
       </c>
       <c r="H407" s="4">
@@ -14182,14 +14306,14 @@
         <v>77</v>
       </c>
       <c r="E408" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0122</v>
       </c>
       <c r="F408" s="4">
         <v>290</v>
       </c>
       <c r="G408" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0922</v>
       </c>
       <c r="H408" s="4">
@@ -14198,20 +14322,20 @@
     </row>
     <row r="409" spans="3:8">
       <c r="C409" s="5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D409" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E409" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0123</v>
       </c>
       <c r="F409" s="4">
         <v>291</v>
       </c>
       <c r="G409" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0923</v>
       </c>
       <c r="H409" s="4">
@@ -14223,14 +14347,14 @@
         <v>77</v>
       </c>
       <c r="E410" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0124</v>
       </c>
       <c r="F410" s="4">
         <v>292</v>
       </c>
       <c r="G410" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0924</v>
       </c>
       <c r="H410" s="4">
@@ -14239,20 +14363,20 @@
     </row>
     <row r="411" spans="3:8">
       <c r="C411" s="5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D411" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E411" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0125</v>
       </c>
       <c r="F411" s="4">
         <v>293</v>
       </c>
       <c r="G411" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0925</v>
       </c>
       <c r="H411" s="4">
@@ -14264,14 +14388,14 @@
         <v>77</v>
       </c>
       <c r="E412" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0126</v>
       </c>
       <c r="F412" s="4">
         <v>294</v>
       </c>
       <c r="G412" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0926</v>
       </c>
       <c r="H412" s="4">
@@ -14280,20 +14404,20 @@
     </row>
     <row r="413" spans="3:8">
       <c r="C413" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E413" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0127</v>
       </c>
       <c r="F413" s="4">
         <v>295</v>
       </c>
       <c r="G413" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0927</v>
       </c>
       <c r="H413" s="4">
@@ -14305,14 +14429,14 @@
         <v>77</v>
       </c>
       <c r="E414" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0128</v>
       </c>
       <c r="F414" s="4">
         <v>296</v>
       </c>
       <c r="G414" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0928</v>
       </c>
       <c r="H414" s="4">
@@ -14321,20 +14445,20 @@
     </row>
     <row r="415" spans="3:8">
       <c r="C415" s="5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D415" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E415" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0129</v>
       </c>
       <c r="F415" s="4">
         <v>297</v>
       </c>
       <c r="G415" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0929</v>
       </c>
       <c r="H415" s="4">
@@ -14346,14 +14470,14 @@
         <v>77</v>
       </c>
       <c r="E416" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>012A</v>
       </c>
       <c r="F416" s="4">
         <v>298</v>
       </c>
       <c r="G416" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>092A</v>
       </c>
       <c r="H416" s="4">
@@ -14362,20 +14486,20 @@
     </row>
     <row r="417" spans="3:8">
       <c r="C417" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D417" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E417" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>012B</v>
       </c>
       <c r="F417" s="4">
         <v>299</v>
       </c>
       <c r="G417" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>092B</v>
       </c>
       <c r="H417" s="4">
@@ -14387,14 +14511,14 @@
         <v>77</v>
       </c>
       <c r="E418" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>012C</v>
       </c>
       <c r="F418" s="4">
         <v>300</v>
       </c>
       <c r="G418" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>092C</v>
       </c>
       <c r="H418" s="4">
@@ -14403,20 +14527,20 @@
     </row>
     <row r="419" spans="3:8">
       <c r="C419" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D419" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E419" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>012D</v>
       </c>
       <c r="F419" s="4">
         <v>301</v>
       </c>
       <c r="G419" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>092D</v>
       </c>
       <c r="H419" s="4">
@@ -14428,14 +14552,14 @@
         <v>77</v>
       </c>
       <c r="E420" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>012E</v>
       </c>
       <c r="F420" s="4">
         <v>302</v>
       </c>
       <c r="G420" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>092E</v>
       </c>
       <c r="H420" s="4">
@@ -14444,20 +14568,20 @@
     </row>
     <row r="421" spans="3:8">
       <c r="C421" s="5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E421" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>012F</v>
       </c>
       <c r="F421" s="4">
         <v>303</v>
       </c>
       <c r="G421" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>092F</v>
       </c>
       <c r="H421" s="4">
@@ -14466,20 +14590,20 @@
     </row>
     <row r="422" spans="3:8">
       <c r="C422" s="5" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D422" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E422" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0130</v>
       </c>
       <c r="F422" s="4">
         <v>304</v>
       </c>
       <c r="G422" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0930</v>
       </c>
       <c r="H422" s="4">
@@ -14488,20 +14612,20 @@
     </row>
     <row r="423" spans="3:8">
       <c r="C423" s="5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D423" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E423" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0131</v>
       </c>
       <c r="F423" s="4">
         <v>305</v>
       </c>
       <c r="G423" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0931</v>
       </c>
       <c r="H423" s="4">
@@ -14510,20 +14634,20 @@
     </row>
     <row r="424" spans="3:8">
       <c r="C424" s="5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D424" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E424" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0132</v>
       </c>
       <c r="F424" s="4">
         <v>306</v>
       </c>
       <c r="G424" s="4" t="str">
-        <f t="shared" ref="G424:G439" si="20">DEC2HEX(H424,4)</f>
+        <f t="shared" ref="G424:G439" si="21">DEC2HEX(H424,4)</f>
         <v>0932</v>
       </c>
       <c r="H424" s="4">
@@ -14532,20 +14656,20 @@
     </row>
     <row r="425" spans="3:8">
       <c r="C425" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D425" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E425" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0133</v>
       </c>
       <c r="F425" s="4">
         <v>307</v>
       </c>
       <c r="G425" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0933</v>
       </c>
       <c r="H425" s="4">
@@ -14554,20 +14678,20 @@
     </row>
     <row r="426" spans="3:8">
       <c r="C426" s="5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D426" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E426" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0134</v>
       </c>
       <c r="F426" s="4">
         <v>308</v>
       </c>
       <c r="G426" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0934</v>
       </c>
       <c r="H426" s="4">
@@ -14576,20 +14700,20 @@
     </row>
     <row r="427" spans="3:8">
       <c r="C427" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D427" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E427" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0135</v>
       </c>
       <c r="F427" s="4">
         <v>309</v>
       </c>
       <c r="G427" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0935</v>
       </c>
       <c r="H427" s="4">
@@ -14598,20 +14722,20 @@
     </row>
     <row r="428" spans="3:8">
       <c r="C428" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D428" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E428" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0136</v>
       </c>
       <c r="F428" s="4">
         <v>310</v>
       </c>
       <c r="G428" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0936</v>
       </c>
       <c r="H428" s="4">
@@ -14623,14 +14747,14 @@
         <v>168</v>
       </c>
       <c r="E429" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0137</v>
       </c>
       <c r="F429" s="4">
         <v>311</v>
       </c>
       <c r="G429" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0937</v>
       </c>
       <c r="H429" s="4">
@@ -14639,24 +14763,24 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B430" s="15"/>
       <c r="C430" s="17" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D430" s="17" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E430" s="5" t="str">
-        <f>DEC2HEX(F430,4)</f>
+        <f t="shared" si="19"/>
         <v>0138</v>
       </c>
       <c r="F430" s="4">
         <v>312</v>
       </c>
       <c r="G430" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0938</v>
       </c>
       <c r="H430" s="4">
@@ -14666,20 +14790,20 @@
     <row r="431" spans="2:8">
       <c r="B431" s="15"/>
       <c r="C431" s="17" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D431" s="17" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E431" s="5" t="str">
-        <f>DEC2HEX(F431,4)</f>
+        <f t="shared" si="19"/>
         <v>0139</v>
       </c>
       <c r="F431" s="4">
         <v>313</v>
       </c>
       <c r="G431" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0939</v>
       </c>
       <c r="H431" s="4">
@@ -14688,14 +14812,14 @@
     </row>
     <row r="432" spans="5:8">
       <c r="E432" s="5" t="str">
-        <f>DEC2HEX(F432,4)</f>
+        <f t="shared" si="19"/>
         <v>013A</v>
       </c>
       <c r="F432" s="4">
         <v>314</v>
       </c>
       <c r="G432" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>093A</v>
       </c>
       <c r="H432" s="4">
@@ -14704,14 +14828,14 @@
     </row>
     <row r="433" spans="5:8">
       <c r="E433" s="5" t="str">
-        <f>DEC2HEX(F433,4)</f>
+        <f t="shared" si="19"/>
         <v>013B</v>
       </c>
       <c r="F433" s="4">
         <v>315</v>
       </c>
       <c r="G433" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>093B</v>
       </c>
       <c r="H433" s="4">
@@ -14720,14 +14844,14 @@
     </row>
     <row r="434" spans="5:8">
       <c r="E434" s="5" t="str">
-        <f>DEC2HEX(F434,4)</f>
+        <f t="shared" si="19"/>
         <v>013C</v>
       </c>
       <c r="F434" s="4">
         <v>316</v>
       </c>
       <c r="G434" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>093C</v>
       </c>
       <c r="H434" s="4">
@@ -14736,14 +14860,14 @@
     </row>
     <row r="435" spans="5:8">
       <c r="E435" s="5" t="str">
-        <f>DEC2HEX(F435,4)</f>
+        <f t="shared" si="19"/>
         <v>013D</v>
       </c>
       <c r="F435" s="4">
         <v>317</v>
       </c>
       <c r="G435" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>093D</v>
       </c>
       <c r="H435" s="4">
@@ -14752,14 +14876,14 @@
     </row>
     <row r="436" spans="5:8">
       <c r="E436" s="5" t="str">
-        <f>DEC2HEX(F436,4)</f>
+        <f t="shared" si="19"/>
         <v>013E</v>
       </c>
       <c r="F436" s="4">
         <v>318</v>
       </c>
       <c r="G436" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>093E</v>
       </c>
       <c r="H436" s="4">
@@ -14768,14 +14892,14 @@
     </row>
     <row r="437" spans="5:8">
       <c r="E437" s="5" t="str">
-        <f>DEC2HEX(F437,4)</f>
+        <f t="shared" si="19"/>
         <v>013F</v>
       </c>
       <c r="F437" s="4">
         <v>319</v>
       </c>
       <c r="G437" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>093F</v>
       </c>
       <c r="H437" s="4">
@@ -14788,20 +14912,20 @@
       </c>
       <c r="B438" s="15"/>
       <c r="C438" s="17" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D438" s="17" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E438" s="16" t="str">
-        <f>DEC2HEX(F438,4)</f>
+        <f t="shared" si="19"/>
         <v>0140</v>
       </c>
       <c r="F438" s="17">
         <v>320</v>
       </c>
       <c r="G438" s="17" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0940</v>
       </c>
       <c r="H438" s="17">
@@ -14811,20 +14935,20 @@
     <row r="439" spans="2:8">
       <c r="B439" s="15"/>
       <c r="C439" s="17" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D439" s="17" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E439" s="16" t="str">
-        <f t="shared" ref="E439:E453" si="21">DEC2HEX(F439,4)</f>
+        <f t="shared" ref="E439:E453" si="22">DEC2HEX(F439,4)</f>
         <v>0141</v>
       </c>
       <c r="F439" s="17">
         <v>321</v>
       </c>
       <c r="G439" s="17" t="str">
-        <f t="shared" ref="G439:G453" si="22">DEC2HEX(H439,4)</f>
+        <f t="shared" ref="G439:G453" si="23">DEC2HEX(H439,4)</f>
         <v>0941</v>
       </c>
       <c r="H439" s="17">
@@ -14834,20 +14958,20 @@
     <row r="440" spans="2:8">
       <c r="B440" s="15"/>
       <c r="C440" s="17" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D440" s="17" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E440" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0142</v>
       </c>
       <c r="F440" s="17">
         <v>322</v>
       </c>
       <c r="G440" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0942</v>
       </c>
       <c r="H440" s="17">
@@ -14857,20 +14981,20 @@
     <row r="441" spans="2:8">
       <c r="B441" s="15"/>
       <c r="C441" s="17" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D441" s="17" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E441" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0143</v>
       </c>
       <c r="F441" s="17">
         <v>323</v>
       </c>
       <c r="G441" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0943</v>
       </c>
       <c r="H441" s="17">
@@ -14880,20 +15004,20 @@
     <row r="442" spans="2:8">
       <c r="B442" s="15"/>
       <c r="C442" s="17" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D442" s="17" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E442" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0144</v>
       </c>
       <c r="F442" s="17">
         <v>324</v>
       </c>
       <c r="G442" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0944</v>
       </c>
       <c r="H442" s="17">
@@ -14903,20 +15027,20 @@
     <row r="443" spans="2:8">
       <c r="B443" s="15"/>
       <c r="C443" s="17" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D443" s="17" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E443" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0145</v>
       </c>
       <c r="F443" s="17">
         <v>325</v>
       </c>
       <c r="G443" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0945</v>
       </c>
       <c r="H443" s="17">
@@ -14926,20 +15050,20 @@
     <row r="444" spans="2:8">
       <c r="B444" s="15"/>
       <c r="C444" s="17" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D444" s="17" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E444" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0146</v>
       </c>
       <c r="F444" s="17">
         <v>326</v>
       </c>
       <c r="G444" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0946</v>
       </c>
       <c r="H444" s="17">
@@ -14949,20 +15073,20 @@
     <row r="445" spans="2:8">
       <c r="B445" s="15"/>
       <c r="C445" s="17" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D445" s="17" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E445" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0147</v>
       </c>
       <c r="F445" s="17">
         <v>327</v>
       </c>
       <c r="G445" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0947</v>
       </c>
       <c r="H445" s="17">
@@ -14972,20 +15096,20 @@
     <row r="446" spans="2:8">
       <c r="B446" s="15"/>
       <c r="C446" s="17" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D446" s="17" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E446" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0148</v>
       </c>
       <c r="F446" s="17">
         <v>328</v>
       </c>
       <c r="G446" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0948</v>
       </c>
       <c r="H446" s="17">
@@ -14995,20 +15119,20 @@
     <row r="447" spans="2:8">
       <c r="B447" s="15"/>
       <c r="C447" s="17" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D447" s="17" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E447" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0149</v>
       </c>
       <c r="F447" s="17">
         <v>329</v>
       </c>
       <c r="G447" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0949</v>
       </c>
       <c r="H447" s="17">
@@ -15018,20 +15142,20 @@
     <row r="448" spans="2:8">
       <c r="B448" s="15"/>
       <c r="C448" s="17" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D448" s="17" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E448" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>014A</v>
       </c>
       <c r="F448" s="17">
         <v>330</v>
       </c>
       <c r="G448" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>094A</v>
       </c>
       <c r="H448" s="17">
@@ -15041,20 +15165,20 @@
     <row r="449" spans="2:8">
       <c r="B449" s="15"/>
       <c r="C449" s="17" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D449" s="17" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E449" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>014B</v>
       </c>
       <c r="F449" s="17">
         <v>331</v>
       </c>
       <c r="G449" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>094B</v>
       </c>
       <c r="H449" s="17">
@@ -15064,20 +15188,20 @@
     <row r="450" spans="2:8">
       <c r="B450" s="15"/>
       <c r="C450" s="17" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D450" s="17" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E450" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>014C</v>
       </c>
       <c r="F450" s="17">
         <v>332</v>
       </c>
       <c r="G450" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>094C</v>
       </c>
       <c r="H450" s="17">
@@ -15087,20 +15211,20 @@
     <row r="451" spans="2:8">
       <c r="B451" s="15"/>
       <c r="C451" s="17" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D451" s="17" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E451" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>014D</v>
       </c>
       <c r="F451" s="17">
         <v>333</v>
       </c>
       <c r="G451" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>094D</v>
       </c>
       <c r="H451" s="17">
@@ -15110,20 +15234,20 @@
     <row r="452" spans="2:8">
       <c r="B452" s="15"/>
       <c r="C452" s="17" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D452" s="17" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E452" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>014E</v>
       </c>
       <c r="F452" s="17">
         <v>334</v>
       </c>
       <c r="G452" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>094E</v>
       </c>
       <c r="H452" s="17">
@@ -15133,20 +15257,20 @@
     <row r="453" spans="2:8">
       <c r="B453" s="15"/>
       <c r="C453" s="17" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D453" s="17" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E453" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>014F</v>
       </c>
       <c r="F453" s="17">
         <v>335</v>
       </c>
       <c r="G453" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>094F</v>
       </c>
       <c r="H453" s="17">
@@ -15460,7 +15584,7 @@
   <sheetData>
     <row r="1" ht="23" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -15478,602 +15602,602 @@
     <row r="2" spans="1:13">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="I7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="J7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="K7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E8" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F8" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G8" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H8" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="I8" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="J8" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="K8" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L8" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M8" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F10" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H10" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="I10" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="J10" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="K10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="L10" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M10" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B14" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D14" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E14" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F14" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G14" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H14" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="I14" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="J14" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="K14" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="L14" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M14" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B15" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C15" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D15" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E15" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F15" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G15" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H15" t="s">
+        <v>378</v>
+      </c>
+      <c r="I15" t="s">
+        <v>369</v>
+      </c>
+      <c r="J15" t="s">
+        <v>380</v>
+      </c>
+      <c r="K15" t="s">
+        <v>393</v>
+      </c>
+      <c r="L15" t="s">
         <v>370</v>
       </c>
-      <c r="I15" t="s">
-        <v>361</v>
-      </c>
-      <c r="J15" t="s">
-        <v>372</v>
-      </c>
-      <c r="K15" t="s">
-        <v>385</v>
-      </c>
-      <c r="L15" t="s">
-        <v>362</v>
-      </c>
       <c r="M15" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C16" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D16" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E16" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F16" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G16" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H16" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I16" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="J16" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="K16" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L16" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M16" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C17" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D17" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E17" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F17" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G17" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H17" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="I17" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="J17" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="K17" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L17" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M17" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" t="s">
         <v>370</v>
       </c>
-      <c r="C18" t="s">
-        <v>362</v>
-      </c>
       <c r="D18" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E18" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F18" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G18" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H18" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="I18" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="J18" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="K18" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="L18" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M18" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
